--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -575,7 +575,7 @@
         <v>45846.63826388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45761.37239583334</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45359.66121527777</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45659.39741898148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45288</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44645</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45701</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44873</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44645</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,14 +1572,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 46459-2023</t>
+          <t>A 13932-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45197</v>
+        <v>45737.67560185185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1591,13 +1591,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1606,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1621,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1631,45 +1626,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Drillsnäppa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 46459-2023 artfynd.xlsx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 13932-2025 artfynd.xlsx", "A 13932-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 46459-2023 karta.png", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 13932-2025 karta.png", "A 13932-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 46459-2023 FSC-klagomål.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 13932-2025 FSC-klagomål.docx", "A 13932-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 46459-2023 FSC-klagomål mail.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 13932-2025 FSC-klagomål mail.docx", "A 13932-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 46459-2023 tillsynsbegäran.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 13932-2025 tillsynsbegäran.docx", "A 13932-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 46459-2023 tillsynsbegäran mail.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 13932-2025 tillsynsbegäran mail.docx", "A 13932-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 11010-2025</t>
+          <t>A 36068-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45723</v>
+        <v>45149</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1682,13 +1677,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>12.4</v>
+        <v>5.3</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1716,128 +1711,123 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 36068-2023 artfynd.xlsx", "A 36068-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 36068-2023 karta.png", "A 36068-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 36068-2023 FSC-klagomål.docx", "A 36068-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 36068-2023 FSC-klagomål mail.docx", "A 36068-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 36068-2023 tillsynsbegäran.docx", "A 36068-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 36068-2023 tillsynsbegäran mail.docx", "A 36068-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 36068-2023 prioriterade fågelarter.docx", "A 36068-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 11010-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45723</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Kambräken</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 11010-2025 artfynd.xlsx", "A 11010-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 11010-2025 karta.png", "A 11010-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 11010-2025 FSC-klagomål.docx", "A 11010-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 11010-2025 FSC-klagomål mail.docx", "A 11010-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 11010-2025 tillsynsbegäran.docx", "A 11010-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 11010-2025 tillsynsbegäran mail.docx", "A 11010-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 44638-2022</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44840.59173611111</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>HALLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>KUNGSBACKA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 44638-2022 artfynd.xlsx", "A 44638-2022")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 44638-2022 karta.png", "A 44638-2022")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 44638-2022 FSC-klagomål.docx", "A 44638-2022")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 44638-2022 FSC-klagomål mail.docx", "A 44638-2022")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 44638-2022 tillsynsbegäran.docx", "A 44638-2022")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 44638-2022 tillsynsbegäran mail.docx", "A 44638-2022")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 44638-2022 prioriterade fågelarter.docx", "A 44638-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
@@ -1848,7 +1838,7 @@
         <v>45719</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1926,14 +1916,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 36068-2023</t>
+          <t>A 44638-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45149</v>
+        <v>44840.59173611111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1945,8 +1935,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>5.3</v>
+        <v>11.8</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1955,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1970,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1980,49 +1975,49 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 36068-2023 artfynd.xlsx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 44638-2022 artfynd.xlsx", "A 44638-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 36068-2023 karta.png", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 44638-2022 karta.png", "A 44638-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 36068-2023 FSC-klagomål.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 44638-2022 FSC-klagomål.docx", "A 44638-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 36068-2023 FSC-klagomål mail.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 44638-2022 FSC-klagomål mail.docx", "A 44638-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 36068-2023 tillsynsbegäran.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 44638-2022 tillsynsbegäran.docx", "A 44638-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 36068-2023 tillsynsbegäran mail.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 44638-2022 tillsynsbegäran mail.docx", "A 44638-2022")</f>
         <v/>
       </c>
       <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 36068-2023 prioriterade fågelarter.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 44638-2022 prioriterade fågelarter.docx", "A 44638-2022")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 13932-2025</t>
+          <t>A 46459-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45737.67560185185</v>
+        <v>45197</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,8 +2029,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2069,31 +2069,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Drillsnäppa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 13932-2025 artfynd.xlsx", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 46459-2023 artfynd.xlsx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 13932-2025 karta.png", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 46459-2023 karta.png", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 13932-2025 FSC-klagomål.docx", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 46459-2023 FSC-klagomål.docx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 13932-2025 FSC-klagomål mail.docx", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 46459-2023 FSC-klagomål mail.docx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 13932-2025 tillsynsbegäran.docx", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 46459-2023 tillsynsbegäran.docx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 13932-2025 tillsynsbegäran mail.docx", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 46459-2023 tillsynsbegäran mail.docx", "A 46459-2023")</f>
         <v/>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
         <v>44804.90865740741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44308.50634259259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44286.34952546296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44286.37935185185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44537</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>44390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44368.66283564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44392</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44279</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44853.50788194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2799,14 +2799,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 8640-2022</t>
+          <t>A 41766-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44613</v>
+        <v>44425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2856,14 +2856,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 41766-2021</t>
+          <t>A 8640-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44425</v>
+        <v>44613</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>44279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44462</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44298.52335648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44298.52487268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44285</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44539</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44740</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44684.3947800926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44455.7780787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44383</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44767.60487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44819</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44250</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44274</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3996,14 +3996,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 70904-2021</t>
+          <t>A 64129-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44538.43275462963</v>
+        <v>44510</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4053,14 +4053,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 28118-2021</t>
+          <t>A 70904-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44355</v>
+        <v>44538.43275462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>12.2</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4110,14 +4110,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 64129-2021</t>
+          <t>A 28118-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44510</v>
+        <v>44355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>12.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>44251</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4224,14 +4224,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46251-2024</t>
+          <t>A 41769-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45581.59541666666</v>
+        <v>44425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4281,14 +4281,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 41769-2021</t>
+          <t>A 58324-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44425</v>
+        <v>45632.62684027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4338,14 +4338,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 28574-2024</t>
+          <t>A 58330-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45478</v>
+        <v>45632.63079861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4395,14 +4395,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7709-2025</t>
+          <t>A 65199-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45706</v>
+        <v>45288</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.3</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4452,14 +4452,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 7718-2025</t>
+          <t>A 9527-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45706</v>
+        <v>45359.66539351852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4471,8 +4471,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4509,14 +4514,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 34620-2025</t>
+          <t>A 9548-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45847</v>
+        <v>45359</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4529,7 +4534,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4566,14 +4571,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 36770-2025</t>
+          <t>A 71891-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45873.58733796296</v>
+        <v>44543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4586,7 +4591,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4623,14 +4628,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28583-2024</t>
+          <t>A 49492-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45478</v>
+        <v>45596.36532407408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4643,7 +4648,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4680,14 +4685,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 23132-2025</t>
+          <t>A 64363-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45791.38755787037</v>
+        <v>45280</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4700,7 +4705,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>15.9</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4737,14 +4742,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 23141-2025</t>
+          <t>A 5201-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45791.39673611111</v>
+        <v>45330</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4757,7 +4762,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>6.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4794,14 +4799,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 8947-2025</t>
+          <t>A 6978-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45713.4553125</v>
+        <v>44967.64511574074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4814,7 +4819,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4851,14 +4856,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 6103-2024</t>
+          <t>A 9965-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45337.36503472222</v>
+        <v>45719</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4871,7 +4876,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4908,14 +4913,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 6214-2024</t>
+          <t>A 9976-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45337</v>
+        <v>45719</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4928,7 +4933,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4965,14 +4970,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 16230-2023</t>
+          <t>A 11097-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45028.41518518519</v>
+        <v>44992</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4985,7 +4990,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5022,14 +5027,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 34315-2024</t>
+          <t>A 6260-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45524.70024305556</v>
+        <v>44600</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5042,7 +5047,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5079,14 +5084,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 34319-2024</t>
+          <t>A 17401-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45524.71290509259</v>
+        <v>45035</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5136,14 +5141,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 57812-2024</t>
+          <t>A 31344-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45631.36516203704</v>
+        <v>45504.8096875</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5156,7 +5161,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5193,14 +5198,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 4382-2025</t>
+          <t>A 13669-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45686.39684027778</v>
+        <v>45736.85748842593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5213,7 +5218,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5250,14 +5255,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 4386-2025</t>
+          <t>A 9423-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45686.39981481482</v>
+        <v>45359.46068287037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5270,7 +5275,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5307,14 +5312,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 21279-2024</t>
+          <t>A 53972-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45440</v>
+        <v>45616.3218287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5327,7 +5332,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5364,14 +5369,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 26866-2025</t>
+          <t>A 12831-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45810.71270833333</v>
+        <v>45733.63225694445</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5384,7 +5389,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5421,14 +5426,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 23136-2025</t>
+          <t>A 62741-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45791.39138888889</v>
+        <v>44925.90137731482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5441,7 +5446,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5478,14 +5483,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 36597-2023</t>
+          <t>A 62743-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45153.48170138889</v>
+        <v>44925.90475694444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5498,7 +5503,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5535,14 +5540,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 10396-2024</t>
+          <t>A 61976-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45365.66971064815</v>
+        <v>45653.62631944445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5555,7 +5560,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5592,14 +5597,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26148-2023</t>
+          <t>A 44353-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45091.48842592593</v>
+        <v>45188</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5612,7 +5617,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5649,14 +5654,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 31885-2023</t>
+          <t>A 9417-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45118.67444444444</v>
+        <v>44981</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5669,7 +5674,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5706,14 +5711,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 21163-2023</t>
+          <t>A 11310-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45062</v>
+        <v>45371.87774305556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5731,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5763,14 +5768,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 8942-2025</t>
+          <t>A 51-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45713.45041666667</v>
+        <v>45659.38747685185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5783,7 +5788,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5820,14 +5825,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 63104-2023</t>
+          <t>A 16045-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45273</v>
+        <v>45749.63446759259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5840,7 +5845,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5877,14 +5882,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 26145-2023</t>
+          <t>A 10269-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45091.48431712963</v>
+        <v>44986.80671296296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5897,7 +5902,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5934,14 +5939,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 33983-2023</t>
+          <t>A 40024-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45134.695</v>
+        <v>44418.4324537037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5954,7 +5959,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5991,14 +5996,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 36654-2024</t>
+          <t>A 15163-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45537</v>
+        <v>45400.32577546296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,14 +6053,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 59726-2024</t>
+          <t>A 25269-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45639.49413194445</v>
+        <v>45800</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6068,7 +6073,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6105,14 +6110,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 6757-2025</t>
+          <t>A 25757-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45700.62190972222</v>
+        <v>45801</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6125,7 +6130,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>8.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6162,14 +6167,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 21171-2023</t>
+          <t>A 35811-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45062</v>
+        <v>45532.65364583334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6182,7 +6187,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6219,14 +6224,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 21306-2023</t>
+          <t>A 8677-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45062</v>
+        <v>44613</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6239,7 +6244,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6276,14 +6281,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 58779-2024</t>
+          <t>A 24964-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45635.83408564814</v>
+        <v>45461</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6295,8 +6300,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6333,14 +6343,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 2074-2025</t>
+          <t>A 39154-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45672</v>
+        <v>45888.61770833333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6353,7 +6363,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6390,14 +6400,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41855-2024</t>
+          <t>A 39066-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45561.44230324074</v>
+        <v>45888.46474537037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6410,7 +6420,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6447,14 +6457,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 45281-2024</t>
+          <t>A 61739-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45576.37672453704</v>
+        <v>45265</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6467,7 +6477,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5</v>
+        <v>13.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6504,14 +6514,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 62664-2022</t>
+          <t>A 6417-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44925.53116898148</v>
+        <v>45338</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6524,7 +6534,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6561,14 +6571,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 22003-2024</t>
+          <t>A 10664-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45443.57090277778</v>
+        <v>45721.73804398148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6581,7 +6591,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>15.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6618,14 +6628,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 38308-2025</t>
+          <t>A 16076-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45883.47233796296</v>
+        <v>45749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6638,7 +6648,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6675,14 +6685,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 37051-2025</t>
+          <t>A 39292-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45875.36324074074</v>
+        <v>45889.41831018519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6695,7 +6705,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6732,14 +6742,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 6774-2025</t>
+          <t>A 39295-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45700.64171296296</v>
+        <v>45889.42100694445</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6752,7 +6762,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6789,14 +6799,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 39154-2025</t>
+          <t>A 39486-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45888.61770833333</v>
+        <v>45890</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6809,7 +6819,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6846,14 +6856,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 39066-2025</t>
+          <t>A 20828-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45888.46474537037</v>
+        <v>45776.74407407407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6866,7 +6876,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6903,14 +6913,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 22594-2023</t>
+          <t>A 56293-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45071.49386574074</v>
+        <v>45242.61020833333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6923,7 +6933,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6960,14 +6970,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 13394-2025</t>
+          <t>A 56294-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45735.6999537037</v>
+        <v>45242</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6980,7 +6990,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7017,14 +7027,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 37995-2025</t>
+          <t>A 27975-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45881.75913194445</v>
+        <v>45817.56953703704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7037,7 +7047,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7074,14 +7084,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 16075-2025</t>
+          <t>A 27977-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45749.68863425926</v>
+        <v>45817.57148148148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7094,7 +7104,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7131,14 +7141,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 36368-2021</t>
+          <t>A 28610-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44390</v>
+        <v>45103</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7150,13 +7160,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7193,14 +7198,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 24941-2024</t>
+          <t>A 11432-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45461</v>
+        <v>45726.61204861111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7212,13 +7217,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7255,14 +7255,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 53378-2021</t>
+          <t>A 14898-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44468.60568287037</v>
+        <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7312,14 +7312,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4927-2024</t>
+          <t>A 40772-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45329</v>
+        <v>45897.40917824074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7369,14 +7369,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46779-2022</t>
+          <t>A 28331-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44851.49621527778</v>
+        <v>45818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>6.7</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7426,14 +7426,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 39292-2025</t>
+          <t>A 15061-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45889.41831018519</v>
+        <v>45743.71736111111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7483,14 +7483,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 39295-2025</t>
+          <t>A 28332-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45889.42100694445</v>
+        <v>45818.660625</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7540,14 +7540,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 39486-2025</t>
+          <t>A 28383-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45890</v>
+        <v>45819.31177083333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7597,14 +7597,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 10137-2025</t>
+          <t>A 28900-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45719</v>
+        <v>45820.63842592593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7654,14 +7654,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 11961-2023</t>
+          <t>A 28879-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44994</v>
+        <v>45820.62296296296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7711,14 +7711,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 9417-2023</t>
+          <t>A 22589-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44981</v>
+        <v>45071.48055555556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7768,14 +7768,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 5201-2024</t>
+          <t>A 10949-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45330</v>
+        <v>45370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>6.7</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7825,14 +7825,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 10664-2025</t>
+          <t>A 36284-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45721.73804398148</v>
+        <v>45867.654375</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>15.2</v>
+        <v>3.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7882,14 +7882,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 10665-2025</t>
+          <t>A 9848-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45721.74442129629</v>
+        <v>45363.36511574074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7901,8 +7901,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7939,14 +7944,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 51332-2022</t>
+          <t>A 58118-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44869</v>
+        <v>44487</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7959,7 +7964,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7996,14 +8001,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 62142-2024</t>
+          <t>A 28036-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45656.66166666667</v>
+        <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8021,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8053,14 +8058,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 62143-2024</t>
+          <t>A 62141-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45656.66363425926</v>
+        <v>45656.65996527778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8073,7 +8078,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8110,14 +8115,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 40772-2025</t>
+          <t>A 42754-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45897.40917824074</v>
+        <v>45908.44385416667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8130,7 +8135,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8167,14 +8172,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 17212-2025</t>
+          <t>A 15093-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45756.44349537037</v>
+        <v>45744.32858796296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8187,7 +8192,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8224,14 +8229,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 39418-2021</t>
+          <t>A 15096-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44414</v>
+        <v>45744.3337962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8244,7 +8249,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8281,14 +8286,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 36284-2025</t>
+          <t>A 15122-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45867.654375</v>
+        <v>45744.32612268518</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8301,7 +8306,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8338,14 +8343,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 4919-2024</t>
+          <t>A 21721-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45329</v>
+        <v>45065</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8358,7 +8363,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8395,14 +8400,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 10949-2024</t>
+          <t>A 31950-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45370</v>
+        <v>45835</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8415,7 +8420,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8452,14 +8457,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 30901-2022</t>
+          <t>A 36368-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44767</v>
+        <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8471,8 +8476,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8509,14 +8519,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 17293-2025</t>
+          <t>A 43655-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45756.58894675926</v>
+        <v>45912.33763888889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8529,7 +8539,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8566,14 +8576,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 42754-2025</t>
+          <t>A 22594-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45908.44385416667</v>
+        <v>45071.49386574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8586,7 +8596,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8623,14 +8633,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 274-2026</t>
+          <t>A 44666-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46027.46872685185</v>
+        <v>45917.56202546296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8643,7 +8653,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8680,14 +8690,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 20750-2024</t>
+          <t>A 44674-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45436</v>
+        <v>45917.56850694444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8700,7 +8710,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8737,14 +8747,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 16887-2025</t>
+          <t>A 45316-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45755</v>
+        <v>45921.83819444444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8756,13 +8766,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8799,14 +8804,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 62742-2022</t>
+          <t>A 45623-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44925.90333333334</v>
+        <v>45922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8819,7 +8824,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8856,14 +8861,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 61976-2024</t>
+          <t>A 3281-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45653.62631944445</v>
+        <v>45679</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8876,7 +8881,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.1</v>
+        <v>10.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8913,14 +8918,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 31950-2025</t>
+          <t>A 45625-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45835</v>
+        <v>45922.79663194445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8933,7 +8938,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8970,14 +8975,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 43655-2025</t>
+          <t>A 45631-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45912.33763888889</v>
+        <v>45922.84188657408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8990,7 +8995,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9027,14 +9032,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 53051-2021</t>
+          <t>A 45621-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44467.73666666666</v>
+        <v>45922</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9046,13 +9051,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9089,14 +9089,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 31293-2024</t>
+          <t>A 45624-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45504.47707175926</v>
+        <v>45922.79326388889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9146,14 +9146,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 1383-2026</t>
+          <t>A 45626-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46031.62196759259</v>
+        <v>45922.79810185185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9203,14 +9203,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 1385-2026</t>
+          <t>A 45632-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46031.62402777778</v>
+        <v>45922.84633101852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9260,14 +9260,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 1379-2026</t>
+          <t>A 45622-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46031.62039351852</v>
+        <v>45922.78539351852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9317,14 +9317,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 52909-2021</t>
+          <t>A 45639-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44467</v>
+        <v>45922.86137731482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9374,14 +9374,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 44666-2025</t>
+          <t>A 31888-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45917.56202546296</v>
+        <v>45834.66146990741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9431,14 +9431,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 44674-2025</t>
+          <t>A 31873-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45917.56850694444</v>
+        <v>45834.65045138889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9488,14 +9488,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 31344-2024</t>
+          <t>A 49489-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45504.8096875</v>
+        <v>45596.36135416666</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9545,14 +9545,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 2415-2023</t>
+          <t>A 12218-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44942</v>
+        <v>45729.53674768518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>19.2</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9602,14 +9602,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 45623-2025</t>
+          <t>A 47452-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45922</v>
+        <v>45930</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9659,14 +9659,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 35804-2024</t>
+          <t>A 32620-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45532</v>
+        <v>45838.64533564815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9716,14 +9716,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 35808-2024</t>
+          <t>A 32894-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45532.64996527778</v>
+        <v>45839.61362268519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9773,14 +9773,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 35811-2024</t>
+          <t>A 10819-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45532.65364583334</v>
+        <v>45722.54821759259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9830,14 +9830,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 60004-2025</t>
+          <t>A 48486-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45993.58465277778</v>
+        <v>45936.35866898148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9887,14 +9887,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 45621-2025</t>
+          <t>A 57056-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45922</v>
+        <v>44895.39894675926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9944,14 +9944,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 45316-2025</t>
+          <t>A 30901-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45921.83819444444</v>
+        <v>44767</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10001,14 +10001,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 45625-2025</t>
+          <t>A 13394-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45922.79663194445</v>
+        <v>45735.6999537037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10058,14 +10058,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 45631-2025</t>
+          <t>A 49912-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45922.84188657408</v>
+        <v>45940.61109953704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10115,14 +10115,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 7335-2023</t>
+          <t>A 59304-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44971.23162037037</v>
+        <v>45637.66958333334</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10172,14 +10172,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 45622-2025</t>
+          <t>A 34086-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45922.78539351852</v>
+        <v>45845.4681712963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10229,14 +10229,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 45624-2025</t>
+          <t>A 34360-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45922.79326388889</v>
+        <v>45846.48792824074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10286,14 +10286,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 45626-2025</t>
+          <t>A 33646-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45922.79810185185</v>
+        <v>44789.60099537037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10343,14 +10343,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 45632-2025</t>
+          <t>A 34407-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45922.84633101852</v>
+        <v>45846.6321875</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10400,14 +10400,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 45639-2025</t>
+          <t>A 46779-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45922.86137731482</v>
+        <v>44851.49621527778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.3</v>
+        <v>6.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10457,14 +10457,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 36984-2021</t>
+          <t>A 9409-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44393</v>
+        <v>45359.43568287037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.7</v>
+        <v>0.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10519,14 +10519,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 58118-2021</t>
+          <t>A 9412-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44487</v>
+        <v>45359.44203703704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,14 +10576,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 61259-2025</t>
+          <t>A 34660-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46000.67261574074</v>
+        <v>45848.36886574074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10633,14 +10633,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 47452-2025</t>
+          <t>A 34782-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45930</v>
+        <v>45848</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>44378</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,14 +10747,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 42412-2022</t>
+          <t>A 34975-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44831</v>
+        <v>45849.68076388889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10804,14 +10804,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 61424-2025</t>
+          <t>A 45892-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46001</v>
+        <v>45923</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10861,14 +10861,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 64363-2023</t>
+          <t>A 35399-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45280</v>
+        <v>45855.33679398148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10918,14 +10918,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 48486-2025</t>
+          <t>A 35804-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45936.35866898148</v>
+        <v>45532</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.9</v>
+        <v>7.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10975,14 +10975,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 61621-2025</t>
+          <t>A 35808-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46002.39636574074</v>
+        <v>45532.64996527778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11032,14 +11032,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 11958-2023</t>
+          <t>A 45887-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44994</v>
+        <v>45923</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11089,14 +11089,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 57790-2022</t>
+          <t>A 51523-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44897.655625</v>
+        <v>45950</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>18.8</v>
+        <v>3.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11146,14 +11146,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 11432-2025</t>
+          <t>A 35801-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45726.61204861111</v>
+        <v>45861.38625</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11203,14 +11203,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 62743-2022</t>
+          <t>A 35800-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44925.90475694444</v>
+        <v>45861.38344907408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11260,14 +11260,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 53972-2024</t>
+          <t>A 18179-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45616.3218287037</v>
+        <v>45761</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11317,14 +11317,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 32030-2024</t>
+          <t>A 35898-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45510</v>
+        <v>45862.48679398148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11336,13 +11336,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11379,14 +11374,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 12064-2023</t>
+          <t>A 52132-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44997</v>
+        <v>45952.80421296296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11399,7 +11394,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11436,14 +11431,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 65199-2023</t>
+          <t>A 46251-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45288</v>
+        <v>45581.59541666666</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11456,7 +11451,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11493,14 +11488,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 71676-2021</t>
+          <t>A 33983-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44539</v>
+        <v>45134.695</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11513,7 +11508,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>8.1</v>
+        <v>1.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11550,14 +11545,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 49912-2025</t>
+          <t>A 23132-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45940.61109953704</v>
+        <v>45791.38755787037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11570,7 +11565,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.3</v>
+        <v>15.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11607,14 +11602,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 52317-2022</t>
+          <t>A 36654-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44873</v>
+        <v>45537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11627,7 +11622,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11664,14 +11659,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 41508-2024</t>
+          <t>A 6757-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45560</v>
+        <v>45700.62190972222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11684,7 +11679,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11721,14 +11716,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 4985-2025</t>
+          <t>A 8942-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45691.30831018519</v>
+        <v>45713.45041666667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11741,7 +11736,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11778,14 +11773,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 6260-2022</t>
+          <t>A 34315-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44600</v>
+        <v>45524.70024305556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11798,7 +11793,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11835,14 +11830,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 14487-2025</t>
+          <t>A 34319-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45741.60409722223</v>
+        <v>45524.71290509259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11855,7 +11850,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11892,14 +11887,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 19502-2022</t>
+          <t>A 45281-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44693</v>
+        <v>45576.37672453704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11912,7 +11907,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11949,14 +11944,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 45887-2025</t>
+          <t>A 62664-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45923</v>
+        <v>44925.53116898148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11969,7 +11964,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12006,14 +12001,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 57709-2023</t>
+          <t>A 11154-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45246.68188657407</v>
+        <v>44629.38306712963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12026,7 +12021,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>6.6</v>
+        <v>2.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12063,14 +12058,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 14898-2023</t>
+          <t>A 41855-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45014</v>
+        <v>45561.44230324074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12083,7 +12078,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12120,14 +12115,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 51523-2025</t>
+          <t>A 59726-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45950</v>
+        <v>45639.49413194445</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12140,7 +12135,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12177,14 +12172,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 45892-2025</t>
+          <t>A 2074-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45923</v>
+        <v>45672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12197,7 +12192,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12234,14 +12229,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 5829-2026</t>
+          <t>A 28583-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46052</v>
+        <v>45478</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12254,7 +12249,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12291,14 +12286,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 52132-2025</t>
+          <t>A 10396-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45952.80421296296</v>
+        <v>45365.66971064815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12306,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12348,14 +12343,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 6136-2026</t>
+          <t>A 4386-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46054.64793981481</v>
+        <v>45686.39981481482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12363,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12405,14 +12400,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 10269-2023</t>
+          <t>A 34620-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44986.80671296296</v>
+        <v>45847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12420,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12462,14 +12457,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 6137-2026</t>
+          <t>A 4144-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46054.65030092592</v>
+        <v>45323.77944444444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12477,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12519,14 +12514,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 6135-2026</t>
+          <t>A 26145-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46054.64555555556</v>
+        <v>45091.48431712963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12539,7 +12534,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12576,14 +12571,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 53487-2025</t>
+          <t>A 21279-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45960.28282407407</v>
+        <v>45440</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12596,7 +12591,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12633,14 +12628,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 30996-2023</t>
+          <t>A 6103-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45113</v>
+        <v>45337.36503472222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12653,7 +12648,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12690,14 +12685,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 6978-2023</t>
+          <t>A 6214-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44967.64511574074</v>
+        <v>45337</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12710,7 +12705,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12747,14 +12742,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 49489-2024</t>
+          <t>A 58779-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45596.36135416666</v>
+        <v>45635.83408564814</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12767,7 +12762,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12804,14 +12799,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 14052-2023</t>
+          <t>A 7709-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45008</v>
+        <v>45706</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12824,7 +12819,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.2</v>
+        <v>6.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12861,14 +12856,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 54314-2025</t>
+          <t>A 7718-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45965.32422453703</v>
+        <v>45706</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12881,7 +12876,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12918,14 +12913,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 55272-2025</t>
+          <t>A 22003-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45968.67791666667</v>
+        <v>45443.57090277778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12938,7 +12933,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12975,14 +12970,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 10672-2025</t>
+          <t>A 21163-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45721.78883101852</v>
+        <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12995,7 +12990,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13032,14 +13027,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 7810-2025</t>
+          <t>A 21171-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45706</v>
+        <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13052,7 +13047,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13089,14 +13084,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 24964-2024</t>
+          <t>A 21306-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45461</v>
+        <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13108,13 +13103,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13151,14 +13141,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 17151-2025</t>
+          <t>A 16230-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45756.32365740741</v>
+        <v>45028.41518518519</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13171,7 +13161,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13208,14 +13198,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 49492-2024</t>
+          <t>A 8947-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45596.36532407408</v>
+        <v>45713.4553125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13228,7 +13218,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13265,14 +13255,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 27287-2023</t>
+          <t>A 36597-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45096.64322916666</v>
+        <v>45153.48170138889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13285,7 +13275,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13322,14 +13312,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 9409-2024</t>
+          <t>A 26148-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45359.43568287037</v>
+        <v>45091.48842592593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13341,13 +13331,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13384,14 +13369,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 9412-2024</t>
+          <t>A 63104-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45359.44203703704</v>
+        <v>45273</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13404,7 +13389,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13441,14 +13426,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 15163-2024</t>
+          <t>A 31885-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45400.32577546296</v>
+        <v>45118.67444444444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13461,7 +13446,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13498,14 +13483,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 63598-2023</t>
+          <t>A 28574-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45275.47011574074</v>
+        <v>45478</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13518,7 +13503,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13555,14 +13540,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 51978-2024</t>
+          <t>A 4382-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45607</v>
+        <v>45686.39684027778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13575,7 +13560,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13612,14 +13597,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 47832-2023</t>
+          <t>A 57812-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45204</v>
+        <v>45631.36516203704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13632,7 +13617,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13669,14 +13654,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 10819-2025</t>
+          <t>A 23136-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45722.54821759259</v>
+        <v>45791.39138888889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13689,7 +13674,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13726,14 +13711,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 6318-2025</t>
+          <t>A 26866-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45698.80875</v>
+        <v>45810.71270833333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,7 +13731,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13783,14 +13768,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 11434-2025</t>
+          <t>A 23141-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45726.61469907407</v>
+        <v>45791.39673611111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13803,7 +13788,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13840,14 +13825,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 15055-2025</t>
+          <t>A 37051-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45743.7028587963</v>
+        <v>45875.36324074074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13860,7 +13845,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13897,14 +13882,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 15060-2025</t>
+          <t>A 36770-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45743.71545138889</v>
+        <v>45873.58733796296</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13917,7 +13902,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13954,14 +13939,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 15062-2025</t>
+          <t>A 28529-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45743.71922453704</v>
+        <v>44748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13974,7 +13959,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.8</v>
+        <v>7.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14011,14 +13996,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 12404-2023</t>
+          <t>A 59348-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44999.50241898148</v>
+        <v>45253</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,14 +14053,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 11490-2025</t>
+          <t>A 53487-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45726</v>
+        <v>45960.28282407407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14088,7 +14073,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14125,14 +14110,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 11488-2025</t>
+          <t>A 11938-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45726.70486111111</v>
+        <v>45728.53489583333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14145,7 +14130,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>5.6</v>
+        <v>2.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14182,14 +14167,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 12094-2025</t>
+          <t>A 54314-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45729.32310185185</v>
+        <v>45965.32422453703</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14201,13 +14186,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>6.7</v>
+        <v>1.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14244,14 +14224,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 58890-2024</t>
+          <t>A 37995-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45636.46195601852</v>
+        <v>45881.75913194445</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14264,7 +14244,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14301,14 +14281,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 47321-2024</t>
+          <t>A 11293-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45587.38203703704</v>
+        <v>45371.83412037037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14321,7 +14301,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>9.699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14358,14 +14338,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 10346-2021</t>
+          <t>A 11296-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44257</v>
+        <v>45371.84763888889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14378,7 +14358,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.2</v>
+        <v>2.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14415,14 +14395,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 59696-2024</t>
+          <t>A 16075-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45639.41188657407</v>
+        <v>45749.68863425926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14435,7 +14415,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14472,14 +14452,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 14721-2025</t>
+          <t>A 4927-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45742.62212962963</v>
+        <v>45329</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14492,7 +14472,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14529,14 +14509,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 14719-2025</t>
+          <t>A 11490-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45742.61819444445</v>
+        <v>45726</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14549,7 +14529,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14586,14 +14566,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 23994-2023</t>
+          <t>A 31617-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45078</v>
+        <v>44775.64850694445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14605,13 +14585,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14648,14 +14623,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 59304-2024</t>
+          <t>A 55272-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45637.66958333334</v>
+        <v>45968.67791666667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14668,7 +14643,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14705,14 +14680,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 7801-2025</t>
+          <t>A 7069-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45706</v>
+        <v>45701.66392361111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14725,7 +14700,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14762,14 +14737,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 22589-2023</t>
+          <t>A 38308-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45071.48055555556</v>
+        <v>45883.47233796296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14782,7 +14757,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14819,14 +14794,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 51-2025</t>
+          <t>A 8789-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45659.38747685185</v>
+        <v>45356.60851851852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14839,7 +14814,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14876,14 +14851,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 9965-2025</t>
+          <t>A 8410-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45719</v>
+        <v>44245</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14896,7 +14871,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14933,14 +14908,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 9976-2025</t>
+          <t>A 10346-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45719</v>
+        <v>44257</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14953,7 +14928,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14990,14 +14965,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 62141-2024</t>
+          <t>A 4919-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45656.65996527778</v>
+        <v>45329</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15010,7 +14985,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15047,14 +15022,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 40024-2021</t>
+          <t>A 58890-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44418.4324537037</v>
+        <v>45636.46195601852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15067,7 +15042,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15104,14 +15079,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 10572-2024</t>
+          <t>A 274-2026</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45366.64084490741</v>
+        <v>46027.46872685185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15124,7 +15099,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15161,14 +15136,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 12071-2025</t>
+          <t>A 15020-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45728.71550925926</v>
+        <v>45743.64266203704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15181,7 +15156,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15218,14 +15193,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 11306-2024</t>
+          <t>A 71676-2021</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45371.87320601852</v>
+        <v>44539</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15238,7 +15213,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.7</v>
+        <v>8.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15275,14 +15250,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 6504-2022</t>
+          <t>A 62142-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44601.44640046296</v>
+        <v>45656.66166666667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15295,7 +15270,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15332,14 +15307,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 33646-2022</t>
+          <t>A 62143-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44789.60099537037</v>
+        <v>45656.66363425926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15352,7 +15327,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15389,14 +15364,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 7798-2025</t>
+          <t>A 14719-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45706</v>
+        <v>45742.61819444445</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,14 +15421,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 4648-2025</t>
+          <t>A 14721-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45687.6631712963</v>
+        <v>45742.62212962963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15466,7 +15441,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15503,14 +15478,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 8677-2022</t>
+          <t>A 1379-2026</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44613</v>
+        <v>46031.62039351852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15523,7 +15498,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15560,14 +15535,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 31302-2022</t>
+          <t>A 51331-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44773.47849537037</v>
+        <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15580,7 +15555,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15617,14 +15592,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 11204-2025</t>
+          <t>A 28608-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45726.31684027778</v>
+        <v>45103</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15637,7 +15612,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15674,14 +15649,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 27295-2023</t>
+          <t>A 17212-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45096.64859953704</v>
+        <v>45756.44349537037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15694,7 +15669,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15731,14 +15706,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 58324-2024</t>
+          <t>A 60004-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45632.62684027778</v>
+        <v>45993.58465277778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15751,7 +15726,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15788,14 +15763,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 58330-2024</t>
+          <t>A 17151-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45632.63079861111</v>
+        <v>45756.32365740741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15808,7 +15783,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15845,14 +15820,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 24459-2022</t>
+          <t>A 51978-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44726</v>
+        <v>45607</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15865,7 +15840,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15902,14 +15877,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 10140-2025</t>
+          <t>A 57790-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45719</v>
+        <v>44897.655625</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15922,7 +15897,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>18.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15959,14 +15934,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 16041-2025</t>
+          <t>A 11961-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45749.63190972222</v>
+        <v>44994</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15979,7 +15954,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16016,14 +15991,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 15076-2025</t>
+          <t>A 1383-2026</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45743.78899305555</v>
+        <v>46031.62196759259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16011,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16073,14 +16048,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 15093-2025</t>
+          <t>A 1385-2026</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45744.32858796296</v>
+        <v>46031.62402777778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16093,7 +16068,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16130,14 +16105,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 15096-2025</t>
+          <t>A 7801-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45744.3337962963</v>
+        <v>45706</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16150,7 +16125,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16187,14 +16162,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 15122-2025</t>
+          <t>A 27295-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45744.32612268518</v>
+        <v>45096.64859953704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16207,7 +16182,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16244,14 +16219,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 31887-2022</t>
+          <t>A 11958-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44777.45361111111</v>
+        <v>44994</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16264,7 +16239,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16301,14 +16276,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 36364-2021</t>
+          <t>A 37823-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44390</v>
+        <v>45160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16320,13 +16295,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>13.3</v>
+        <v>2.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16363,14 +16333,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 62741-2022</t>
+          <t>A 14843-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44925.90137731482</v>
+        <v>45398.38857638889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16383,7 +16353,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16420,14 +16390,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 13669-2025</t>
+          <t>A 54319-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45736.85748842593</v>
+        <v>45617.35008101852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16440,7 +16410,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>9.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16477,14 +16447,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 15020-2025</t>
+          <t>A 6507-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45743.64266203704</v>
+        <v>45699.64993055556</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16497,7 +16467,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16534,14 +16504,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 37823-2023</t>
+          <t>A 61259-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45160</v>
+        <v>46000.67261574074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16554,7 +16524,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16591,14 +16561,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 3281-2025</t>
+          <t>A 61424-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45679</v>
+        <v>46001</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16611,7 +16581,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>10.8</v>
+        <v>1.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16648,14 +16618,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 7069-2025</t>
+          <t>A 31887-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45701.66392361111</v>
+        <v>44777.45361111111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16668,7 +16638,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.3</v>
+        <v>6.2</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16705,14 +16675,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 12218-2025</t>
+          <t>A 7335-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45729.53674768518</v>
+        <v>44971.23162037037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16695,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16762,14 +16732,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 34445-2024</t>
+          <t>A 36984-2021</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45525</v>
+        <v>44393</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16781,8 +16751,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16819,14 +16794,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 34449-2024</t>
+          <t>A 24459-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45525.55266203704</v>
+        <v>44726</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16839,7 +16814,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16876,14 +16851,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 11068-2023</t>
+          <t>A 61621-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44992</v>
+        <v>46002.39636574074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16896,7 +16871,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>6.3</v>
+        <v>1.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16933,14 +16908,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 9527-2024</t>
+          <t>A 51316-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45359.66539351852</v>
+        <v>45219.57056712963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16952,13 +16927,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16995,14 +16965,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 8410-2021</t>
+          <t>A 10665-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44245</v>
+        <v>45721.74442129629</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17015,7 +16985,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17052,14 +17022,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 4979-2022</t>
+          <t>A 10572-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44593.58465277778</v>
+        <v>45366.64084490741</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17072,7 +17042,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17109,14 +17079,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 5812-2024</t>
+          <t>A 4979-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45335</v>
+        <v>44593.58465277778</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17129,7 +17099,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17166,14 +17136,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 31617-2022</t>
+          <t>A 2415-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44775.64850694445</v>
+        <v>44942</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17186,7 +17156,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.3</v>
+        <v>19.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17223,14 +17193,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 57056-2022</t>
+          <t>A 47832-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44895.39894675926</v>
+        <v>45204</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17243,7 +17213,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17280,14 +17250,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 11310-2024</t>
+          <t>A 16887-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45371.87774305556</v>
+        <v>45755</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17299,8 +17269,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G284" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17337,14 +17312,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 21721-2023</t>
+          <t>A 39418-2021</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45065</v>
+        <v>44414</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17357,7 +17332,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17394,14 +17369,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 9423-2024</t>
+          <t>A 7798-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45359.46068287037</v>
+        <v>45706</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17414,7 +17389,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17451,14 +17426,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 9848-2024</t>
+          <t>A 6135-2026</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45363.36511574074</v>
+        <v>46054.64555555556</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17470,13 +17445,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G287" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17513,14 +17483,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 4144-2024</t>
+          <t>A 6136-2026</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45323.77944444444</v>
+        <v>46054.64793981481</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17533,7 +17503,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17570,14 +17540,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 8789-2024</t>
+          <t>A 6137-2026</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45356.60851851852</v>
+        <v>46054.65030092592</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17590,7 +17560,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17627,14 +17597,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 28529-2022</t>
+          <t>A 5829-2026</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44748</v>
+        <v>46052</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17647,7 +17617,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17684,14 +17654,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 51331-2022</t>
+          <t>A 1765-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44869</v>
+        <v>44936</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17704,7 +17674,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.7</v>
+        <v>7.3</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17741,14 +17711,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 6507-2025</t>
+          <t>A 30996-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45699.64993055556</v>
+        <v>45113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17761,7 +17731,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17798,14 +17768,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 33494-2023</t>
+          <t>A 62139-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45131</v>
+        <v>45656.65846064815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17818,7 +17788,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17855,14 +17825,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 33496-2023</t>
+          <t>A 23994-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45131.45756944444</v>
+        <v>45078</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17874,8 +17844,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G294" t="n">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17912,14 +17887,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 17401-2023</t>
+          <t>A 52317-2022</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45035</v>
+        <v>44873</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17932,7 +17907,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17969,14 +17944,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 51316-2023</t>
+          <t>A 20750-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45219.57056712963</v>
+        <v>45436</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17989,7 +17964,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18026,14 +18001,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 48406-2023</t>
+          <t>A 12071-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45205</v>
+        <v>45728.71550925926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18046,7 +18021,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18083,14 +18058,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 1765-2023</t>
+          <t>A 10140-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44936</v>
+        <v>45719</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18103,7 +18078,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18140,14 +18115,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 9548-2024</t>
+          <t>A 36364-2021</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45359</v>
+        <v>44390</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18159,8 +18134,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G299" t="n">
-        <v>0.3</v>
+        <v>13.3</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18197,14 +18177,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 71891-2021</t>
+          <t>A 34445-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44543</v>
+        <v>45525</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18217,7 +18197,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18254,14 +18234,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 11293-2024</t>
+          <t>A 34449-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45371.83412037037</v>
+        <v>45525.55266203704</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18274,7 +18254,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18311,14 +18291,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 11296-2024</t>
+          <t>A 5812-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45371.84763888889</v>
+        <v>45335</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18331,7 +18311,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18368,14 +18348,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 15074-2025</t>
+          <t>A 12094-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45743.78336805556</v>
+        <v>45729.32310185185</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18387,8 +18367,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G303" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18425,14 +18410,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 14843-2024</t>
+          <t>A 31293-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45398.38857638889</v>
+        <v>45504.47707175926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18482,14 +18467,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 14846-2024</t>
+          <t>A 6504-2022</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45398.41739583333</v>
+        <v>44601.44640046296</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18502,7 +18487,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18539,14 +18524,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 28036-2023</t>
+          <t>A 41508-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45099</v>
+        <v>45560</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18559,7 +18544,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18596,14 +18581,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 56293-2023</t>
+          <t>A 59696-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45242.61020833333</v>
+        <v>45639.41188657407</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18616,7 +18601,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18653,14 +18638,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 56294-2023</t>
+          <t>A 33494-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45242</v>
+        <v>45131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18710,14 +18695,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 62139-2024</t>
+          <t>A 33496-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45656.65846064815</v>
+        <v>45131.45756944444</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18730,7 +18715,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18767,14 +18752,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 15061-2025</t>
+          <t>A 10137-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45743.71736111111</v>
+        <v>45719</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18787,7 +18772,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18824,14 +18809,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 49505-2024</t>
+          <t>A 11434-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45596.37319444444</v>
+        <v>45726.61469907407</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18844,7 +18829,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18881,14 +18866,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 44353-2023</t>
+          <t>A 11204-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45188</v>
+        <v>45726.31684027778</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18901,7 +18886,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18938,14 +18923,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 48754-2023</t>
+          <t>A 31302-2022</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45208</v>
+        <v>44773.47849537037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18958,7 +18943,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18995,14 +18980,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 31884-2022</t>
+          <t>A 53051-2021</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44777.44266203704</v>
+        <v>44467.73666666666</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19014,8 +18999,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G314" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19052,14 +19042,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 11154-2022</t>
+          <t>A 17293-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>44629.38306712963</v>
+        <v>45756.58894675926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19072,7 +19062,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19109,14 +19099,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 11097-2023</t>
+          <t>A 24941-2024</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>44992</v>
+        <v>45461</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19128,8 +19118,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G316" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19166,14 +19161,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 16045-2025</t>
+          <t>A 15076-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45749.63446759259</v>
+        <v>45743.78899305555</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19186,7 +19181,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19230,7 +19225,7 @@
         <v>45653.62395833333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19287,7 +19282,7 @@
         <v>45653.62820601852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19337,14 +19332,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 11938-2025</t>
+          <t>A 15110-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45728.53489583333</v>
+        <v>45744.35528935185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19357,7 +19352,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19394,14 +19389,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 12831-2025</t>
+          <t>A 14052-2023</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45733.63225694445</v>
+        <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19414,7 +19409,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19451,14 +19446,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 28608-2023</t>
+          <t>A 15055-2025</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45103</v>
+        <v>45743.7028587963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19471,7 +19466,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19508,14 +19503,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 54319-2024</t>
+          <t>A 15060-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45617.35008101852</v>
+        <v>45743.71545138889</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19528,7 +19523,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19565,14 +19560,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 6513-2025</t>
+          <t>A 15062-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45699.65769675926</v>
+        <v>45743.71922453704</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19622,14 +19617,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 59348-2023</t>
+          <t>A 15074-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45253</v>
+        <v>45743.78336805556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19642,7 +19637,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19679,14 +19674,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 61446-2024</t>
+          <t>A 57709-2023</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45646.48326388889</v>
+        <v>45246.68188657407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19699,7 +19694,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>0.8</v>
+        <v>6.6</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19736,14 +19731,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 15110-2025</t>
+          <t>A 47321-2024</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45744.35528935185</v>
+        <v>45587.38203703704</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19756,7 +19751,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>4.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19793,14 +19788,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 10815-2025</t>
+          <t>A 52909-2021</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45722.54424768518</v>
+        <v>44467</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19813,7 +19808,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19850,14 +19845,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 59623-2024</t>
+          <t>A 7810-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45638</v>
+        <v>45706</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19870,7 +19865,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>19.2</v>
+        <v>3.8</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19907,14 +19902,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 4145-2024</t>
+          <t>A 11306-2024</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45323.78577546297</v>
+        <v>45371.87320601852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19927,7 +19922,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19964,14 +19959,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 20781-2025</t>
+          <t>A 12064-2023</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45776</v>
+        <v>44997</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19984,7 +19979,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>5.7</v>
+        <v>10.5</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -20021,14 +20016,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 21009-2025</t>
+          <t>A 63598-2023</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45777.4967824074</v>
+        <v>45275.47011574074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20041,7 +20036,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -20078,14 +20073,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 20881-2025</t>
+          <t>A 32030-2024</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45777.36047453704</v>
+        <v>45510</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20097,8 +20092,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G333" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -20135,14 +20135,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 20883-2025</t>
+          <t>A 4145-2024</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45777.36590277778</v>
+        <v>45323.78577546297</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20192,14 +20192,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 21968-2025</t>
+          <t>A 48406-2023</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45784.62885416667</v>
+        <v>45205</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20249,14 +20249,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 21930-2025</t>
+          <t>A 48754-2023</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45784.5525</v>
+        <v>45208</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20306,14 +20306,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 23579-2025</t>
+          <t>A 53378-2021</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45792.62453703704</v>
+        <v>44468.60568287037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20363,14 +20363,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 53194-2024</t>
+          <t>A 59623-2024</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45610</v>
+        <v>45638</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>3.1</v>
+        <v>19.2</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20420,14 +20420,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 23787-2025</t>
+          <t>A 14846-2024</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45793.53262731482</v>
+        <v>45398.41739583333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20477,14 +20477,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 3279-2025</t>
+          <t>A 4985-2025</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45679</v>
+        <v>45691.30831018519</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20534,14 +20534,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 25269-2025</t>
+          <t>A 10672-2025</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45800</v>
+        <v>45721.78883101852</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20591,14 +20591,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 25757-2025</t>
+          <t>A 6513-2025</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45801</v>
+        <v>45699.65769675926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>8.9</v>
+        <v>2.8</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20648,14 +20648,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 61739-2023</t>
+          <t>A 27287-2023</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>45265</v>
+        <v>45096.64322916666</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>13.8</v>
+        <v>0.4</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20705,14 +20705,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 6417-2024</t>
+          <t>A 10815-2025</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>45338</v>
+        <v>45722.54424768518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>6.3</v>
+        <v>1.4</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20762,14 +20762,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 16076-2025</t>
+          <t>A 51332-2022</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>45749</v>
+        <v>44869</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20819,14 +20819,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 28332-2025</t>
+          <t>A 6774-2025</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>45818.660625</v>
+        <v>45700.64171296296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20876,14 +20876,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 27975-2025</t>
+          <t>A 31884-2022</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45817.56953703704</v>
+        <v>44777.44266203704</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20933,14 +20933,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 28610-2023</t>
+          <t>A 4648-2025</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45103</v>
+        <v>45687.6631712963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20990,14 +20990,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 20828-2025</t>
+          <t>A 49505-2024</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>45776.74407407407</v>
+        <v>45596.37319444444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -21047,14 +21047,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 27977-2025</t>
+          <t>A 42412-2022</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45817.57148148148</v>
+        <v>44831</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -21104,14 +21104,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 28331-2025</t>
+          <t>A 11488-2025</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>45818</v>
+        <v>45726.70486111111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -21161,14 +21161,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 28879-2025</t>
+          <t>A 16041-2025</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45820.62296296296</v>
+        <v>45749.63190972222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -21218,14 +21218,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 28383-2025</t>
+          <t>A 61446-2024</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45819.31177083333</v>
+        <v>45646.48326388889</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21275,14 +21275,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 28900-2025</t>
+          <t>A 11068-2023</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>45820.63842592593</v>
+        <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>3.6</v>
+        <v>6.3</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -21332,14 +21332,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 31873-2025</t>
+          <t>A 19502-2022</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>45834.65045138889</v>
+        <v>44693</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -21389,14 +21389,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 31888-2025</t>
+          <t>A 62742-2022</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>45834.66146990741</v>
+        <v>44925.90333333334</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -21446,14 +21446,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 32620-2025</t>
+          <t>A 14487-2025</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>45838.64533564815</v>
+        <v>45741.60409722223</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>7.4</v>
+        <v>1</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21503,14 +21503,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 32894-2025</t>
+          <t>A 6318-2025</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>45839.61362268519</v>
+        <v>45698.80875</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21560,14 +21560,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 34086-2025</t>
+          <t>A 12404-2023</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>45845.4681712963</v>
+        <v>44999.50241898148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21617,14 +21617,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 34360-2025</t>
+          <t>A 21009-2025</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>45846.48792824074</v>
+        <v>45777.4967824074</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21674,14 +21674,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 34407-2025</t>
+          <t>A 20881-2025</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>45846.6321875</v>
+        <v>45777.36047453704</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21731,14 +21731,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 34782-2025</t>
+          <t>A 20883-2025</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>45848</v>
+        <v>45777.36590277778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21788,14 +21788,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 34660-2025</t>
+          <t>A 20781-2025</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>45848.36886574074</v>
+        <v>45776</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21845,14 +21845,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 34975-2025</t>
+          <t>A 21968-2025</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>45849.68076388889</v>
+        <v>45784.62885416667</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -21902,14 +21902,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 35399-2025</t>
+          <t>A 21930-2025</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>45855.33679398148</v>
+        <v>45784.5525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21959,14 +21959,14 @@
     <row r="366" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 35800-2025</t>
+          <t>A 53194-2024</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>45861.38344907408</v>
+        <v>45610</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -22016,14 +22016,14 @@
     <row r="367" ht="15" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
-          <t>A 35801-2025</t>
+          <t>A 23579-2025</t>
         </is>
       </c>
       <c r="B367" s="1" t="n">
-        <v>45861.38625</v>
+        <v>45792.62453703704</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -22073,14 +22073,14 @@
     <row r="368" ht="15" customHeight="1">
       <c r="A368" t="inlineStr">
         <is>
-          <t>A 35898-2025</t>
+          <t>A 23787-2025</t>
         </is>
       </c>
       <c r="B368" s="1" t="n">
-        <v>45862.48679398148</v>
+        <v>45793.53262731482</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -22130,14 +22130,14 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>A 18179-2025</t>
+          <t>A 3279-2025</t>
         </is>
       </c>
       <c r="B369" s="1" t="n">
-        <v>45761</v>
+        <v>45679</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -575,7 +575,7 @@
         <v>45846.63826388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45761.37239583334</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45359.66121527777</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45659.39741898148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45288</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44645</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45701</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44873</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44645</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45737.67560185185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>45149</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>45719</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44840.59173611111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>45197</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44804.90865740741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44308.50634259259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44286.34952546296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44286.37935185185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44537</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>44390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44368.66283564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44392</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44279</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44853.50788194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44613</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44462</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44298.52335648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44298.52487268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44285</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44539</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44740</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44684.3947800926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44455.7780787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44383</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44767.60487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44819</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44250</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44274</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44510</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44538.43275462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44251</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45632.62684027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45632.63079861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>45288</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>45359.66539351852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45359</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>44543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45596.36532407408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45280</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45330</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44967.64511574074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>45719</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>45719</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44992</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44600</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45035</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45504.8096875</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45736.85748842593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45359.46068287037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45616.3218287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45733.63225694445</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44925.90137731482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>44925.90475694444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>45653.62631944445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>45188</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>44981</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>45371.87774305556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>45659.38747685185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>45749.63446759259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44986.80671296296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44418.4324537037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>45400.32577546296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>45800</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>45801</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>45532.65364583334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>44613</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>45461</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>45888.61770833333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>45888.46474537037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>45265</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>45338</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>45721.73804398148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>45749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>45889.41831018519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>45889.42100694445</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>45890</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>45776.74407407407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>45242.61020833333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>45242</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>45817.56953703704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>45817.57148148148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>45103</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>45726.61204861111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>45897.40917824074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>45818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>45743.71736111111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45818.660625</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45819.31177083333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45820.63842592593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>45820.62296296296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>45071.48055555556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>45370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>45867.654375</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>45363.36511574074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>44487</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>45656.65996527778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45908.44385416667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45744.32858796296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45744.3337962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45744.32612268518</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>45065</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>45835</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>45912.33763888889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>45071.49386574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>45917.56202546296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>45917.56850694444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>45921.83819444444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>45922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>45679</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>45922.79663194445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45922.84188657408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45922</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>45922.79326388889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45922.79810185185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>45922.84633101852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>45922.78539351852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>45922.86137731482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>45834.66146990741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>45834.65045138889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45596.36135416666</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45729.53674768518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45930</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45838.64533564815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45839.61362268519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>45722.54821759259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>45936.35866898148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44895.39894675926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44767</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>45735.6999537037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>45940.61109953704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>45637.66958333334</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>45845.4681712963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45846.48792824074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44789.60099537037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>45846.6321875</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44851.49621527778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45359.43568287037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45359.44203703704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>45848.36886574074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>45848</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44378</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>45849.68076388889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45923</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>45855.33679398148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>45532</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>45532.64996527778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>45923</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>45950</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>45861.38625</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>45861.38344907408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>45761</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>45862.48679398148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>45952.80421296296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>45581.59541666666</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>45134.695</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>45791.38755787037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>45537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>45700.62190972222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>45713.45041666667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>45524.70024305556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>45524.71290509259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>45576.37672453704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44925.53116898148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44629.38306712963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>45561.44230324074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45639.49413194445</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>45478</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45365.66971064815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45686.39981481482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45323.77944444444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45091.48431712963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45440</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45337.36503472222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45337</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>45635.83408564814</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>45706</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45706</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45443.57090277778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45028.41518518519</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45713.4553125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45153.48170138889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45091.48842592593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>45273</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>45118.67444444444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>45478</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>45686.39684027778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>45631.36516203704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>45791.39138888889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>45810.71270833333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>45791.39673611111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>45875.36324074074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>45873.58733796296</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45253</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45960.28282407407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>45728.53489583333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>45965.32422453703</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45881.75913194445</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45371.83412037037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45371.84763888889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45749.68863425926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45329</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>45726</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44775.64850694445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>45968.67791666667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>45701.66392361111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>45883.47233796296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45356.60851851852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44245</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44257</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45329</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45636.46195601852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>46027.46872685185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45743.64266203704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>44539</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>45656.66166666667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>45656.66363425926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15371,7 +15371,7 @@
         <v>45742.61819444445</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>45742.62212962963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>46031.62039351852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>45103</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>45756.44349537037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45993.58465277778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>45756.32365740741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>45607</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44897.655625</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44994</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>46031.62196759259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>46031.62402777778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>45706</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>45096.64859953704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44994</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>45160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45398.38857638889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45617.35008101852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>45699.64993055556</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>46000.67261574074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>46001</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>44777.45361111111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44971.23162037037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>44393</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44726</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>46002.39636574074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>45219.57056712963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>45721.74442129629</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>45366.64084490741</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44593.58465277778</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44942</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>45204</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>45755</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>44414</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>45706</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>46054.64555555556</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>46054.64793981481</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>46054.65030092592</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>46052</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44936</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>45113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>45656.65846064815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45078</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>44873</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>45436</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>45728.71550925926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>45719</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44390</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>45525</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>45525.55266203704</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45335</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>45729.32310185185</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45504.47707175926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44601.44640046296</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45560</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45639.41188657407</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45131.45756944444</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>45719</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>45726.61469907407</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>45726.31684027778</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>44773.47849537037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44467.73666666666</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>45756.58894675926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>45461</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>45743.78899305555</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>45653.62395833333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>45653.62820601852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>45744.35528935185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>45743.7028587963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>45743.71545138889</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>45743.71922453704</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>45743.78336805556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>45246.68188657407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>45587.38203703704</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44467</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>45706</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>45371.87320601852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44997</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>45275.47011574074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45510</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45323.78577546297</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45205</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>45208</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44468.60568287037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45638</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>45398.41739583333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20484,7 +20484,7 @@
         <v>45691.30831018519</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>45721.78883101852</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>45699.65769675926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>45096.64322916666</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>45722.54424768518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44869</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>45700.64171296296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44777.44266203704</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>45687.6631712963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>45596.37319444444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44831</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>45726.70486111111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>45749.63190972222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>45646.48326388889</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44693</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44925.90333333334</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>45741.60409722223</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>45698.80875</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44999.50241898148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>45777.4967824074</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45777.36047453704</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45777.36590277778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45776</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45784.62885416667</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45784.5525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45610</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45792.62453703704</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45793.53262731482</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45679</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -575,7 +575,7 @@
         <v>45846.63826388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45761.37239583334</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45359.66121527777</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45659.39741898148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45288</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44645</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45701</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44873</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44645</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45737.67560185185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>45149</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>45719</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44840.59173611111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>45197</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44804.90865740741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44308.50634259259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44286.34952546296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44286.37935185185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44537</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>44390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44368.66283564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44392</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44279</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44853.50788194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44613</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44462</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44298.52335648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44298.52487268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44285</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44539</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44740</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44684.3947800926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44455.7780787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44383</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44767.60487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44819</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44250</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44274</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44510</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44538.43275462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44251</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45632.62684027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45632.63079861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>45288</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>45359.66539351852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45359</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>44543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45596.36532407408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45280</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45330</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44967.64511574074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>45719</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>45719</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44992</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44600</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45035</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45504.8096875</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45736.85748842593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45359.46068287037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45616.3218287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45733.63225694445</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44925.90137731482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>44925.90475694444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>45653.62631944445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>45188</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>44981</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>45371.87774305556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>45659.38747685185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>45749.63446759259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44986.80671296296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44418.4324537037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>45400.32577546296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>45800</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>45801</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>45532.65364583334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>44613</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>45461</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>45888.61770833333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>45888.46474537037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>45265</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>45338</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>45721.73804398148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>45749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>45889.41831018519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>45889.42100694445</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>45890</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>45776.74407407407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>45242.61020833333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>45242</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>45817.56953703704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>45817.57148148148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>45103</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>45726.61204861111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>45897.40917824074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>45818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>45743.71736111111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45818.660625</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45819.31177083333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45820.63842592593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>45820.62296296296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>45071.48055555556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>45370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>45867.654375</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>45363.36511574074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>44487</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>45656.65996527778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45908.44385416667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45744.32858796296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45744.3337962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45744.32612268518</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>45065</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>45835</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>45912.33763888889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>45071.49386574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>45917.56202546296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>45917.56850694444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>45921.83819444444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>45922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>45679</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>45922.79663194445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45922.84188657408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45922</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>45922.79326388889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45922.79810185185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>45922.84633101852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>45922.78539351852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>45922.86137731482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>45834.66146990741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>45834.65045138889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45596.36135416666</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45729.53674768518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45930</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45838.64533564815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45839.61362268519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>45722.54821759259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>45936.35866898148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44895.39894675926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44767</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>45735.6999537037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>45940.61109953704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>45637.66958333334</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>45845.4681712963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45846.48792824074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44789.60099537037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>45846.6321875</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44851.49621527778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45359.43568287037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45359.44203703704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>45848.36886574074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>45848</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44378</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>45849.68076388889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45923</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>45855.33679398148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>45532</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>45532.64996527778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>45923</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>45950</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>45861.38625</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>45861.38344907408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>45761</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>45862.48679398148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>45952.80421296296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>45581.59541666666</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>45134.695</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>45791.38755787037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>45537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>45700.62190972222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>45713.45041666667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>45524.70024305556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>45524.71290509259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>45576.37672453704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44925.53116898148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44629.38306712963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>45561.44230324074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45639.49413194445</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>45478</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45365.66971064815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45686.39981481482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45323.77944444444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45091.48431712963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45440</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45337.36503472222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45337</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>45635.83408564814</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>45706</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45706</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45443.57090277778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45028.41518518519</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45713.4553125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45153.48170138889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45091.48842592593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>45273</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>45118.67444444444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>45478</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>45686.39684027778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>45631.36516203704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>45791.39138888889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>45810.71270833333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>45791.39673611111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>45875.36324074074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>45873.58733796296</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45253</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45960.28282407407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>45728.53489583333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>45965.32422453703</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45881.75913194445</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45371.83412037037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45371.84763888889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45749.68863425926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45329</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>45726</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44775.64850694445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>45968.67791666667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>45701.66392361111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>45883.47233796296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45356.60851851852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44245</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44257</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45329</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45636.46195601852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>46027.46872685185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45743.64266203704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>44539</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>45656.66166666667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>45656.66363425926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15371,7 +15371,7 @@
         <v>45742.61819444445</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>45742.62212962963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>46031.62039351852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>45103</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>45756.44349537037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45993.58465277778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>45756.32365740741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>45607</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44897.655625</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44994</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>46031.62196759259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>46031.62402777778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>45706</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>45096.64859953704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44994</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>45160</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45398.38857638889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45617.35008101852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>45699.64993055556</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>46000.67261574074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>46001</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>44777.45361111111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44971.23162037037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>44393</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44726</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>46002.39636574074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>45219.57056712963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>45721.74442129629</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>45366.64084490741</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44593.58465277778</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44942</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>45204</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>45755</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>44414</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>45706</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>46054.64555555556</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>46054.64793981481</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>46054.65030092592</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>46052</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44936</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>45113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>45656.65846064815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45078</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>44873</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>45436</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>45728.71550925926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>45719</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44390</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>45525</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>45525.55266203704</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45335</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>45729.32310185185</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45504.47707175926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44601.44640046296</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45560</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45639.41188657407</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45131.45756944444</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>45719</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>45726.61469907407</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>45726.31684027778</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>44773.47849537037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44467.73666666666</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>45756.58894675926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>45461</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>45743.78899305555</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>45653.62395833333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>45653.62820601852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>45744.35528935185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>45743.7028587963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>45743.71545138889</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>45743.71922453704</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>45743.78336805556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>45246.68188657407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>45587.38203703704</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44467</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>45706</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>45371.87320601852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44997</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>45275.47011574074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45510</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45323.78577546297</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45205</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>45208</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44468.60568287037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45638</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>45398.41739583333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20484,7 +20484,7 @@
         <v>45691.30831018519</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>45721.78883101852</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>45699.65769675926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>45096.64322916666</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>45722.54424768518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44869</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>45700.64171296296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44777.44266203704</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>45687.6631712963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>45596.37319444444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44831</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>45726.70486111111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>45749.63190972222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>45646.48326388889</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44693</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44925.90333333334</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>45741.60409722223</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>45698.80875</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44999.50241898148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>45777.4967824074</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45777.36047453704</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45777.36590277778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45776</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45784.62885416667</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45784.5525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45610</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45792.62453703704</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45793.53262731482</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45679</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -575,7 +575,7 @@
         <v>45846.63826388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45761.37239583334</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45359.66121527777</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,14 +951,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 58-2025</t>
+          <t>A 32329-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45659.39741898148</v>
+        <v>44371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,8 +970,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>31.3</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
@@ -1004,137 +1009,132 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita
+Kambräken</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 32329-2021 artfynd.xlsx", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 32329-2021 karta.png", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 32329-2021 FSC-klagomål.docx", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 32329-2021 FSC-klagomål mail.docx", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 32329-2021 tillsynsbegäran.docx", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 32329-2021 tillsynsbegäran mail.docx", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 32329-2021 prioriterade fågelarter.docx", "A 32329-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 58-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45659.39741898148</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Mindre hackspett
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 58-2025 artfynd.xlsx", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 58-2025 karta.png", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 58-2025 FSC-klagomål.docx", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 58-2025 FSC-klagomål mail.docx", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 58-2025 tillsynsbegäran.docx", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 58-2025 tillsynsbegäran mail.docx", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 58-2025 prioriterade fågelarter.docx", "A 58-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 32329-2021</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44371</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>HALLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KUNGSBACKA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita
-Kambräken</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 32329-2021 artfynd.xlsx", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 32329-2021 karta.png", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 32329-2021 FSC-klagomål.docx", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 32329-2021 FSC-klagomål mail.docx", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 32329-2021 tillsynsbegäran.docx", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 32329-2021 tillsynsbegäran mail.docx", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 32329-2021 prioriterade fågelarter.docx", "A 32329-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45288</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44645</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45701</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44873</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44645</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,14 +1572,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 13932-2025</t>
+          <t>A 46459-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45737.67560185185</v>
+        <v>45197</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1591,8 +1591,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1601,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1616,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1626,45 +1631,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Drillsnäppa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 13932-2025 artfynd.xlsx", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 46459-2023 artfynd.xlsx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 13932-2025 karta.png", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 46459-2023 karta.png", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 13932-2025 FSC-klagomål.docx", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 46459-2023 FSC-klagomål.docx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 13932-2025 FSC-klagomål mail.docx", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 46459-2023 FSC-klagomål mail.docx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 13932-2025 tillsynsbegäran.docx", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 46459-2023 tillsynsbegäran.docx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 13932-2025 tillsynsbegäran mail.docx", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 46459-2023 tillsynsbegäran mail.docx", "A 46459-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 36068-2023</t>
+          <t>A 11010-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45149</v>
+        <v>45723</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1677,13 +1682,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.3</v>
+        <v>12.4</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1711,49 +1716,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Kambräken</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 36068-2023 artfynd.xlsx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 11010-2025 artfynd.xlsx", "A 11010-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 36068-2023 karta.png", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 11010-2025 karta.png", "A 11010-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 36068-2023 FSC-klagomål.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 11010-2025 FSC-klagomål.docx", "A 11010-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 36068-2023 FSC-klagomål mail.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 11010-2025 FSC-klagomål mail.docx", "A 11010-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 36068-2023 tillsynsbegäran.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 11010-2025 tillsynsbegäran.docx", "A 11010-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 36068-2023 tillsynsbegäran mail.docx", "A 36068-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 36068-2023 prioriterade fågelarter.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 11010-2025 tillsynsbegäran mail.docx", "A 11010-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 11010-2025</t>
+          <t>A 44638-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45723</v>
+        <v>44840.59173611111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,18 +1766,23 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1800,31 +1806,35 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Kambräken</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 11010-2025 artfynd.xlsx", "A 11010-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 44638-2022 artfynd.xlsx", "A 44638-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 11010-2025 karta.png", "A 11010-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 44638-2022 karta.png", "A 44638-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 11010-2025 FSC-klagomål.docx", "A 11010-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 44638-2022 FSC-klagomål.docx", "A 44638-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 11010-2025 FSC-klagomål mail.docx", "A 11010-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 44638-2022 FSC-klagomål mail.docx", "A 44638-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 11010-2025 tillsynsbegäran.docx", "A 11010-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 44638-2022 tillsynsbegäran.docx", "A 44638-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 11010-2025 tillsynsbegäran mail.docx", "A 11010-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 44638-2022 tillsynsbegäran mail.docx", "A 44638-2022")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 44638-2022 prioriterade fågelarter.docx", "A 44638-2022")</f>
         <v/>
       </c>
     </row>
@@ -1838,7 +1848,7 @@
         <v>45719</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,14 +1926,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 44638-2022</t>
+          <t>A 36068-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44840.59173611111</v>
+        <v>45149</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1935,13 +1945,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>11.8</v>
+        <v>5.3</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1950,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1965,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1975,49 +1980,49 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 44638-2022 artfynd.xlsx", "A 44638-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 36068-2023 artfynd.xlsx", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 44638-2022 karta.png", "A 44638-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 36068-2023 karta.png", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 44638-2022 FSC-klagomål.docx", "A 44638-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 36068-2023 FSC-klagomål.docx", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 44638-2022 FSC-klagomål mail.docx", "A 44638-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 36068-2023 FSC-klagomål mail.docx", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 44638-2022 tillsynsbegäran.docx", "A 44638-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 36068-2023 tillsynsbegäran.docx", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 44638-2022 tillsynsbegäran mail.docx", "A 44638-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 36068-2023 tillsynsbegäran mail.docx", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 44638-2022 prioriterade fågelarter.docx", "A 44638-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 36068-2023 prioriterade fågelarter.docx", "A 36068-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 46459-2023</t>
+          <t>A 13932-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45197</v>
+        <v>45737.67560185185</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2029,13 +2034,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2069,31 +2069,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Drillsnäppa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 46459-2023 artfynd.xlsx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 13932-2025 artfynd.xlsx", "A 13932-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 46459-2023 karta.png", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 13932-2025 karta.png", "A 13932-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 46459-2023 FSC-klagomål.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 13932-2025 FSC-klagomål.docx", "A 13932-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 46459-2023 FSC-klagomål mail.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 13932-2025 FSC-klagomål mail.docx", "A 13932-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 46459-2023 tillsynsbegäran.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 13932-2025 tillsynsbegäran.docx", "A 13932-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 46459-2023 tillsynsbegäran mail.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 13932-2025 tillsynsbegäran mail.docx", "A 13932-2025")</f>
         <v/>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
         <v>44804.90865740741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44308.50634259259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44286.34952546296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44286.37935185185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44537</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>44390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44368.66283564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2504,14 +2504,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 36650-2021</t>
+          <t>A 36358-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44392</v>
+        <v>44390</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,8 +2523,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2561,14 +2566,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 36358-2021</t>
+          <t>A 36650-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,13 +2585,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>8.199999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>44279</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44853.50788194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2799,14 +2799,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 41766-2021</t>
+          <t>A 8640-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44425</v>
+        <v>44613</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2856,14 +2856,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 8640-2022</t>
+          <t>A 41766-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44613</v>
+        <v>44425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>44279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44462</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44298.52335648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44298.52487268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44285</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44539</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44740</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44684.3947800926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44455.7780787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44383</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44767.60487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44819</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44250</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44274</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44510</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44538.43275462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44251</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4281,14 +4281,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 58324-2024</t>
+          <t>A 10137-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45632.62684027778</v>
+        <v>45719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4338,14 +4338,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 58330-2024</t>
+          <t>A 5201-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45632.63079861111</v>
+        <v>45330</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>6.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4395,14 +4395,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 65199-2023</t>
+          <t>A 51332-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45288</v>
+        <v>44869</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4452,14 +4452,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9527-2024</t>
+          <t>A 17212-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45359.66539351852</v>
+        <v>45756.44349537037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4471,13 +4471,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4514,14 +4509,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9548-2024</t>
+          <t>A 39418-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45359</v>
+        <v>44414</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4534,7 +4529,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.3</v>
+        <v>5.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4571,14 +4566,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 71891-2021</t>
+          <t>A 10949-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44543</v>
+        <v>45370</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4591,7 +4586,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4628,14 +4623,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49492-2024</t>
+          <t>A 30901-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45596.36532407408</v>
+        <v>44767</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4648,7 +4643,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4685,14 +4680,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 64363-2023</t>
+          <t>A 20750-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45280</v>
+        <v>45436</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4742,14 +4737,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 5201-2024</t>
+          <t>A 62742-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45330</v>
+        <v>44925.90333333334</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4762,7 +4757,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.7</v>
+        <v>0.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4799,14 +4794,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 6978-2023</t>
+          <t>A 53051-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44967.64511574074</v>
+        <v>44467.73666666666</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4818,8 +4813,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4856,14 +4856,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9965-2025</t>
+          <t>A 31293-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45719</v>
+        <v>45504.47707175926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4913,14 +4913,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 9976-2025</t>
+          <t>A 52909-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45719</v>
+        <v>44467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4970,14 +4970,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11097-2023</t>
+          <t>A 31344-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44992</v>
+        <v>45504.8096875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5027,14 +5027,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 6260-2022</t>
+          <t>A 2415-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44600</v>
+        <v>44942</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.4</v>
+        <v>19.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5084,14 +5084,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17401-2023</t>
+          <t>A 7335-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45035</v>
+        <v>44971.23162037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,14 +5141,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 31344-2024</t>
+          <t>A 35804-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45504.8096875</v>
+        <v>45532</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>7.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5198,14 +5198,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 13669-2025</t>
+          <t>A 35808-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45736.85748842593</v>
+        <v>45532.64996527778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>9.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5255,14 +5255,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 9423-2024</t>
+          <t>A 35811-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45359.46068287037</v>
+        <v>45532.65364583334</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5312,14 +5312,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 53972-2024</t>
+          <t>A 36984-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45616.3218287037</v>
+        <v>44393</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5331,8 +5331,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5369,14 +5374,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 12831-2025</t>
+          <t>A 33715-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45733.63225694445</v>
+        <v>44378</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5389,7 +5394,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5426,14 +5431,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 62741-2022</t>
+          <t>A 57790-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44925.90137731482</v>
+        <v>44897.655625</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5446,7 +5451,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.2</v>
+        <v>18.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5483,14 +5488,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62743-2022</t>
+          <t>A 11958-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44925.90475694444</v>
+        <v>44994</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5503,7 +5508,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5540,14 +5545,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 61976-2024</t>
+          <t>A 64363-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45653.62631944445</v>
+        <v>45280</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5560,7 +5565,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5597,14 +5602,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 44353-2023</t>
+          <t>A 32030-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45188</v>
+        <v>45510</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5616,8 +5621,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5654,14 +5664,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 9417-2023</t>
+          <t>A 58118-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44981</v>
+        <v>44487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5711,14 +5721,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 11310-2024</t>
+          <t>A 11432-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45371.87774305556</v>
+        <v>45726.61204861111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5731,7 +5741,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5768,14 +5778,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 51-2025</t>
+          <t>A 62743-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45659.38747685185</v>
+        <v>44925.90475694444</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5798,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5825,14 +5835,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 16045-2025</t>
+          <t>A 53972-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45749.63446759259</v>
+        <v>45616.3218287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5855,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5882,14 +5892,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 10269-2023</t>
+          <t>A 28331-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44986.80671296296</v>
+        <v>45818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5912,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5939,14 +5949,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 40024-2021</t>
+          <t>A 28879-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44418.4324537037</v>
+        <v>45820.62296296296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5969,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5996,14 +6006,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 15163-2024</t>
+          <t>A 28383-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45400.32577546296</v>
+        <v>45819.31177083333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6026,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6053,14 +6063,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25269-2025</t>
+          <t>A 28900-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45800</v>
+        <v>45820.63842592593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6083,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6110,14 +6120,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25757-2025</t>
+          <t>A 52317-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45801</v>
+        <v>44873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6140,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6167,14 +6177,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35811-2024</t>
+          <t>A 41508-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45532.65364583334</v>
+        <v>45560</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6197,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6224,14 +6234,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 8677-2022</t>
+          <t>A 4985-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44613</v>
+        <v>45691.30831018519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6254,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6281,14 +6291,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 24964-2024</t>
+          <t>A 6260-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45461</v>
+        <v>44600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6300,13 +6310,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6343,14 +6348,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 39154-2025</t>
+          <t>A 14487-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45888.61770833333</v>
+        <v>45741.60409722223</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6363,7 +6368,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6400,14 +6405,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 39066-2025</t>
+          <t>A 19502-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45888.46474537037</v>
+        <v>44693</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6420,7 +6425,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6457,14 +6462,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 61739-2023</t>
+          <t>A 57709-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45265</v>
+        <v>45246.68188657407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6477,7 +6482,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>13.8</v>
+        <v>6.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6514,14 +6519,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 6417-2024</t>
+          <t>A 38308-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45338</v>
+        <v>45883.47233796296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6534,7 +6539,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6571,14 +6576,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 10664-2025</t>
+          <t>A 39154-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45721.73804398148</v>
+        <v>45888.61770833333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6591,7 +6596,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>15.2</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6628,14 +6633,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 16076-2025</t>
+          <t>A 39066-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45749</v>
+        <v>45888.46474537037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6648,7 +6653,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6685,14 +6690,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 39292-2025</t>
+          <t>A 10269-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45889.41831018519</v>
+        <v>44986.80671296296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6705,7 +6710,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6742,14 +6747,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 39295-2025</t>
+          <t>A 31873-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45889.42100694445</v>
+        <v>45834.65045138889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6762,7 +6767,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6799,14 +6804,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 39486-2025</t>
+          <t>A 31888-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45890</v>
+        <v>45834.66146990741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6824,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6856,14 +6861,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 20828-2025</t>
+          <t>A 39292-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45776.74407407407</v>
+        <v>45889.41831018519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6876,7 +6881,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6913,14 +6918,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 56293-2023</t>
+          <t>A 39295-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45242.61020833333</v>
+        <v>45889.42100694445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6933,7 +6938,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6970,14 +6975,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 56294-2023</t>
+          <t>A 39486-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45242</v>
+        <v>45890</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6990,7 +6995,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7027,14 +7032,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27975-2025</t>
+          <t>A 32620-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45817.56953703704</v>
+        <v>45838.64533564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7047,7 +7052,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.2</v>
+        <v>7.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7084,14 +7089,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 27977-2025</t>
+          <t>A 30996-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45817.57148148148</v>
+        <v>45113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7104,7 +7109,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7141,14 +7146,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 28610-2023</t>
+          <t>A 32894-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45103</v>
+        <v>45839.61362268519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7161,7 +7166,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7198,14 +7203,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 11432-2025</t>
+          <t>A 6978-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45726.61204861111</v>
+        <v>44967.64511574074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7218,7 +7223,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7255,14 +7260,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 14898-2023</t>
+          <t>A 14052-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45014</v>
+        <v>45008</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7275,7 +7280,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7312,14 +7317,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 40772-2025</t>
+          <t>A 34086-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45897.40917824074</v>
+        <v>45845.4681712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7337,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7369,14 +7374,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 28331-2025</t>
+          <t>A 34360-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45818</v>
+        <v>45846.48792824074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7389,7 +7394,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7426,14 +7431,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 15061-2025</t>
+          <t>A 34407-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45743.71736111111</v>
+        <v>45846.6321875</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7446,7 +7451,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7483,14 +7488,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28332-2025</t>
+          <t>A 34782-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45818.660625</v>
+        <v>45848</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7503,7 +7508,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7540,14 +7545,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 28383-2025</t>
+          <t>A 40772-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45819.31177083333</v>
+        <v>45897.40917824074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7560,7 +7565,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7597,14 +7602,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 28900-2025</t>
+          <t>A 34660-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45820.63842592593</v>
+        <v>45848.36886574074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7617,7 +7622,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7654,14 +7659,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 28879-2025</t>
+          <t>A 34975-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45820.62296296296</v>
+        <v>45849.68076388889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7674,7 +7679,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7711,14 +7716,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 22589-2023</t>
+          <t>A 36284-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45071.48055555556</v>
+        <v>45867.654375</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7731,7 +7736,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7768,14 +7773,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 10949-2024</t>
+          <t>A 7810-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45370</v>
+        <v>45706</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7788,7 +7793,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7825,14 +7830,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 36284-2025</t>
+          <t>A 24964-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45867.654375</v>
+        <v>45461</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7844,8 +7849,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7882,14 +7892,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 9848-2024</t>
+          <t>A 35399-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45363.36511574074</v>
+        <v>45855.33679398148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7901,13 +7911,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7944,14 +7949,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 58118-2021</t>
+          <t>A 42754-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44487</v>
+        <v>45908.44385416667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7964,7 +7969,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8001,14 +8006,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 28036-2023</t>
+          <t>A 35800-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45099</v>
+        <v>45861.38344907408</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8021,7 +8026,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8058,14 +8063,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 62141-2024</t>
+          <t>A 49492-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45656.65996527778</v>
+        <v>45596.36532407408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8083,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8115,14 +8120,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42754-2025</t>
+          <t>A 35801-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45908.44385416667</v>
+        <v>45861.38625</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8135,7 +8140,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8172,14 +8177,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 15093-2025</t>
+          <t>A 27287-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45744.32858796296</v>
+        <v>45096.64322916666</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8192,7 +8197,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8229,14 +8234,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 15096-2025</t>
+          <t>A 35898-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45744.3337962963</v>
+        <v>45862.48679398148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8249,7 +8254,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8286,14 +8291,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 15122-2025</t>
+          <t>A 9409-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45744.32612268518</v>
+        <v>45359.43568287037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,8 +8310,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8343,14 +8353,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 21721-2023</t>
+          <t>A 9412-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45065</v>
+        <v>45359.44203703704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8363,7 +8373,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8400,14 +8410,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 31950-2025</t>
+          <t>A 18179-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45835</v>
+        <v>45761</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8420,7 +8430,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8457,14 +8467,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 36368-2021</t>
+          <t>A 46251-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44390</v>
+        <v>45581.59541666666</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,13 +8486,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8519,14 +8524,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 43655-2025</t>
+          <t>A 31950-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45912.33763888889</v>
+        <v>45835</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8539,7 +8544,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8576,14 +8581,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 22594-2023</t>
+          <t>A 28574-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45071.49386574074</v>
+        <v>45478</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8596,7 +8601,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8633,14 +8638,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 44666-2025</t>
+          <t>A 7709-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45917.56202546296</v>
+        <v>45706</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8653,7 +8658,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8690,14 +8695,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 44674-2025</t>
+          <t>A 7718-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45917.56850694444</v>
+        <v>45706</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8710,7 +8715,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8747,14 +8752,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 45316-2025</t>
+          <t>A 43655-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45921.83819444444</v>
+        <v>45912.33763888889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8767,7 +8772,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8804,14 +8809,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45623-2025</t>
+          <t>A 34620-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45922</v>
+        <v>45847</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8824,7 +8829,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8861,14 +8866,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 3281-2025</t>
+          <t>A 36770-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45679</v>
+        <v>45873.58733796296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8881,7 +8886,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>10.8</v>
+        <v>3.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8918,14 +8923,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 45625-2025</t>
+          <t>A 28583-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45922.79663194445</v>
+        <v>45478</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8938,7 +8943,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8975,14 +8980,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 45631-2025</t>
+          <t>A 23132-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45922.84188657408</v>
+        <v>45791.38755787037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8995,7 +9000,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.5</v>
+        <v>15.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9032,14 +9037,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 45621-2025</t>
+          <t>A 23141-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45922</v>
+        <v>45791.39673611111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9052,7 +9057,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9089,14 +9094,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 45624-2025</t>
+          <t>A 8947-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45922.79326388889</v>
+        <v>45713.4553125</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9109,7 +9114,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9146,14 +9151,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45626-2025</t>
+          <t>A 6103-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45922.79810185185</v>
+        <v>45337.36503472222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9203,14 +9208,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 45632-2025</t>
+          <t>A 6214-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45922.84633101852</v>
+        <v>45337</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9223,7 +9228,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9260,14 +9265,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 45622-2025</t>
+          <t>A 16230-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45922.78539351852</v>
+        <v>45028.41518518519</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9280,7 +9285,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9317,14 +9322,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 45639-2025</t>
+          <t>A 34315-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45922.86137731482</v>
+        <v>45524.70024305556</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9337,7 +9342,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9374,14 +9379,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 31888-2025</t>
+          <t>A 34319-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45834.66146990741</v>
+        <v>45524.71290509259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9394,7 +9399,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9431,14 +9436,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 31873-2025</t>
+          <t>A 57812-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45834.65045138889</v>
+        <v>45631.36516203704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9451,7 +9456,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9488,14 +9493,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 49489-2024</t>
+          <t>A 4382-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45596.36135416666</v>
+        <v>45686.39684027778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9508,7 +9513,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9545,14 +9550,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 12218-2025</t>
+          <t>A 4386-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45729.53674768518</v>
+        <v>45686.39981481482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9565,7 +9570,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9602,14 +9607,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 47452-2025</t>
+          <t>A 21279-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45930</v>
+        <v>45440</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9622,7 +9627,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9659,14 +9664,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 32620-2025</t>
+          <t>A 26866-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45838.64533564815</v>
+        <v>45810.71270833333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9679,7 +9684,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>7.4</v>
+        <v>3.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9716,14 +9721,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 32894-2025</t>
+          <t>A 23136-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45839.61362268519</v>
+        <v>45791.39138888889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9736,7 +9741,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9773,14 +9778,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 10819-2025</t>
+          <t>A 36597-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45722.54821759259</v>
+        <v>45153.48170138889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9798,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9830,14 +9835,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 48486-2025</t>
+          <t>A 10396-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45936.35866898148</v>
+        <v>45365.66971064815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9850,7 +9855,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9887,14 +9892,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 57056-2022</t>
+          <t>A 51978-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44895.39894675926</v>
+        <v>45607</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9907,7 +9912,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9944,14 +9949,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 30901-2022</t>
+          <t>A 26148-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44767</v>
+        <v>45091.48842592593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9964,7 +9969,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10001,14 +10006,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 13394-2025</t>
+          <t>A 31885-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45735.6999537037</v>
+        <v>45118.67444444444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10021,7 +10026,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10058,14 +10063,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 49912-2025</t>
+          <t>A 21163-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45940.61109953704</v>
+        <v>45062</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10078,7 +10083,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10115,14 +10120,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 59304-2024</t>
+          <t>A 8942-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45637.66958333334</v>
+        <v>45713.45041666667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10135,7 +10140,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10172,14 +10177,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 34086-2025</t>
+          <t>A 63104-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45845.4681712963</v>
+        <v>45273</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10192,7 +10197,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10229,14 +10234,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 34360-2025</t>
+          <t>A 26145-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45846.48792824074</v>
+        <v>45091.48431712963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10249,7 +10254,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10286,14 +10291,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 33646-2022</t>
+          <t>A 33983-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44789.60099537037</v>
+        <v>45134.695</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10306,7 +10311,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10343,14 +10348,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 34407-2025</t>
+          <t>A 36654-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45846.6321875</v>
+        <v>45537</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10363,7 +10368,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10400,14 +10405,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 46779-2022</t>
+          <t>A 59726-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44851.49621527778</v>
+        <v>45639.49413194445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10420,7 +10425,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>6.7</v>
+        <v>1.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10457,14 +10462,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 9409-2024</t>
+          <t>A 6757-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45359.43568287037</v>
+        <v>45700.62190972222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10476,13 +10481,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10519,14 +10519,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 9412-2024</t>
+          <t>A 47832-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45359.44203703704</v>
+        <v>45204</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10576,14 +10576,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 34660-2025</t>
+          <t>A 21171-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45848.36886574074</v>
+        <v>45062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10633,14 +10633,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 34782-2025</t>
+          <t>A 21306-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45848</v>
+        <v>45062</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10690,14 +10690,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 33715-2021</t>
+          <t>A 58779-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44378</v>
+        <v>45635.83408564814</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10747,14 +10747,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 34975-2025</t>
+          <t>A 2074-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45849.68076388889</v>
+        <v>45672</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10804,14 +10804,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 45892-2025</t>
+          <t>A 41855-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45923</v>
+        <v>45561.44230324074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10861,14 +10861,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 35399-2025</t>
+          <t>A 45281-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45855.33679398148</v>
+        <v>45576.37672453704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10918,14 +10918,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 35804-2024</t>
+          <t>A 10819-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45532</v>
+        <v>45722.54821759259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>7.4</v>
+        <v>1.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10975,14 +10975,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 35808-2024</t>
+          <t>A 62664-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45532.64996527778</v>
+        <v>44925.53116898148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11032,14 +11032,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 45887-2025</t>
+          <t>A 22003-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45923</v>
+        <v>45443.57090277778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11089,14 +11089,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 51523-2025</t>
+          <t>A 6318-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45950</v>
+        <v>45698.80875</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11146,14 +11146,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 35801-2025</t>
+          <t>A 37051-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45861.38625</v>
+        <v>45875.36324074074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11203,14 +11203,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 35800-2025</t>
+          <t>A 44666-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45861.38344907408</v>
+        <v>45917.56202546296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11260,14 +11260,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 18179-2025</t>
+          <t>A 44674-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45761</v>
+        <v>45917.56850694444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11317,14 +11317,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 35898-2025</t>
+          <t>A 11434-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45862.48679398148</v>
+        <v>45726.61469907407</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11374,14 +11374,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 52132-2025</t>
+          <t>A 15055-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45952.80421296296</v>
+        <v>45743.7028587963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11431,14 +11431,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 46251-2024</t>
+          <t>A 15060-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45581.59541666666</v>
+        <v>45743.71545138889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11488,14 +11488,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 33983-2023</t>
+          <t>A 15062-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45134.695</v>
+        <v>45743.71922453704</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11545,14 +11545,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 23132-2025</t>
+          <t>A 37995-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45791.38755787037</v>
+        <v>45881.75913194445</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>15.9</v>
+        <v>5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11602,14 +11602,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 36654-2024</t>
+          <t>A 45623-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45537</v>
+        <v>45922</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11659,14 +11659,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 6757-2025</t>
+          <t>A 11490-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45700.62190972222</v>
+        <v>45726</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11716,14 +11716,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 8942-2025</t>
+          <t>A 45621-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45713.45041666667</v>
+        <v>45922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11773,14 +11773,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 34315-2024</t>
+          <t>A 45316-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45524.70024305556</v>
+        <v>45921.83819444444</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11830,14 +11830,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 34319-2024</t>
+          <t>A 11488-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45524.71290509259</v>
+        <v>45726.70486111111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11887,14 +11887,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 45281-2024</t>
+          <t>A 45625-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45576.37672453704</v>
+        <v>45922.79663194445</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11944,14 +11944,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 62664-2022</t>
+          <t>A 45631-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44925.53116898148</v>
+        <v>45922.84188657408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12001,14 +12001,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 11154-2022</t>
+          <t>A 12094-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44629.38306712963</v>
+        <v>45729.32310185185</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12020,8 +12020,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>2.6</v>
+        <v>6.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12058,14 +12063,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 41855-2024</t>
+          <t>A 4927-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45561.44230324074</v>
+        <v>45329</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12083,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12115,14 +12120,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 59726-2024</t>
+          <t>A 45622-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45639.49413194445</v>
+        <v>45922.78539351852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12140,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12172,14 +12177,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 2074-2025</t>
+          <t>A 45624-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45672</v>
+        <v>45922.79326388889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12197,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12229,14 +12234,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 28583-2024</t>
+          <t>A 45626-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45478</v>
+        <v>45922.79810185185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12254,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12286,14 +12291,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 10396-2024</t>
+          <t>A 45632-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45365.66971064815</v>
+        <v>45922.84633101852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12306,7 +12311,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12343,14 +12348,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 4386-2025</t>
+          <t>A 45639-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45686.39981481482</v>
+        <v>45922.86137731482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12363,7 +12368,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12400,14 +12405,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 34620-2025</t>
+          <t>A 14719-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45847</v>
+        <v>45742.61819444445</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12420,7 +12425,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12457,14 +12462,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 4144-2024</t>
+          <t>A 23994-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45323.77944444444</v>
+        <v>45078</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12476,8 +12481,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12514,14 +12524,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 26145-2023</t>
+          <t>A 59304-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45091.48431712963</v>
+        <v>45637.66958333334</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12534,7 +12544,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12571,14 +12581,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 21279-2024</t>
+          <t>A 9965-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45440</v>
+        <v>45719</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12591,7 +12601,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12628,14 +12638,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 6103-2024</t>
+          <t>A 9976-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45337.36503472222</v>
+        <v>45719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12648,7 +12658,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12685,14 +12695,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 6214-2024</t>
+          <t>A 40024-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45337</v>
+        <v>44418.4324537037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12705,7 +12715,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12742,14 +12752,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 58779-2024</t>
+          <t>A 47452-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45635.83408564814</v>
+        <v>45930</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12762,7 +12772,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12799,14 +12809,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 7709-2025</t>
+          <t>A 12071-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45706</v>
+        <v>45728.71550925926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12819,7 +12829,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12856,14 +12866,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 7718-2025</t>
+          <t>A 48486-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45706</v>
+        <v>45936.35866898148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12876,7 +12886,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12913,14 +12923,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 22003-2024</t>
+          <t>A 6774-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45443.57090277778</v>
+        <v>45700.64171296296</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12933,7 +12943,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12970,14 +12980,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 21163-2023</t>
+          <t>A 22594-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45062</v>
+        <v>45071.49386574074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12990,7 +13000,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13027,14 +13037,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 21171-2023</t>
+          <t>A 13394-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45062</v>
+        <v>45735.6999537037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13047,7 +13057,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13084,14 +13094,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 21306-2023</t>
+          <t>A 16075-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45062</v>
+        <v>45749.68863425926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13104,7 +13114,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13141,14 +13151,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 16230-2023</t>
+          <t>A 36368-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45028.41518518519</v>
+        <v>44390</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13160,8 +13170,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13198,14 +13213,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 8947-2025</t>
+          <t>A 24941-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45713.4553125</v>
+        <v>45461</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13217,8 +13232,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13255,14 +13275,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 36597-2023</t>
+          <t>A 49912-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45153.48170138889</v>
+        <v>45940.61109953704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13275,7 +13295,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13312,14 +13332,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 26148-2023</t>
+          <t>A 53378-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45091.48842592593</v>
+        <v>44468.60568287037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13369,14 +13389,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 63104-2023</t>
+          <t>A 45887-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45273</v>
+        <v>45923</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13389,7 +13409,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13426,14 +13446,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 31885-2023</t>
+          <t>A 46779-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45118.67444444444</v>
+        <v>44851.49621527778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13446,7 +13466,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13483,14 +13503,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 28574-2024</t>
+          <t>A 51523-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45478</v>
+        <v>45950</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13503,7 +13523,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13540,14 +13560,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 4382-2025</t>
+          <t>A 45892-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45686.39684027778</v>
+        <v>45923</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13560,7 +13580,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13597,14 +13617,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 57812-2024</t>
+          <t>A 11961-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45631.36516203704</v>
+        <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13617,7 +13637,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13654,14 +13674,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 23136-2025</t>
+          <t>A 52132-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45791.39138888889</v>
+        <v>45952.80421296296</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13674,7 +13694,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13711,14 +13731,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 26866-2025</t>
+          <t>A 9417-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45810.71270833333</v>
+        <v>44981</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13731,7 +13751,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13768,14 +13788,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 23141-2025</t>
+          <t>A 10664-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45791.39673611111</v>
+        <v>45721.73804398148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13808,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.1</v>
+        <v>15.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13825,14 +13845,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 37051-2025</t>
+          <t>A 10665-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45875.36324074074</v>
+        <v>45721.74442129629</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13865,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13882,14 +13902,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 36770-2025</t>
+          <t>A 62142-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45873.58733796296</v>
+        <v>45656.66166666667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13922,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13939,14 +13959,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 28529-2022</t>
+          <t>A 62143-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44748</v>
+        <v>45656.66363425926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13979,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13996,14 +14016,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 59348-2023</t>
+          <t>A 4919-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45253</v>
+        <v>45329</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14036,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14053,14 +14073,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 53487-2025</t>
+          <t>A 17293-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45960.28282407407</v>
+        <v>45756.58894675926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14093,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14110,14 +14130,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 11938-2025</t>
+          <t>A 16887-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45728.53489583333</v>
+        <v>45755</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14129,8 +14149,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14167,14 +14192,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 54314-2025</t>
+          <t>A 61976-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45965.32422453703</v>
+        <v>45653.62631944445</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14212,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14224,14 +14249,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 37995-2025</t>
+          <t>A 53487-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45881.75913194445</v>
+        <v>45960.28282407407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14269,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14281,14 +14306,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 11293-2024</t>
+          <t>A 54314-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45371.83412037037</v>
+        <v>45965.32422453703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14326,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14338,14 +14363,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 11296-2024</t>
+          <t>A 42412-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45371.84763888889</v>
+        <v>44831</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14383,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14395,14 +14420,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 16075-2025</t>
+          <t>A 55272-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45749.68863425926</v>
+        <v>45968.67791666667</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14440,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14452,14 +14477,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 4927-2024</t>
+          <t>A 12064-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45329</v>
+        <v>44997</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14472,7 +14497,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.3</v>
+        <v>10.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14509,14 +14534,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 11490-2025</t>
+          <t>A 65199-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45726</v>
+        <v>45288</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14529,7 +14554,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14566,14 +14591,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 31617-2022</t>
+          <t>A 71676-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44775.64850694445</v>
+        <v>44539</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14586,7 +14611,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.3</v>
+        <v>8.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14623,14 +14648,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 55272-2025</t>
+          <t>A 14898-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45968.67791666667</v>
+        <v>45014</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14643,7 +14668,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14680,14 +14705,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 7069-2025</t>
+          <t>A 49489-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45701.66392361111</v>
+        <v>45596.36135416666</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14700,7 +14725,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14737,14 +14762,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 38308-2025</t>
+          <t>A 10672-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45883.47233796296</v>
+        <v>45721.78883101852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14757,7 +14782,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14794,14 +14819,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 8789-2024</t>
+          <t>A 17151-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45356.60851851852</v>
+        <v>45756.32365740741</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14814,7 +14839,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14851,14 +14876,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 8410-2021</t>
+          <t>A 15163-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44245</v>
+        <v>45400.32577546296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14871,7 +14896,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14908,14 +14933,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 10346-2021</t>
+          <t>A 63598-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44257</v>
+        <v>45275.47011574074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14928,7 +14953,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14965,14 +14990,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 4919-2024</t>
+          <t>A 12404-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45329</v>
+        <v>44999.50241898148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14985,7 +15010,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15022,14 +15047,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 58890-2024</t>
+          <t>A 274-2026</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45636.46195601852</v>
+        <v>46027.46872685185</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15042,7 +15067,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15079,14 +15104,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 274-2026</t>
+          <t>A 58890-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46027.46872685185</v>
+        <v>45636.46195601852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15099,7 +15124,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15136,14 +15161,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 15020-2025</t>
+          <t>A 47321-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45743.64266203704</v>
+        <v>45587.38203703704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15156,7 +15181,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15193,14 +15218,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 71676-2021</t>
+          <t>A 10346-2021</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44539</v>
+        <v>44257</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15213,7 +15238,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>8.1</v>
+        <v>0.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15250,14 +15275,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 62142-2024</t>
+          <t>A 59696-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45656.66166666667</v>
+        <v>45639.41188657407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15270,7 +15295,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15307,14 +15332,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 62143-2024</t>
+          <t>A 14721-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45656.66363425926</v>
+        <v>45742.62212962963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15327,7 +15352,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15364,14 +15389,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 14719-2025</t>
+          <t>A 1383-2026</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45742.61819444445</v>
+        <v>46031.62196759259</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15384,7 +15409,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15421,14 +15446,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 14721-2025</t>
+          <t>A 1385-2026</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45742.62212962963</v>
+        <v>46031.62402777778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15441,7 +15466,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>6.1</v>
+        <v>1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15485,7 +15510,7 @@
         <v>46031.62039351852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15535,14 +15560,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 51331-2022</t>
+          <t>A 7801-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44869</v>
+        <v>45706</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15555,7 +15580,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15592,14 +15617,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 28608-2023</t>
+          <t>A 22589-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45103</v>
+        <v>45071.48055555556</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15612,7 +15637,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15649,14 +15674,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 17212-2025</t>
+          <t>A 51-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45756.44349537037</v>
+        <v>45659.38747685185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15669,7 +15694,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15706,14 +15731,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 60004-2025</t>
+          <t>A 62141-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45993.58465277778</v>
+        <v>45656.65996527778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15726,7 +15751,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15763,14 +15788,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 17151-2025</t>
+          <t>A 10572-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45756.32365740741</v>
+        <v>45366.64084490741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15783,7 +15808,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15820,14 +15845,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 51978-2024</t>
+          <t>A 60004-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45607</v>
+        <v>45993.58465277778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15840,7 +15865,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15877,14 +15902,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 57790-2022</t>
+          <t>A 11306-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44897.655625</v>
+        <v>45371.87320601852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15897,7 +15922,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>18.8</v>
+        <v>1.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15934,14 +15959,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 11961-2023</t>
+          <t>A 6504-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44994</v>
+        <v>44601.44640046296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15954,7 +15979,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15991,14 +16016,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 1383-2026</t>
+          <t>A 61259-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>46031.62196759259</v>
+        <v>46000.67261574074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16011,7 +16036,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16048,14 +16073,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 1385-2026</t>
+          <t>A 33646-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>46031.62402777778</v>
+        <v>44789.60099537037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16068,7 +16093,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16105,14 +16130,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 7801-2025</t>
+          <t>A 7798-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
         <v>45706</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16125,7 +16150,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16162,14 +16187,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 27295-2023</t>
+          <t>A 4648-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45096.64859953704</v>
+        <v>45687.6631712963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16182,7 +16207,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16219,14 +16244,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 11958-2023</t>
+          <t>A 61424-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44994</v>
+        <v>46001</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16239,7 +16264,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16276,14 +16301,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 37823-2023</t>
+          <t>A 61621-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45160</v>
+        <v>46002.39636574074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16296,7 +16321,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16333,14 +16358,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 14843-2024</t>
+          <t>A 8677-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45398.38857638889</v>
+        <v>44613</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16353,7 +16378,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16390,14 +16415,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 54319-2024</t>
+          <t>A 31302-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45617.35008101852</v>
+        <v>44773.47849537037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16447,14 +16472,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 6507-2025</t>
+          <t>A 11204-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45699.64993055556</v>
+        <v>45726.31684027778</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16467,7 +16492,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16504,14 +16529,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 61259-2025</t>
+          <t>A 27295-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>46000.67261574074</v>
+        <v>45096.64859953704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16524,7 +16549,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16561,14 +16586,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 61424-2025</t>
+          <t>A 58324-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>46001</v>
+        <v>45632.62684027778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16581,7 +16606,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16618,14 +16643,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 31887-2022</t>
+          <t>A 58330-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44777.45361111111</v>
+        <v>45632.63079861111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16638,7 +16663,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>6.2</v>
+        <v>0.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16675,14 +16700,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 7335-2023</t>
+          <t>A 24459-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44971.23162037037</v>
+        <v>44726</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16695,7 +16720,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16732,14 +16757,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 36984-2021</t>
+          <t>A 10140-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44393</v>
+        <v>45719</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16751,13 +16776,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16794,14 +16814,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 24459-2022</t>
+          <t>A 16041-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44726</v>
+        <v>45749.63190972222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16814,7 +16834,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16851,14 +16871,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 61621-2025</t>
+          <t>A 15076-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>46002.39636574074</v>
+        <v>45743.78899305555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16871,7 +16891,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16908,14 +16928,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 51316-2023</t>
+          <t>A 15093-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45219.57056712963</v>
+        <v>45744.32858796296</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16928,7 +16948,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16965,14 +16985,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 10665-2025</t>
+          <t>A 15096-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45721.74442129629</v>
+        <v>45744.3337962963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16985,7 +17005,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17022,14 +17042,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 10572-2024</t>
+          <t>A 15122-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45366.64084490741</v>
+        <v>45744.32612268518</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17042,7 +17062,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17079,14 +17099,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 4979-2022</t>
+          <t>A 31887-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44593.58465277778</v>
+        <v>44777.45361111111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17099,7 +17119,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.2</v>
+        <v>6.2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17136,14 +17156,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 2415-2023</t>
+          <t>A 5829-2026</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44942</v>
+        <v>46052</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17156,7 +17176,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>19.2</v>
+        <v>4.7</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17193,14 +17213,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 47832-2023</t>
+          <t>A 6136-2026</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45204</v>
+        <v>46054.64793981481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17213,7 +17233,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17250,14 +17270,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 16887-2025</t>
+          <t>A 6137-2026</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45755</v>
+        <v>46054.65030092592</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,13 +17289,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G284" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17312,14 +17327,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 39418-2021</t>
+          <t>A 6135-2026</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44414</v>
+        <v>46054.64555555556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17332,7 +17347,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17369,14 +17384,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 7798-2025</t>
+          <t>A 36364-2021</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45706</v>
+        <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,8 +17403,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G286" t="n">
-        <v>2.6</v>
+        <v>13.3</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17426,14 +17446,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 6135-2026</t>
+          <t>A 62741-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>46054.64555555556</v>
+        <v>44925.90137731482</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17446,7 +17466,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17483,14 +17503,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 6136-2026</t>
+          <t>A 13669-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>46054.64793981481</v>
+        <v>45736.85748842593</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17503,7 +17523,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17540,14 +17560,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 6137-2026</t>
+          <t>A 15020-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>46054.65030092592</v>
+        <v>45743.64266203704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17560,7 +17580,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17597,14 +17617,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 5829-2026</t>
+          <t>A 37823-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>46052</v>
+        <v>45160</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17617,7 +17637,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17654,14 +17674,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 1765-2023</t>
+          <t>A 3281-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44936</v>
+        <v>45679</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17674,7 +17694,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>7.3</v>
+        <v>10.8</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17711,14 +17731,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 30996-2023</t>
+          <t>A 7069-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45113</v>
+        <v>45701.66392361111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17731,7 +17751,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17768,14 +17788,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 62139-2024</t>
+          <t>A 12218-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45656.65846064815</v>
+        <v>45729.53674768518</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17788,7 +17808,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17825,14 +17845,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 23994-2023</t>
+          <t>A 34445-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45078</v>
+        <v>45525</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17844,13 +17864,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G294" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17887,14 +17902,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 52317-2022</t>
+          <t>A 34449-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44873</v>
+        <v>45525.55266203704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17907,7 +17922,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17944,14 +17959,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 20750-2024</t>
+          <t>A 11068-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45436</v>
+        <v>44992</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17964,7 +17979,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.7</v>
+        <v>6.3</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18001,14 +18016,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 12071-2025</t>
+          <t>A 9527-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45728.71550925926</v>
+        <v>45359.66539351852</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18020,8 +18035,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G297" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18058,14 +18078,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 10140-2025</t>
+          <t>A 8410-2021</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45719</v>
+        <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18078,7 +18098,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18115,14 +18135,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 36364-2021</t>
+          <t>A 4979-2022</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44390</v>
+        <v>44593.58465277778</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18134,13 +18154,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G299" t="n">
-        <v>13.3</v>
+        <v>0.2</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18177,14 +18192,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 34445-2024</t>
+          <t>A 5812-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45525</v>
+        <v>45335</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18197,7 +18212,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18234,14 +18249,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 34449-2024</t>
+          <t>A 31617-2022</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45525.55266203704</v>
+        <v>44775.64850694445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18254,7 +18269,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18291,14 +18306,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 5812-2024</t>
+          <t>A 57056-2022</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45335</v>
+        <v>44895.39894675926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18311,7 +18326,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18348,14 +18363,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 12094-2025</t>
+          <t>A 11310-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45729.32310185185</v>
+        <v>45371.87774305556</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18367,13 +18382,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G303" t="n">
-        <v>6.7</v>
+        <v>2.1</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18410,14 +18420,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 31293-2024</t>
+          <t>A 21721-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45504.47707175926</v>
+        <v>45065</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18430,7 +18440,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18467,14 +18477,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 6504-2022</t>
+          <t>A 9423-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>44601.44640046296</v>
+        <v>45359.46068287037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18487,7 +18497,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18524,14 +18534,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 41508-2024</t>
+          <t>A 9848-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45560</v>
+        <v>45363.36511574074</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,8 +18553,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G306" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18581,14 +18596,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 59696-2024</t>
+          <t>A 4144-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45639.41188657407</v>
+        <v>45323.77944444444</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18601,7 +18616,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18638,14 +18653,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 33494-2023</t>
+          <t>A 8789-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45131</v>
+        <v>45356.60851851852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18658,7 +18673,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18695,14 +18710,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 33496-2023</t>
+          <t>A 28529-2022</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45131.45756944444</v>
+        <v>44748</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18715,7 +18730,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>0.4</v>
+        <v>7.2</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18752,14 +18767,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 10137-2025</t>
+          <t>A 51331-2022</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45719</v>
+        <v>44869</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18772,7 +18787,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18809,14 +18824,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 11434-2025</t>
+          <t>A 6507-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45726.61469907407</v>
+        <v>45699.64993055556</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18829,7 +18844,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18866,14 +18881,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 11204-2025</t>
+          <t>A 33494-2023</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45726.31684027778</v>
+        <v>45131</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18886,7 +18901,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18923,14 +18938,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 31302-2022</t>
+          <t>A 33496-2023</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>44773.47849537037</v>
+        <v>45131.45756944444</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18943,7 +18958,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18980,14 +18995,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 53051-2021</t>
+          <t>A 17401-2023</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44467.73666666666</v>
+        <v>45035</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18999,13 +19014,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G314" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19042,14 +19052,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 17293-2025</t>
+          <t>A 51316-2023</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45756.58894675926</v>
+        <v>45219.57056712963</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19062,7 +19072,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19099,14 +19109,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 24941-2024</t>
+          <t>A 48406-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45461</v>
+        <v>45205</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19118,13 +19128,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G316" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19161,14 +19166,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 15076-2025</t>
+          <t>A 1765-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45743.78899305555</v>
+        <v>44936</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19181,7 +19186,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19218,14 +19223,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 61975-2024</t>
+          <t>A 9548-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45653.62395833333</v>
+        <v>45359</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19275,14 +19280,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 61977-2024</t>
+          <t>A 71891-2021</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45653.62820601852</v>
+        <v>44543</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19295,7 +19300,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.1</v>
+        <v>4.4</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19332,14 +19337,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 15110-2025</t>
+          <t>A 11293-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45744.35528935185</v>
+        <v>45371.83412037037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19352,7 +19357,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19389,14 +19394,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 14052-2023</t>
+          <t>A 11296-2024</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45008</v>
+        <v>45371.84763888889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19409,7 +19414,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19446,14 +19451,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 15055-2025</t>
+          <t>A 15074-2025</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45743.7028587963</v>
+        <v>45743.78336805556</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19466,7 +19471,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19503,14 +19508,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 15060-2025</t>
+          <t>A 14843-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45743.71545138889</v>
+        <v>45398.38857638889</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19523,7 +19528,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19560,14 +19565,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 15062-2025</t>
+          <t>A 14846-2024</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45743.71922453704</v>
+        <v>45398.41739583333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19580,7 +19585,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19617,14 +19622,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 15074-2025</t>
+          <t>A 28036-2023</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45743.78336805556</v>
+        <v>45099</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19637,7 +19642,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19674,14 +19679,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 57709-2023</t>
+          <t>A 56293-2023</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45246.68188657407</v>
+        <v>45242.61020833333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19694,7 +19699,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19731,14 +19736,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 47321-2024</t>
+          <t>A 56294-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45587.38203703704</v>
+        <v>45242</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19751,7 +19756,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>9.699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19788,14 +19793,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 52909-2021</t>
+          <t>A 62139-2024</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>44467</v>
+        <v>45656.65846064815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19808,7 +19813,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19845,14 +19850,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 7810-2025</t>
+          <t>A 15061-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45706</v>
+        <v>45743.71736111111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19865,7 +19870,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19902,14 +19907,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 11306-2024</t>
+          <t>A 49505-2024</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45371.87320601852</v>
+        <v>45596.37319444444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19922,7 +19927,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19959,14 +19964,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 12064-2023</t>
+          <t>A 44353-2023</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>44997</v>
+        <v>45188</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19979,7 +19984,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>10.5</v>
+        <v>4.8</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -20016,14 +20021,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 63598-2023</t>
+          <t>A 48754-2023</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45275.47011574074</v>
+        <v>45208</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20073,14 +20078,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 32030-2024</t>
+          <t>A 31884-2022</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45510</v>
+        <v>44777.44266203704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,13 +20097,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G333" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -20135,14 +20135,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 4145-2024</t>
+          <t>A 11154-2022</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45323.78577546297</v>
+        <v>44629.38306712963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20192,14 +20192,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 48406-2023</t>
+          <t>A 11097-2023</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45205</v>
+        <v>44992</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20249,14 +20249,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 48754-2023</t>
+          <t>A 16045-2025</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45208</v>
+        <v>45749.63446759259</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20306,14 +20306,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 53378-2021</t>
+          <t>A 61975-2024</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>44468.60568287037</v>
+        <v>45653.62395833333</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20363,14 +20363,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 59623-2024</t>
+          <t>A 61977-2024</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45638</v>
+        <v>45653.62820601852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>19.2</v>
+        <v>0.1</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20420,14 +20420,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 14846-2024</t>
+          <t>A 11938-2025</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45398.41739583333</v>
+        <v>45728.53489583333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20477,14 +20477,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 4985-2025</t>
+          <t>A 12831-2025</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45691.30831018519</v>
+        <v>45733.63225694445</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20534,14 +20534,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 10672-2025</t>
+          <t>A 28608-2023</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45721.78883101852</v>
+        <v>45103</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20591,14 +20591,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 6513-2025</t>
+          <t>A 54319-2024</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45699.65769675926</v>
+        <v>45617.35008101852</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20648,14 +20648,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 27287-2023</t>
+          <t>A 6513-2025</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>45096.64322916666</v>
+        <v>45699.65769675926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20705,14 +20705,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 10815-2025</t>
+          <t>A 59348-2023</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>45722.54424768518</v>
+        <v>45253</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20762,14 +20762,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 51332-2022</t>
+          <t>A 61446-2024</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>44869</v>
+        <v>45646.48326388889</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20819,14 +20819,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 6774-2025</t>
+          <t>A 15110-2025</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>45700.64171296296</v>
+        <v>45744.35528935185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20876,14 +20876,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 31884-2022</t>
+          <t>A 10815-2025</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>44777.44266203704</v>
+        <v>45722.54424768518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20933,14 +20933,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 4648-2025</t>
+          <t>A 59623-2024</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45687.6631712963</v>
+        <v>45638</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>1.1</v>
+        <v>19.2</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -20990,14 +20990,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 49505-2024</t>
+          <t>A 4145-2024</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>45596.37319444444</v>
+        <v>45323.78577546297</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -21047,14 +21047,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 42412-2022</t>
+          <t>A 20781-2025</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>44831</v>
+        <v>45776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -21104,14 +21104,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 11488-2025</t>
+          <t>A 21009-2025</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>45726.70486111111</v>
+        <v>45777.4967824074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -21161,14 +21161,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 16041-2025</t>
+          <t>A 20881-2025</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45749.63190972222</v>
+        <v>45777.36047453704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -21218,14 +21218,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 61446-2024</t>
+          <t>A 20883-2025</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45646.48326388889</v>
+        <v>45777.36590277778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -21275,14 +21275,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 11068-2023</t>
+          <t>A 21968-2025</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>44992</v>
+        <v>45784.62885416667</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>6.3</v>
+        <v>2.9</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -21332,14 +21332,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 19502-2022</t>
+          <t>A 21930-2025</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>44693</v>
+        <v>45784.5525</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -21389,14 +21389,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 62742-2022</t>
+          <t>A 23579-2025</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>44925.90333333334</v>
+        <v>45792.62453703704</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -21446,14 +21446,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 14487-2025</t>
+          <t>A 53194-2024</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>45741.60409722223</v>
+        <v>45610</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21503,14 +21503,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 6318-2025</t>
+          <t>A 23787-2025</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>45698.80875</v>
+        <v>45793.53262731482</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21560,14 +21560,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 12404-2023</t>
+          <t>A 3279-2025</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>44999.50241898148</v>
+        <v>45679</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21617,14 +21617,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 21009-2025</t>
+          <t>A 25269-2025</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>45777.4967824074</v>
+        <v>45800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21674,14 +21674,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 20881-2025</t>
+          <t>A 25757-2025</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>45777.36047453704</v>
+        <v>45801</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>0.5</v>
+        <v>8.9</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21731,14 +21731,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 20883-2025</t>
+          <t>A 61739-2023</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>45777.36590277778</v>
+        <v>45265</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>1.9</v>
+        <v>13.8</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21788,14 +21788,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 20781-2025</t>
+          <t>A 6417-2024</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>45776</v>
+        <v>45338</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21845,14 +21845,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 21968-2025</t>
+          <t>A 16076-2025</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>45784.62885416667</v>
+        <v>45749</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -21902,14 +21902,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 21930-2025</t>
+          <t>A 28332-2025</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>45784.5525</v>
+        <v>45818.660625</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21959,14 +21959,14 @@
     <row r="366" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 53194-2024</t>
+          <t>A 27975-2025</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>45610</v>
+        <v>45817.56953703704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -22016,14 +22016,14 @@
     <row r="367" ht="15" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
-          <t>A 23579-2025</t>
+          <t>A 28610-2023</t>
         </is>
       </c>
       <c r="B367" s="1" t="n">
-        <v>45792.62453703704</v>
+        <v>45103</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -22073,14 +22073,14 @@
     <row r="368" ht="15" customHeight="1">
       <c r="A368" t="inlineStr">
         <is>
-          <t>A 23787-2025</t>
+          <t>A 20828-2025</t>
         </is>
       </c>
       <c r="B368" s="1" t="n">
-        <v>45793.53262731482</v>
+        <v>45776.74407407407</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -22130,14 +22130,14 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>A 3279-2025</t>
+          <t>A 27977-2025</t>
         </is>
       </c>
       <c r="B369" s="1" t="n">
-        <v>45679</v>
+        <v>45817.57148148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -575,7 +575,7 @@
         <v>45846.63826388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45761.37239583334</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45359.66121527777</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45659.39741898148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,14 +1042,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 65198-2023</t>
+          <t>A 32329-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45288</v>
+        <v>44371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,17 +1061,22 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>31.3</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1086,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1095,133 +1100,128 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita
+Kambräken</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 32329-2021 artfynd.xlsx", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 32329-2021 karta.png", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 32329-2021 FSC-klagomål.docx", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 32329-2021 FSC-klagomål mail.docx", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 32329-2021 tillsynsbegäran.docx", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 32329-2021 tillsynsbegäran mail.docx", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 32329-2021 prioriterade fågelarter.docx", "A 32329-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 65198-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Blåsfliksmossa
 Grov fjädermossa
 Mussellav</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 65198-2023 artfynd.xlsx", "A 65198-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 65198-2023 karta.png", "A 65198-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 65198-2023 FSC-klagomål.docx", "A 65198-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 65198-2023 FSC-klagomål mail.docx", "A 65198-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 65198-2023 tillsynsbegäran.docx", "A 65198-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 65198-2023 tillsynsbegäran mail.docx", "A 65198-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 32329-2021</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44371</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>HALLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KUNGSBACKA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita
-Kambräken</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 32329-2021 artfynd.xlsx", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 32329-2021 karta.png", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 32329-2021 FSC-klagomål.docx", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 32329-2021 FSC-klagomål mail.docx", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 32329-2021 tillsynsbegäran.docx", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 32329-2021 tillsynsbegäran mail.docx", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 32329-2021 prioriterade fågelarter.docx", "A 32329-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44645</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45701</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44873</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44645</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,14 +1572,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 46459-2023</t>
+          <t>A 13932-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45197</v>
+        <v>45737.67560185185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1591,13 +1591,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1606,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1621,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1631,45 +1626,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Drillsnäppa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 46459-2023 artfynd.xlsx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 13932-2025 artfynd.xlsx", "A 13932-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 46459-2023 karta.png", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 13932-2025 karta.png", "A 13932-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 46459-2023 FSC-klagomål.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 13932-2025 FSC-klagomål.docx", "A 13932-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 46459-2023 FSC-klagomål mail.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 13932-2025 FSC-klagomål mail.docx", "A 13932-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 46459-2023 tillsynsbegäran.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 13932-2025 tillsynsbegäran.docx", "A 13932-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 46459-2023 tillsynsbegäran mail.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 13932-2025 tillsynsbegäran mail.docx", "A 13932-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 13932-2025</t>
+          <t>A 36068-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45737.67560185185</v>
+        <v>45149</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1682,7 +1677,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1716,31 +1711,35 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 13932-2025 artfynd.xlsx", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 36068-2023 artfynd.xlsx", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 13932-2025 karta.png", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 36068-2023 karta.png", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 13932-2025 FSC-klagomål.docx", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 36068-2023 FSC-klagomål.docx", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 13932-2025 FSC-klagomål mail.docx", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 36068-2023 FSC-klagomål mail.docx", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 13932-2025 tillsynsbegäran.docx", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 36068-2023 tillsynsbegäran.docx", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 13932-2025 tillsynsbegäran mail.docx", "A 13932-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 36068-2023 tillsynsbegäran mail.docx", "A 36068-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 36068-2023 prioriterade fågelarter.docx", "A 36068-2023")</f>
         <v/>
       </c>
     </row>
@@ -1754,7 +1753,7 @@
         <v>45723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1839,7 +1838,7 @@
         <v>45719</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1924,7 +1923,7 @@
         <v>44840.59173611111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,14 +2010,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 36068-2023</t>
+          <t>A 46459-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45149</v>
+        <v>45197</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,8 +2029,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2040,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2055,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2065,35 +2069,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Drillsnäppa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 36068-2023 artfynd.xlsx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 46459-2023 artfynd.xlsx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 36068-2023 karta.png", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 46459-2023 karta.png", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 36068-2023 FSC-klagomål.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 46459-2023 FSC-klagomål.docx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 36068-2023 FSC-klagomål mail.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 46459-2023 FSC-klagomål mail.docx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 36068-2023 tillsynsbegäran.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 46459-2023 tillsynsbegäran.docx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 36068-2023 tillsynsbegäran mail.docx", "A 36068-2023")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 36068-2023 prioriterade fågelarter.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 46459-2023 tillsynsbegäran mail.docx", "A 46459-2023")</f>
         <v/>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
         <v>44804.90865740741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44308.50634259259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44286.34952546296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44286.37935185185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44537</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>44390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44368.66283564815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44279</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44853.50788194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44613</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3027,14 +3027,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 42377-2021</t>
+          <t>A 51535-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44427</v>
+        <v>44462</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3084,14 +3084,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 51535-2021</t>
+          <t>A 17242-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44462</v>
+        <v>44298.52335648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3141,14 +3141,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 17242-2021</t>
+          <t>A 17243-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44298.52335648148</v>
+        <v>44298.52487268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3198,14 +3198,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 17243-2021</t>
+          <t>A 15632-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44298.52487268519</v>
+        <v>44285</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3255,14 +3255,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 51059-2021</t>
+          <t>A 71687-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44461</v>
+        <v>44539</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3312,14 +3312,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 18057-2022</t>
+          <t>A 26979-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44684.3947800926</v>
+        <v>44740</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3369,14 +3369,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 34939-2021</t>
+          <t>A 18057-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44383</v>
+        <v>44684.3947800926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>44455.7780787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3483,14 +3483,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 63966-2021</t>
+          <t>A 57034-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44509</v>
+        <v>44482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3540,14 +3540,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 40582-2022</t>
+          <t>A 34939-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44819</v>
+        <v>44383</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>44767.60487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3654,14 +3654,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15632-2021</t>
+          <t>A 42377-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44285</v>
+        <v>44427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3711,14 +3711,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 64129-2021</t>
+          <t>A 51059-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44510</v>
+        <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3768,14 +3768,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 71687-2021</t>
+          <t>A 63966-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44539</v>
+        <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3825,14 +3825,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 70904-2021</t>
+          <t>A 40582-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44538.43275462963</v>
+        <v>44819</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>44250</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3939,14 +3939,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 28118-2021</t>
+          <t>A 13775-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44355</v>
+        <v>44274</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>12.2</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3996,14 +3996,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 57034-2021</t>
+          <t>A 70904-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44482</v>
+        <v>44538.43275462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4053,14 +4053,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 13775-2021</t>
+          <t>A 28118-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44274</v>
+        <v>44355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>12.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4110,14 +4110,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 26979-2022</t>
+          <t>A 64129-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44740</v>
+        <v>44510</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4167,14 +4167,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 41769-2021</t>
+          <t>A 9499-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44425</v>
+        <v>44251</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4224,14 +4224,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 9499-2021</t>
+          <t>A 41769-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44251</v>
+        <v>44425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4281,14 +4281,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 53051-2021</t>
+          <t>A 65199-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44467.73666666666</v>
+        <v>45288</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4300,13 +4300,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4343,14 +4338,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 31293-2024</t>
+          <t>A 9527-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45504.47707175926</v>
+        <v>45359.66539351852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4362,8 +4357,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4400,14 +4400,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 53378-2021</t>
+          <t>A 9548-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44468.60568287037</v>
+        <v>45359</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4457,14 +4457,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 52909-2021</t>
+          <t>A 58324-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44467</v>
+        <v>45632.62684027778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4514,14 +4514,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 31344-2024</t>
+          <t>A 58330-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45504.8096875</v>
+        <v>45632.63079861111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4571,14 +4571,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 46779-2022</t>
+          <t>A 71891-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44851.49621527778</v>
+        <v>44543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6.7</v>
+        <v>4.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4628,14 +4628,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2415-2023</t>
+          <t>A 64363-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44942</v>
+        <v>45280</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>19.2</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4685,14 +4685,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35804-2024</t>
+          <t>A 49492-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45532</v>
+        <v>45596.36532407408</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.4</v>
+        <v>0.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4742,14 +4742,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35808-2024</t>
+          <t>A 6978-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45532.64996527778</v>
+        <v>44967.64511574074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4799,14 +4799,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 35811-2024</t>
+          <t>A 5201-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45532.65364583334</v>
+        <v>45330</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.5</v>
+        <v>6.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4856,14 +4856,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 7335-2023</t>
+          <t>A 9965-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44971.23162037037</v>
+        <v>45719</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4913,14 +4913,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 36984-2021</t>
+          <t>A 9976-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44393</v>
+        <v>45719</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4932,13 +4932,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4975,14 +4970,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11961-2023</t>
+          <t>A 11097-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44994</v>
+        <v>44992</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4995,7 +4990,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5032,14 +5027,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 10137-2025</t>
+          <t>A 6260-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45719</v>
+        <v>44600</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5052,7 +5047,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5089,14 +5084,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 58118-2021</t>
+          <t>A 17401-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44487</v>
+        <v>45035</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5146,14 +5141,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9417-2023</t>
+          <t>A 9423-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44981</v>
+        <v>45359.46068287037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5166,7 +5161,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5203,14 +5198,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10664-2025</t>
+          <t>A 31344-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45721.73804398148</v>
+        <v>45504.8096875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5223,7 +5218,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>15.2</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5260,14 +5255,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 10665-2025</t>
+          <t>A 13669-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45721.74442129629</v>
+        <v>45736.85748842593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5280,7 +5275,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5317,14 +5312,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 62142-2024</t>
+          <t>A 53972-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45656.66166666667</v>
+        <v>45616.3218287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5337,7 +5332,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5374,14 +5369,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 62143-2024</t>
+          <t>A 12831-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45656.66363425926</v>
+        <v>45733.63225694445</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5394,7 +5389,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5431,14 +5426,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 5201-2024</t>
+          <t>A 3279-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45330</v>
+        <v>45679</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5451,7 +5446,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.7</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5488,14 +5483,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 51332-2022</t>
+          <t>A 62741-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44869</v>
+        <v>44925.90137731482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5508,7 +5503,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5545,14 +5540,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 4919-2024</t>
+          <t>A 62743-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45329</v>
+        <v>44925.90475694444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5565,7 +5560,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5602,14 +5597,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 17293-2025</t>
+          <t>A 61976-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45756.58894675926</v>
+        <v>45653.62631944445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5622,7 +5617,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5659,14 +5654,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 16887-2025</t>
+          <t>A 44353-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45755</v>
+        <v>45188</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5678,13 +5673,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5721,14 +5711,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 61976-2024</t>
+          <t>A 9417-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45653.62631944445</v>
+        <v>44981</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5741,7 +5731,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5778,14 +5768,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 33715-2021</t>
+          <t>A 11310-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44378</v>
+        <v>45371.87774305556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5798,7 +5788,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5835,14 +5825,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 64363-2023</t>
+          <t>A 51-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45280</v>
+        <v>45659.38747685185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5855,7 +5845,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5892,14 +5882,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 17212-2025</t>
+          <t>A 16045-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45756.44349537037</v>
+        <v>45749.63446759259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5912,7 +5902,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5949,14 +5939,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 11958-2023</t>
+          <t>A 10269-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44994</v>
+        <v>44986.80671296296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5969,7 +5959,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6006,14 +5996,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 39418-2021</t>
+          <t>A 25269-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44414</v>
+        <v>45800</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6026,7 +6016,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6063,14 +6053,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 42412-2022</t>
+          <t>A 25757-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44831</v>
+        <v>45801</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6083,7 +6073,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>8.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6120,14 +6110,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 57790-2022</t>
+          <t>A 40024-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44897.655625</v>
+        <v>44418.4324537037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6140,7 +6130,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>18.8</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6177,14 +6167,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 11432-2025</t>
+          <t>A 15163-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45726.61204861111</v>
+        <v>45400.32577546296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6197,7 +6187,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6234,14 +6224,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 62743-2022</t>
+          <t>A 61739-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44925.90475694444</v>
+        <v>45265</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6254,7 +6244,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.4</v>
+        <v>13.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6291,14 +6281,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53972-2024</t>
+          <t>A 6417-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45616.3218287037</v>
+        <v>45338</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6311,7 +6301,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6348,14 +6338,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10949-2024</t>
+          <t>A 16076-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45370</v>
+        <v>45749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6368,7 +6358,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6405,14 +6395,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 12064-2023</t>
+          <t>A 35811-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44997</v>
+        <v>45532.65364583334</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6425,7 +6415,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>10.5</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6462,14 +6452,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 65199-2023</t>
+          <t>A 8677-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45288</v>
+        <v>44613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6482,7 +6472,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6519,14 +6509,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 71676-2021</t>
+          <t>A 24964-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44539</v>
+        <v>45461</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6538,8 +6528,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>8.1</v>
+        <v>3.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6576,14 +6571,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 32030-2024</t>
+          <t>A 39154-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45510</v>
+        <v>45888.61770833333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6595,13 +6590,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6638,14 +6628,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 30901-2022</t>
+          <t>A 39066-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44767</v>
+        <v>45888.46474537037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6658,7 +6648,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6695,14 +6685,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 14898-2023</t>
+          <t>A 20828-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45014</v>
+        <v>45776.74407407407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6715,7 +6705,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6752,14 +6742,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 20750-2024</t>
+          <t>A 10664-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45436</v>
+        <v>45721.73804398148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6772,7 +6762,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>15.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6809,14 +6799,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 49489-2024</t>
+          <t>A 27975-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45596.36135416666</v>
+        <v>45817.56953703704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6829,7 +6819,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6866,14 +6856,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 62742-2022</t>
+          <t>A 27977-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44925.90333333334</v>
+        <v>45817.57148148148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6886,7 +6876,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6923,14 +6913,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 11310-2024</t>
+          <t>A 28610-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45371.87774305556</v>
+        <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6943,7 +6933,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6980,14 +6970,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 52317-2022</t>
+          <t>A 28331-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44873</v>
+        <v>45818</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +6990,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7037,14 +7027,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 25757-2025</t>
+          <t>A 39292-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45801</v>
+        <v>45889.41831018519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7047,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>8.9</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7094,14 +7084,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41508-2024</t>
+          <t>A 39295-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45560</v>
+        <v>45889.42100694445</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7104,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7151,14 +7141,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 10672-2025</t>
+          <t>A 28332-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45721.78883101852</v>
+        <v>45818.660625</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7161,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7208,14 +7198,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 4985-2025</t>
+          <t>A 56293-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45691.30831018519</v>
+        <v>45242.61020833333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7218,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7265,14 +7255,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 6260-2022</t>
+          <t>A 56294-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44600</v>
+        <v>45242</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7275,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7322,14 +7312,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 17151-2025</t>
+          <t>A 28383-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45756.32365740741</v>
+        <v>45819.31177083333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7332,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7379,14 +7369,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 14487-2025</t>
+          <t>A 28900-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45741.60409722223</v>
+        <v>45820.63842592593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7389,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7436,14 +7426,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 19502-2022</t>
+          <t>A 28879-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44693</v>
+        <v>45820.62296296296</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7446,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7493,14 +7483,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 57709-2023</t>
+          <t>A 11432-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45246.68188657407</v>
+        <v>45726.61204861111</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7503,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7550,14 +7540,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 15163-2024</t>
+          <t>A 14898-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45400.32577546296</v>
+        <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7560,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7607,14 +7597,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 61739-2023</t>
+          <t>A 39486-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45265</v>
+        <v>45890</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7627,7 +7617,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>13.8</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7664,14 +7654,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 6417-2024</t>
+          <t>A 15061-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45338</v>
+        <v>45743.71736111111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7684,7 +7674,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.3</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7721,14 +7711,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 16076-2025</t>
+          <t>A 22589-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45749</v>
+        <v>45071.48055555556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7741,7 +7731,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7778,14 +7768,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 63598-2023</t>
+          <t>A 10949-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45275.47011574074</v>
+        <v>45370</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7798,7 +7788,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7835,14 +7825,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 10269-2023</t>
+          <t>A 9848-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44986.80671296296</v>
+        <v>45363.36511574074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7854,8 +7844,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7892,14 +7887,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28332-2025</t>
+          <t>A 58118-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45818.660625</v>
+        <v>44487</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7912,7 +7907,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7949,14 +7944,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 27975-2025</t>
+          <t>A 28036-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45817.56953703704</v>
+        <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7969,7 +7964,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8006,14 +8001,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 28610-2023</t>
+          <t>A 62141-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45103</v>
+        <v>45656.65996527778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8026,7 +8021,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8063,14 +8058,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 20828-2025</t>
+          <t>A 31888-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45776.74407407407</v>
+        <v>45834.66146990741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8083,7 +8078,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8120,14 +8115,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 27977-2025</t>
+          <t>A 31873-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45817.57148148148</v>
+        <v>45834.65045138889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8135,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8177,14 +8172,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 21721-2023</t>
+          <t>A 15093-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45065</v>
+        <v>45744.32858796296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8197,7 +8192,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8234,14 +8229,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28331-2025</t>
+          <t>A 15096-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45818</v>
+        <v>45744.3337962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8254,7 +8249,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8291,14 +8286,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28879-2025</t>
+          <t>A 15122-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45820.62296296296</v>
+        <v>45744.32612268518</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8311,7 +8306,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8348,14 +8343,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 28383-2025</t>
+          <t>A 21721-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45819.31177083333</v>
+        <v>45065</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8368,7 +8363,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8405,14 +8400,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 28900-2025</t>
+          <t>A 32620-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45820.63842592593</v>
+        <v>45838.64533564815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8425,7 +8420,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.6</v>
+        <v>7.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8462,14 +8457,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 30996-2023</t>
+          <t>A 32894-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45113</v>
+        <v>45839.61362268519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8482,7 +8477,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8519,14 +8514,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 12404-2023</t>
+          <t>A 36368-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44999.50241898148</v>
+        <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8538,8 +8533,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8576,14 +8576,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 6978-2023</t>
+          <t>A 40772-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44967.64511574074</v>
+        <v>45897.40917824074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8633,14 +8633,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 14052-2023</t>
+          <t>A 22594-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45008</v>
+        <v>45071.49386574074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8690,14 +8690,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 58890-2024</t>
+          <t>A 34086-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45636.46195601852</v>
+        <v>45845.4681712963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8747,14 +8747,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 47321-2024</t>
+          <t>A 34360-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45587.38203703704</v>
+        <v>45846.48792824074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>9.699999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8804,14 +8804,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 10346-2021</t>
+          <t>A 3281-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44257</v>
+        <v>45679</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.2</v>
+        <v>10.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8861,14 +8861,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 59696-2024</t>
+          <t>A 34407-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45639.41188657407</v>
+        <v>45846.6321875</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8918,14 +8918,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 14721-2025</t>
+          <t>A 34660-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45742.62212962963</v>
+        <v>45848.36886574074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8975,14 +8975,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 7801-2025</t>
+          <t>A 34782-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45706</v>
+        <v>45848</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9032,14 +9032,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 7810-2025</t>
+          <t>A 34975-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45706</v>
+        <v>45849.68076388889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9089,14 +9089,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 24964-2024</t>
+          <t>A 36284-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45461</v>
+        <v>45867.654375</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9108,13 +9108,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9151,14 +9146,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 31873-2025</t>
+          <t>A 35399-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45834.65045138889</v>
+        <v>45855.33679398148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9171,7 +9166,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9208,14 +9203,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 22589-2023</t>
+          <t>A 35801-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45071.48055555556</v>
+        <v>45861.38625</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9228,7 +9223,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9265,14 +9260,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 51-2025</t>
+          <t>A 49489-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45659.38747685185</v>
+        <v>45596.36135416666</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9285,7 +9280,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9322,14 +9317,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 9423-2024</t>
+          <t>A 35800-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45359.46068287037</v>
+        <v>45861.38344907408</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9342,7 +9337,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9379,14 +9374,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 31888-2025</t>
+          <t>A 12218-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45834.66146990741</v>
+        <v>45729.53674768518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9399,7 +9394,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9436,14 +9431,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 9848-2024</t>
+          <t>A 18179-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45363.36511574074</v>
+        <v>45761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9453,11 +9448,6 @@
       <c r="E147" t="inlineStr">
         <is>
           <t>KUNGSBACKA</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -9498,14 +9488,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 62141-2024</t>
+          <t>A 35898-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45656.65996527778</v>
+        <v>45862.48679398148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9518,7 +9508,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9555,14 +9545,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 4144-2024</t>
+          <t>A 46251-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45323.77944444444</v>
+        <v>45581.59541666666</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9575,7 +9565,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9612,14 +9602,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 8789-2024</t>
+          <t>A 42754-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45356.60851851852</v>
+        <v>45908.44385416667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9632,7 +9622,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9669,14 +9659,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 10572-2024</t>
+          <t>A 33983-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45366.64084490741</v>
+        <v>45134.695</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9689,7 +9679,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9726,14 +9716,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 49492-2024</t>
+          <t>A 23132-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45596.36532407408</v>
+        <v>45791.38755787037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9746,7 +9736,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.2</v>
+        <v>15.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9783,14 +9773,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 27287-2023</t>
+          <t>A 36654-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45096.64322916666</v>
+        <v>45537</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9803,7 +9793,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9840,14 +9830,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 28529-2022</t>
+          <t>A 6757-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44748</v>
+        <v>45700.62190972222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9860,7 +9850,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9897,14 +9887,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 51331-2022</t>
+          <t>A 8942-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44869</v>
+        <v>45713.45041666667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9907,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9954,14 +9944,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 9409-2024</t>
+          <t>A 34315-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45359.43568287037</v>
+        <v>45524.70024305556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9973,13 +9963,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10016,14 +10001,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 9412-2024</t>
+          <t>A 34319-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45359.44203703704</v>
+        <v>45524.71290509259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10073,14 +10058,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 6507-2025</t>
+          <t>A 45281-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45699.64993055556</v>
+        <v>45576.37672453704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10078,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10130,14 +10115,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 32620-2025</t>
+          <t>A 62664-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45838.64533564815</v>
+        <v>44925.53116898148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10150,7 +10135,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>7.4</v>
+        <v>1.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10187,14 +10172,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 11306-2024</t>
+          <t>A 10819-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45371.87320601852</v>
+        <v>45722.54821759259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10244,14 +10229,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 6504-2022</t>
+          <t>A 41855-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44601.44640046296</v>
+        <v>45561.44230324074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10264,7 +10249,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10301,14 +10286,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 32894-2025</t>
+          <t>A 59726-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45839.61362268519</v>
+        <v>45639.49413194445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10321,7 +10306,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10358,14 +10343,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 33494-2023</t>
+          <t>A 2074-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45131</v>
+        <v>45672</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10378,7 +10363,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10415,14 +10400,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 33496-2023</t>
+          <t>A 28583-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45131.45756944444</v>
+        <v>45478</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10435,7 +10420,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10472,14 +10457,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 17401-2023</t>
+          <t>A 10396-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45035</v>
+        <v>45365.66971064815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10492,7 +10477,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10529,14 +10514,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 33646-2022</t>
+          <t>A 4386-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44789.60099537037</v>
+        <v>45686.39981481482</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10549,7 +10534,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10586,14 +10571,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 34086-2025</t>
+          <t>A 34620-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45845.4681712963</v>
+        <v>45847</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10606,7 +10591,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10643,14 +10628,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 7798-2025</t>
+          <t>A 26145-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45706</v>
+        <v>45091.48431712963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10663,7 +10648,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10700,14 +10685,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 34360-2025</t>
+          <t>A 21279-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45846.48792824074</v>
+        <v>45440</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10720,7 +10705,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10757,14 +10742,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 34407-2025</t>
+          <t>A 6103-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45846.6321875</v>
+        <v>45337.36503472222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10777,7 +10762,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10814,14 +10799,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 51316-2023</t>
+          <t>A 6214-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45219.57056712963</v>
+        <v>45337</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10834,7 +10819,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10871,14 +10856,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 4648-2025</t>
+          <t>A 58779-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45687.6631712963</v>
+        <v>45635.83408564814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10891,7 +10876,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10928,14 +10913,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 34782-2025</t>
+          <t>A 7709-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45848</v>
+        <v>45706</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10948,7 +10933,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.6</v>
+        <v>6.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10985,14 +10970,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 34660-2025</t>
+          <t>A 7718-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45848.36886574074</v>
+        <v>45706</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11005,7 +10990,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11042,14 +11027,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 48406-2023</t>
+          <t>A 22003-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45205</v>
+        <v>45443.57090277778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11062,7 +11047,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11099,14 +11084,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 51978-2024</t>
+          <t>A 21163-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45607</v>
+        <v>45062</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11119,7 +11104,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11156,14 +11141,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 34975-2025</t>
+          <t>A 57056-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45849.68076388889</v>
+        <v>44895.39894675926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11176,7 +11161,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11213,14 +11198,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 47832-2023</t>
+          <t>A 30901-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45204</v>
+        <v>44767</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11233,7 +11218,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11270,14 +11255,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 10819-2025</t>
+          <t>A 21171-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45722.54821759259</v>
+        <v>45062</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11290,7 +11275,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11327,14 +11312,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 6318-2025</t>
+          <t>A 21306-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45698.80875</v>
+        <v>45062</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11347,7 +11332,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11384,14 +11369,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 8677-2022</t>
+          <t>A 16230-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44613</v>
+        <v>45028.41518518519</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11404,7 +11389,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11441,14 +11426,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 35399-2025</t>
+          <t>A 8947-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45855.33679398148</v>
+        <v>45713.4553125</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11461,7 +11446,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11498,14 +11483,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 31302-2022</t>
+          <t>A 36597-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44773.47849537037</v>
+        <v>45153.48170138889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11518,7 +11503,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11555,14 +11540,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 1765-2023</t>
+          <t>A 26148-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44936</v>
+        <v>45091.48842592593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11575,7 +11560,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>7.3</v>
+        <v>0.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11612,14 +11597,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 11204-2025</t>
+          <t>A 63104-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45726.31684027778</v>
+        <v>45273</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11632,7 +11617,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11669,14 +11654,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 35800-2025</t>
+          <t>A 31885-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45861.38344907408</v>
+        <v>45118.67444444444</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11689,7 +11674,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11726,14 +11711,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 35801-2025</t>
+          <t>A 28574-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45861.38625</v>
+        <v>45478</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11746,7 +11731,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11783,14 +11768,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 35898-2025</t>
+          <t>A 4382-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45862.48679398148</v>
+        <v>45686.39684027778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11803,7 +11788,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11840,14 +11825,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 11434-2025</t>
+          <t>A 57812-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45726.61469907407</v>
+        <v>45631.36516203704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11860,7 +11845,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11897,14 +11882,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 27295-2023</t>
+          <t>A 23136-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45096.64859953704</v>
+        <v>45791.39138888889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11917,7 +11902,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11954,14 +11939,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 18179-2025</t>
+          <t>A 26866-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45761</v>
+        <v>45810.71270833333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11974,7 +11959,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12011,14 +11996,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 9548-2024</t>
+          <t>A 23141-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45359</v>
+        <v>45791.39673611111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12031,7 +12016,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12068,14 +12053,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 58324-2024</t>
+          <t>A 13394-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45632.62684027778</v>
+        <v>45735.6999537037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12088,7 +12073,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12125,14 +12110,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 58330-2024</t>
+          <t>A 37051-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45632.63079861111</v>
+        <v>45875.36324074074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12145,7 +12130,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12182,14 +12167,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 15055-2025</t>
+          <t>A 36770-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45743.7028587963</v>
+        <v>45873.58733796296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12202,7 +12187,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12239,14 +12224,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 15060-2025</t>
+          <t>A 31950-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45743.71545138889</v>
+        <v>45835</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12259,7 +12244,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12296,14 +12281,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 15062-2025</t>
+          <t>A 59304-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45743.71922453704</v>
+        <v>45637.66958333334</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12316,7 +12301,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12353,14 +12338,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 46251-2024</t>
+          <t>A 37995-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45581.59541666666</v>
+        <v>45881.75913194445</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12373,7 +12358,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12410,14 +12395,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 24459-2022</t>
+          <t>A 4927-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44726</v>
+        <v>45329</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12430,7 +12415,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12467,14 +12452,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 11490-2025</t>
+          <t>A 38308-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45726</v>
+        <v>45883.47233796296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12487,7 +12472,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12524,14 +12509,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 11488-2025</t>
+          <t>A 33646-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45726.70486111111</v>
+        <v>44789.60099537037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12529,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12581,14 +12566,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 28574-2024</t>
+          <t>A 43655-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45478</v>
+        <v>45912.33763888889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12601,7 +12586,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12638,14 +12623,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 7709-2025</t>
+          <t>A 46779-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45706</v>
+        <v>44851.49621527778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12658,7 +12643,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12695,14 +12680,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 7718-2025</t>
+          <t>A 9409-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45706</v>
+        <v>45359.43568287037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12714,8 +12699,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12752,14 +12742,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 12094-2025</t>
+          <t>A 9412-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45729.32310185185</v>
+        <v>45359.44203703704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12771,13 +12761,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>6.7</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12814,14 +12799,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 34620-2025</t>
+          <t>A 33715-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45847</v>
+        <v>44378</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12819,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12871,14 +12856,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 36770-2025</t>
+          <t>A 35804-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45873.58733796296</v>
+        <v>45532</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12876,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.3</v>
+        <v>7.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12928,14 +12913,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 28583-2024</t>
+          <t>A 35808-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45478</v>
+        <v>45532.64996527778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12933,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12985,14 +12970,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 23132-2025</t>
+          <t>A 44666-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45791.38755787037</v>
+        <v>45917.56202546296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +12990,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>15.9</v>
+        <v>3.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13042,14 +13027,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 23141-2025</t>
+          <t>A 44674-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45791.39673611111</v>
+        <v>45917.56850694444</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13047,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13099,14 +13084,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 8947-2025</t>
+          <t>A 45316-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45713.4553125</v>
+        <v>45921.83819444444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13104,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13156,14 +13141,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 6103-2024</t>
+          <t>A 45623-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45337.36503472222</v>
+        <v>45922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13176,7 +13161,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13213,14 +13198,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 6214-2024</t>
+          <t>A 45625-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45337</v>
+        <v>45922.79663194445</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13233,7 +13218,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13270,14 +13255,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 16230-2023</t>
+          <t>A 45631-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45028.41518518519</v>
+        <v>45922.84188657408</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13290,7 +13275,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13327,14 +13312,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 34315-2024</t>
+          <t>A 45621-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45524.70024305556</v>
+        <v>45922</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13347,7 +13332,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13384,14 +13369,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 34319-2024</t>
+          <t>A 11154-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45524.71290509259</v>
+        <v>44629.38306712963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13404,7 +13389,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13441,14 +13426,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 57812-2024</t>
+          <t>A 45624-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45631.36516203704</v>
+        <v>45922.79326388889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13461,7 +13446,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13498,14 +13483,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 4382-2025</t>
+          <t>A 45626-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45686.39684027778</v>
+        <v>45922.79810185185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13518,7 +13503,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13555,14 +13540,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 4386-2025</t>
+          <t>A 45632-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45686.39981481482</v>
+        <v>45922.84633101852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13575,7 +13560,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13612,14 +13597,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 21279-2024</t>
+          <t>A 4144-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45440</v>
+        <v>45323.77944444444</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13632,7 +13617,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13669,14 +13654,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 10140-2025</t>
+          <t>A 45622-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45719</v>
+        <v>45922.78539351852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13689,7 +13674,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13726,14 +13711,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 26866-2025</t>
+          <t>A 45639-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45810.71270833333</v>
+        <v>45922.86137731482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,7 +13731,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13783,14 +13768,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 23136-2025</t>
+          <t>A 28529-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45791.39138888889</v>
+        <v>44748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13803,7 +13788,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13840,14 +13825,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 36597-2023</t>
+          <t>A 59348-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45153.48170138889</v>
+        <v>45253</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13860,7 +13845,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13897,14 +13882,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 10396-2024</t>
+          <t>A 47452-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45365.66971064815</v>
+        <v>45930</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13917,7 +13902,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13954,14 +13939,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 14719-2025</t>
+          <t>A 11938-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45742.61819444445</v>
+        <v>45728.53489583333</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13974,7 +13959,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14011,14 +13996,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 23994-2023</t>
+          <t>A 48486-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45078</v>
+        <v>45936.35866898148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14030,13 +14015,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14073,14 +14053,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 26148-2023</t>
+          <t>A 11293-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45091.48842592593</v>
+        <v>45371.83412037037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14093,7 +14073,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14130,14 +14110,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 31885-2023</t>
+          <t>A 11296-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45118.67444444444</v>
+        <v>45371.84763888889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14150,7 +14130,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14187,14 +14167,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 21163-2023</t>
+          <t>A 16075-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45062</v>
+        <v>45749.68863425926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14207,7 +14187,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14244,14 +14224,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 8942-2025</t>
+          <t>A 11490-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45713.45041666667</v>
+        <v>45726</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14264,7 +14244,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14301,14 +14281,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 63104-2023</t>
+          <t>A 31617-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45273</v>
+        <v>44775.64850694445</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14321,7 +14301,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14358,14 +14338,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 26145-2023</t>
+          <t>A 7069-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45091.48431712963</v>
+        <v>45701.66392361111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14378,7 +14358,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14415,14 +14395,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 33983-2023</t>
+          <t>A 49912-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45134.695</v>
+        <v>45940.61109953704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14435,7 +14415,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14472,14 +14452,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 36654-2024</t>
+          <t>A 8789-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45537</v>
+        <v>45356.60851851852</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14492,7 +14472,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14529,14 +14509,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 59726-2024</t>
+          <t>A 8410-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45639.49413194445</v>
+        <v>44245</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14549,7 +14529,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14586,14 +14566,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 6757-2025</t>
+          <t>A 10346-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45700.62190972222</v>
+        <v>44257</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14606,7 +14586,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14643,14 +14623,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 21171-2023</t>
+          <t>A 4919-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45062</v>
+        <v>45329</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14663,7 +14643,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14700,14 +14680,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 21306-2023</t>
+          <t>A 58890-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45062</v>
+        <v>45636.46195601852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14720,7 +14700,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14757,14 +14737,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 58779-2024</t>
+          <t>A 15020-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45635.83408564814</v>
+        <v>45743.64266203704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14777,7 +14757,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14814,14 +14794,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 2074-2025</t>
+          <t>A 71676-2021</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45672</v>
+        <v>44539</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14834,7 +14814,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.1</v>
+        <v>8.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14871,14 +14851,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 41855-2024</t>
+          <t>A 45892-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45561.44230324074</v>
+        <v>45923</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14891,7 +14871,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14928,14 +14908,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 45281-2024</t>
+          <t>A 45887-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45576.37672453704</v>
+        <v>45923</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14948,7 +14928,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14985,14 +14965,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 59304-2024</t>
+          <t>A 51523-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45637.66958333334</v>
+        <v>45950</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15005,7 +14985,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15042,14 +15022,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 62664-2022</t>
+          <t>A 62142-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44925.53116898148</v>
+        <v>45656.66166666667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15062,7 +15042,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15099,14 +15079,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 22003-2024</t>
+          <t>A 62143-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45443.57090277778</v>
+        <v>45656.66363425926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15119,7 +15099,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15156,14 +15136,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 16041-2025</t>
+          <t>A 14719-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45749.63190972222</v>
+        <v>45742.61819444445</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15176,7 +15156,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15213,14 +15193,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 15076-2025</t>
+          <t>A 52132-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45743.78899305555</v>
+        <v>45952.80421296296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15213,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15270,14 +15250,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 15093-2025</t>
+          <t>A 14721-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45744.32858796296</v>
+        <v>45742.62212962963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15270,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.9</v>
+        <v>6.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15327,14 +15307,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 15096-2025</t>
+          <t>A 51331-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45744.3337962963</v>
+        <v>44869</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15327,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15384,14 +15364,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 15122-2025</t>
+          <t>A 28608-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45744.32612268518</v>
+        <v>45103</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15384,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15441,14 +15421,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 37051-2025</t>
+          <t>A 17212-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45875.36324074074</v>
+        <v>45756.44349537037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15441,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15498,14 +15478,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 31887-2022</t>
+          <t>A 17151-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44777.45361111111</v>
+        <v>45756.32365740741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15498,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15555,14 +15535,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 9965-2025</t>
+          <t>A 51978-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45719</v>
+        <v>45607</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15555,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15612,14 +15592,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 9976-2025</t>
+          <t>A 57790-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45719</v>
+        <v>44897.655625</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15612,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.6</v>
+        <v>18.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15669,14 +15649,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 40024-2021</t>
+          <t>A 11961-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44418.4324537037</v>
+        <v>44994</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15669,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15726,14 +15706,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 12071-2025</t>
+          <t>A 53487-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45728.71550925926</v>
+        <v>45960.28282407407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15726,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15783,14 +15763,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 37995-2025</t>
+          <t>A 7801-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45881.75913194445</v>
+        <v>45706</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15783,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15840,14 +15820,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 36364-2021</t>
+          <t>A 27295-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44390</v>
+        <v>45096.64859953704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15859,13 +15839,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>13.3</v>
+        <v>1.4</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15902,14 +15877,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 4927-2024</t>
+          <t>A 54314-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45329</v>
+        <v>45965.32422453703</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15922,7 +15897,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15959,14 +15934,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 62741-2022</t>
+          <t>A 11958-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44925.90137731482</v>
+        <v>44994</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15979,7 +15954,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16016,14 +15991,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 13669-2025</t>
+          <t>A 37823-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45736.85748842593</v>
+        <v>45160</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16011,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>9.300000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16073,14 +16048,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 6774-2025</t>
+          <t>A 55272-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45700.64171296296</v>
+        <v>45968.67791666667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16093,7 +16068,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16130,14 +16105,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 71891-2021</t>
+          <t>A 14843-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44543</v>
+        <v>45398.38857638889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16150,7 +16125,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16187,14 +16162,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 15020-2025</t>
+          <t>A 54319-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45743.64266203704</v>
+        <v>45617.35008101852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16207,7 +16182,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16244,14 +16219,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 37823-2023</t>
+          <t>A 6507-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45160</v>
+        <v>45699.64993055556</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16264,7 +16239,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16301,14 +16276,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 22594-2023</t>
+          <t>A 31887-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45071.49386574074</v>
+        <v>44777.45361111111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16321,7 +16296,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.4</v>
+        <v>6.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16358,14 +16333,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 13394-2025</t>
+          <t>A 7335-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45735.6999537037</v>
+        <v>44971.23162037037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16378,7 +16353,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16415,14 +16390,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 11293-2024</t>
+          <t>A 36984-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45371.83412037037</v>
+        <v>44393</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16434,8 +16409,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16472,14 +16452,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 11296-2024</t>
+          <t>A 24459-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45371.84763888889</v>
+        <v>44726</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16492,7 +16472,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16529,14 +16509,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 16075-2025</t>
+          <t>A 51316-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45749.68863425926</v>
+        <v>45219.57056712963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16549,7 +16529,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16586,14 +16566,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 15074-2025</t>
+          <t>A 10665-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45743.78336805556</v>
+        <v>45721.74442129629</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16606,7 +16586,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16643,14 +16623,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 3281-2025</t>
+          <t>A 10572-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45679</v>
+        <v>45366.64084490741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16663,7 +16643,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>10.8</v>
+        <v>0.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16700,14 +16680,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 36368-2021</t>
+          <t>A 4979-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44390</v>
+        <v>44593.58465277778</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16719,13 +16699,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16762,14 +16737,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 24941-2024</t>
+          <t>A 274-2026</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45461</v>
+        <v>46027.46872685185</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16781,13 +16756,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16824,14 +16794,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 7069-2025</t>
+          <t>A 2415-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45701.66392361111</v>
+        <v>44942</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16844,7 +16814,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.3</v>
+        <v>19.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16881,14 +16851,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 12218-2025</t>
+          <t>A 47832-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45729.53674768518</v>
+        <v>45204</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16901,7 +16871,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16938,14 +16908,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 34445-2024</t>
+          <t>A 16887-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45525</v>
+        <v>45755</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16957,8 +16927,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G278" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16995,14 +16970,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 34449-2024</t>
+          <t>A 39418-2021</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45525.55266203704</v>
+        <v>44414</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17015,7 +16990,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17052,14 +17027,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 38308-2025</t>
+          <t>A 7798-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45883.47233796296</v>
+        <v>45706</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17072,7 +17047,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17109,14 +17084,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 11068-2023</t>
+          <t>A 1379-2026</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44992</v>
+        <v>46031.62039351852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17129,7 +17104,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17166,14 +17141,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 39154-2025</t>
+          <t>A 1765-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45888.61770833333</v>
+        <v>44936</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17186,7 +17161,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.1</v>
+        <v>7.3</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17223,14 +17198,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 9527-2024</t>
+          <t>A 30996-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45359.66539351852</v>
+        <v>45113</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17242,13 +17217,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G283" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17285,14 +17255,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 39066-2025</t>
+          <t>A 60004-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45888.46474537037</v>
+        <v>45993.58465277778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17305,7 +17275,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17342,14 +17312,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 14843-2024</t>
+          <t>A 62139-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45398.38857638889</v>
+        <v>45656.65846064815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17362,7 +17332,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17399,14 +17369,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 14846-2024</t>
+          <t>A 23994-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45398.41739583333</v>
+        <v>45078</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17418,8 +17388,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G286" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17456,14 +17431,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 28036-2023</t>
+          <t>A 1383-2026</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45099</v>
+        <v>46031.62196759259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17476,7 +17451,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17513,14 +17488,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 56293-2023</t>
+          <t>A 1385-2026</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45242.61020833333</v>
+        <v>46031.62402777778</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17533,7 +17508,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17570,14 +17545,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 56294-2023</t>
+          <t>A 52317-2022</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45242</v>
+        <v>44873</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17590,7 +17565,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17627,14 +17602,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 8410-2021</t>
+          <t>A 20750-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44245</v>
+        <v>45436</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17647,7 +17622,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17684,14 +17659,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 4979-2022</t>
+          <t>A 12071-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44593.58465277778</v>
+        <v>45728.71550925926</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17704,7 +17679,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.2</v>
+        <v>5.7</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17741,14 +17716,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 62139-2024</t>
+          <t>A 10140-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45656.65846064815</v>
+        <v>45719</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17761,7 +17736,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17798,14 +17773,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 5812-2024</t>
+          <t>A 36364-2021</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45335</v>
+        <v>44390</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17817,8 +17792,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G293" t="n">
-        <v>1.8</v>
+        <v>13.3</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17855,14 +17835,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 15061-2025</t>
+          <t>A 61259-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45743.71736111111</v>
+        <v>46000.67261574074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17875,7 +17855,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17912,14 +17892,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 49505-2024</t>
+          <t>A 61424-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45596.37319444444</v>
+        <v>46001</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17932,7 +17912,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17969,14 +17949,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 31617-2022</t>
+          <t>A 34445-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44775.64850694445</v>
+        <v>45525</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17989,7 +17969,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18026,14 +18006,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 39292-2025</t>
+          <t>A 34449-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45889.41831018519</v>
+        <v>45525.55266203704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18046,7 +18026,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18083,14 +18063,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 39295-2025</t>
+          <t>A 5812-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45889.42100694445</v>
+        <v>45335</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18103,7 +18083,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18140,14 +18120,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 57056-2022</t>
+          <t>A 61621-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44895.39894675926</v>
+        <v>46002.39636574074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18160,7 +18140,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18197,14 +18177,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 39486-2025</t>
+          <t>A 12094-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45890</v>
+        <v>45729.32310185185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18216,8 +18196,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G300" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18254,14 +18239,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 44353-2023</t>
+          <t>A 31293-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45188</v>
+        <v>45504.47707175926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18274,7 +18259,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18311,14 +18296,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 48754-2023</t>
+          <t>A 6504-2022</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45208</v>
+        <v>44601.44640046296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18368,14 +18353,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 40772-2025</t>
+          <t>A 41508-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45897.40917824074</v>
+        <v>45560</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18388,7 +18373,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18425,14 +18410,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 36284-2025</t>
+          <t>A 59696-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45867.654375</v>
+        <v>45639.41188657407</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18445,7 +18430,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18482,14 +18467,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 31884-2022</t>
+          <t>A 6135-2026</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>44777.44266203704</v>
+        <v>46054.64555555556</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18502,7 +18487,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18539,14 +18524,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 11154-2022</t>
+          <t>A 33494-2023</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44629.38306712963</v>
+        <v>45131</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18559,7 +18544,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18596,14 +18581,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 42754-2025</t>
+          <t>A 33496-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45908.44385416667</v>
+        <v>45131.45756944444</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18616,7 +18601,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18653,14 +18638,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 11097-2023</t>
+          <t>A 6136-2026</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>44992</v>
+        <v>46054.64793981481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18673,7 +18658,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18710,14 +18695,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 31950-2025</t>
+          <t>A 6137-2026</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45835</v>
+        <v>46054.65030092592</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18730,7 +18715,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18767,14 +18752,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 43655-2025</t>
+          <t>A 10137-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45912.33763888889</v>
+        <v>45719</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18787,7 +18772,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18824,14 +18809,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 16045-2025</t>
+          <t>A 5829-2026</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45749.63446759259</v>
+        <v>46052</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18844,7 +18829,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18881,14 +18866,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 61975-2024</t>
+          <t>A 11434-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45653.62395833333</v>
+        <v>45726.61469907407</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18901,7 +18886,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18938,14 +18923,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 61977-2024</t>
+          <t>A 11204-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45653.62820601852</v>
+        <v>45726.31684027778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18958,7 +18943,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18995,14 +18980,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 11938-2025</t>
+          <t>A 31302-2022</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45728.53489583333</v>
+        <v>44773.47849537037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19015,7 +19000,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19052,14 +19037,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 12831-2025</t>
+          <t>A 53051-2021</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45733.63225694445</v>
+        <v>44467.73666666666</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19071,8 +19056,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G315" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19109,14 +19099,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 28608-2023</t>
+          <t>A 17293-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45103</v>
+        <v>45756.58894675926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19166,14 +19156,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 54319-2024</t>
+          <t>A 24941-2024</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45617.35008101852</v>
+        <v>45461</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19185,8 +19175,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G317" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19223,14 +19218,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 6513-2025</t>
+          <t>A 15076-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45699.65769675926</v>
+        <v>45743.78899305555</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19243,7 +19238,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19280,14 +19275,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 59348-2023</t>
+          <t>A 61975-2024</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45253</v>
+        <v>45653.62395833333</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19300,7 +19295,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19337,14 +19332,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 44666-2025</t>
+          <t>A 61977-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45917.56202546296</v>
+        <v>45653.62820601852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19357,7 +19352,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>3.2</v>
+        <v>0.1</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19394,14 +19389,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 44674-2025</t>
+          <t>A 15110-2025</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45917.56850694444</v>
+        <v>45744.35528935185</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19414,7 +19409,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19451,14 +19446,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 61446-2024</t>
+          <t>A 14052-2023</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45646.48326388889</v>
+        <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19471,7 +19466,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19508,14 +19503,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 15110-2025</t>
+          <t>A 15055-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45744.35528935185</v>
+        <v>45743.7028587963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19528,7 +19523,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19565,14 +19560,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 10815-2025</t>
+          <t>A 15060-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45722.54424768518</v>
+        <v>45743.71545138889</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19585,7 +19580,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19622,14 +19617,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 59623-2024</t>
+          <t>A 15062-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45638</v>
+        <v>45743.71922453704</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19642,7 +19637,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>19.2</v>
+        <v>2.8</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19679,14 +19674,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 4145-2024</t>
+          <t>A 15074-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45323.78577546297</v>
+        <v>45743.78336805556</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19699,7 +19694,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19736,14 +19731,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 45623-2025</t>
+          <t>A 57709-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45922</v>
+        <v>45246.68188657407</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19756,7 +19751,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19793,14 +19788,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 45621-2025</t>
+          <t>A 47321-2024</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45922</v>
+        <v>45587.38203703704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19813,7 +19808,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>4.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19850,14 +19845,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 45316-2025</t>
+          <t>A 52909-2021</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45921.83819444444</v>
+        <v>44467</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19907,14 +19902,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 20781-2025</t>
+          <t>A 7810-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45776</v>
+        <v>45706</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19927,7 +19922,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19964,14 +19959,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 45625-2025</t>
+          <t>A 11306-2024</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45922.79663194445</v>
+        <v>45371.87320601852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19984,7 +19979,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -20021,14 +20016,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 45631-2025</t>
+          <t>A 12064-2023</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45922.84188657408</v>
+        <v>44997</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20041,7 +20036,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>0.5</v>
+        <v>10.5</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -20078,14 +20073,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 45622-2025</t>
+          <t>A 63598-2023</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45922.78539351852</v>
+        <v>45275.47011574074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20098,7 +20093,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -20135,14 +20130,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 21009-2025</t>
+          <t>A 32030-2024</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45777.4967824074</v>
+        <v>45510</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20154,8 +20149,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G334" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20192,14 +20192,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 45624-2025</t>
+          <t>A 4145-2024</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45922.79326388889</v>
+        <v>45323.78577546297</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20249,14 +20249,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 45626-2025</t>
+          <t>A 48406-2023</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45922.79810185185</v>
+        <v>45205</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20306,14 +20306,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 45632-2025</t>
+          <t>A 48754-2023</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45922.84633101852</v>
+        <v>45208</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20363,14 +20363,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 45639-2025</t>
+          <t>A 53378-2021</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45922.86137731482</v>
+        <v>44468.60568287037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20420,14 +20420,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 20881-2025</t>
+          <t>A 59623-2024</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45777.36047453704</v>
+        <v>45638</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>0.5</v>
+        <v>19.2</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20477,14 +20477,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 20883-2025</t>
+          <t>A 14846-2024</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45777.36590277778</v>
+        <v>45398.41739583333</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20534,14 +20534,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 47452-2025</t>
+          <t>A 4985-2025</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45930</v>
+        <v>45691.30831018519</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20591,14 +20591,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 21968-2025</t>
+          <t>A 10672-2025</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45784.62885416667</v>
+        <v>45721.78883101852</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20648,14 +20648,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 21930-2025</t>
+          <t>A 6513-2025</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>45784.5525</v>
+        <v>45699.65769675926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20705,14 +20705,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 48486-2025</t>
+          <t>A 27287-2023</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>45936.35866898148</v>
+        <v>45096.64322916666</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20762,14 +20762,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 49912-2025</t>
+          <t>A 10815-2025</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>45940.61109953704</v>
+        <v>45722.54424768518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20819,14 +20819,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 23579-2025</t>
+          <t>A 51332-2022</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>45792.62453703704</v>
+        <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20876,14 +20876,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 53194-2024</t>
+          <t>A 6774-2025</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45610</v>
+        <v>45700.64171296296</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20933,14 +20933,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 45887-2025</t>
+          <t>A 31884-2022</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45923</v>
+        <v>44777.44266203704</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -20990,14 +20990,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 51523-2025</t>
+          <t>A 4648-2025</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>45950</v>
+        <v>45687.6631712963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -21047,14 +21047,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 45892-2025</t>
+          <t>A 49505-2024</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45923</v>
+        <v>45596.37319444444</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -21104,14 +21104,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 52132-2025</t>
+          <t>A 42412-2022</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>45952.80421296296</v>
+        <v>44831</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -21161,14 +21161,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 23787-2025</t>
+          <t>A 11488-2025</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45793.53262731482</v>
+        <v>45726.70486111111</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -21218,14 +21218,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 3279-2025</t>
+          <t>A 16041-2025</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45679</v>
+        <v>45749.63190972222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -21275,14 +21275,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 53487-2025</t>
+          <t>A 61446-2024</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>45960.28282407407</v>
+        <v>45646.48326388889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -21332,14 +21332,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 25269-2025</t>
+          <t>A 11068-2023</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>45800</v>
+        <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>2.8</v>
+        <v>6.3</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -21389,14 +21389,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 54314-2025</t>
+          <t>A 19502-2022</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>45965.32422453703</v>
+        <v>44693</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -21446,14 +21446,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 55272-2025</t>
+          <t>A 62742-2022</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>45968.67791666667</v>
+        <v>44925.90333333334</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21503,14 +21503,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 274-2026</t>
+          <t>A 14487-2025</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>46027.46872685185</v>
+        <v>45741.60409722223</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21560,14 +21560,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 1383-2026</t>
+          <t>A 6318-2025</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>46031.62196759259</v>
+        <v>45698.80875</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21617,14 +21617,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 1385-2026</t>
+          <t>A 12404-2023</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>46031.62402777778</v>
+        <v>44999.50241898148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21674,14 +21674,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 1379-2026</t>
+          <t>A 21009-2025</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>46031.62039351852</v>
+        <v>45777.4967824074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21731,14 +21731,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 60004-2025</t>
+          <t>A 20881-2025</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>45993.58465277778</v>
+        <v>45777.36047453704</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21788,14 +21788,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 61259-2025</t>
+          <t>A 20883-2025</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>46000.67261574074</v>
+        <v>45777.36590277778</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21845,14 +21845,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 61424-2025</t>
+          <t>A 20781-2025</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>46001</v>
+        <v>45776</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -21902,14 +21902,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 61621-2025</t>
+          <t>A 21968-2025</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>46002.39636574074</v>
+        <v>45784.62885416667</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21959,14 +21959,14 @@
     <row r="366" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 5829-2026</t>
+          <t>A 21930-2025</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>46052</v>
+        <v>45784.5525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -22016,14 +22016,14 @@
     <row r="367" ht="15" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
-          <t>A 6136-2026</t>
+          <t>A 53194-2024</t>
         </is>
       </c>
       <c r="B367" s="1" t="n">
-        <v>46054.64793981481</v>
+        <v>45610</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -22073,14 +22073,14 @@
     <row r="368" ht="15" customHeight="1">
       <c r="A368" t="inlineStr">
         <is>
-          <t>A 6137-2026</t>
+          <t>A 23579-2025</t>
         </is>
       </c>
       <c r="B368" s="1" t="n">
-        <v>46054.65030092592</v>
+        <v>45792.62453703704</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -22130,14 +22130,14 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>A 6135-2026</t>
+          <t>A 23787-2025</t>
         </is>
       </c>
       <c r="B369" s="1" t="n">
-        <v>46054.64555555556</v>
+        <v>45793.53262731482</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z369"/>
+  <dimension ref="A1:Z371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45846.63826388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45761.37239583334</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45359.66121527777</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,14 +951,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 58-2025</t>
+          <t>A 13374-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45659.39741898148</v>
+        <v>44645</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,16 +971,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>10.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1004,315 +1004,315 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Grönsångare
+Svartvit flugsnappare</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 13374-2022 artfynd.xlsx", "A 13374-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 13374-2022 karta.png", "A 13374-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 13374-2022 FSC-klagomål.docx", "A 13374-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 13374-2022 FSC-klagomål mail.docx", "A 13374-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 13374-2022 tillsynsbegäran.docx", "A 13374-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 13374-2022 tillsynsbegäran mail.docx", "A 13374-2022")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 13374-2022 prioriterade fågelarter.docx", "A 13374-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 58-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45659.39741898148</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Mindre hackspett
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 58-2025 artfynd.xlsx", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 58-2025 karta.png", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 58-2025 FSC-klagomål.docx", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 58-2025 FSC-klagomål mail.docx", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 58-2025 tillsynsbegäran.docx", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 58-2025 tillsynsbegäran mail.docx", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 58-2025 prioriterade fågelarter.docx", "A 58-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 32329-2021</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>44371</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>HALLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KUNGSBACKA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>31.3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>2</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>2</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>3</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
 Kambräken</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 32329-2021 artfynd.xlsx", "A 32329-2021")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 32329-2021 karta.png", "A 32329-2021")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 32329-2021 FSC-klagomål.docx", "A 32329-2021")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 32329-2021 FSC-klagomål mail.docx", "A 32329-2021")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 32329-2021 tillsynsbegäran.docx", "A 32329-2021")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 32329-2021 tillsynsbegäran mail.docx", "A 32329-2021")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 32329-2021 prioriterade fågelarter.docx", "A 32329-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 65198-2023</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45288</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>HALLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KUNGSBACKA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>2.8</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Blåsfliksmossa
 Grov fjädermossa
 Mussellav</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 65198-2023 artfynd.xlsx", "A 65198-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 65198-2023 karta.png", "A 65198-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 65198-2023 FSC-klagomål.docx", "A 65198-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 65198-2023 FSC-klagomål mail.docx", "A 65198-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 65198-2023 tillsynsbegäran.docx", "A 65198-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 65198-2023 tillsynsbegäran mail.docx", "A 65198-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 13374-2022</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44645</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>HALLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KUNGSBACKA</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Grönsångare
-Svartvit flugsnappare</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 13374-2022 artfynd.xlsx", "A 13374-2022")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 13374-2022 karta.png", "A 13374-2022")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 13374-2022 FSC-klagomål.docx", "A 13374-2022")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 13374-2022 FSC-klagomål mail.docx", "A 13374-2022")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 13374-2022 tillsynsbegäran.docx", "A 13374-2022")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 13374-2022 tillsynsbegäran mail.docx", "A 13374-2022")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 13374-2022 prioriterade fågelarter.docx", "A 13374-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45701</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44873</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44645</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45737.67560185185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>45149</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>45719</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44840.59173611111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>45197</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44804.90865740741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44308.50634259259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44286.34952546296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44286.37935185185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44537</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>44390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44368.66283564815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44279</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44853.50788194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44613</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44462</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44298.52335648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44298.52487268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44285</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44539</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44740</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44684.3947800926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44455.7780787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44383</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44767.60487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44819</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44250</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44274</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3996,14 +3996,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 70904-2021</t>
+          <t>A 64129-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44538.43275462963</v>
+        <v>44510</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4053,14 +4053,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 28118-2021</t>
+          <t>A 70904-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44355</v>
+        <v>44538.43275462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>12.2</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4110,14 +4110,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 64129-2021</t>
+          <t>A 28118-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44510</v>
+        <v>44355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>12.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>44251</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4281,14 +4281,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 65199-2023</t>
+          <t>A 58324-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45288</v>
+        <v>45632.62684027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4338,14 +4338,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9527-2024</t>
+          <t>A 58330-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45359.66539351852</v>
+        <v>45632.63079861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4357,13 +4357,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4400,14 +4395,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 9548-2024</t>
+          <t>A 9527-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45359</v>
+        <v>45359.66539351852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4419,8 +4414,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4457,14 +4457,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 58324-2024</t>
+          <t>A 9548-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45632.62684027778</v>
+        <v>45359</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4514,14 +4514,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 58330-2024</t>
+          <t>A 65199-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45632.63079861111</v>
+        <v>45288</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>44543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4628,14 +4628,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 64363-2023</t>
+          <t>A 49492-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45280</v>
+        <v>45596.36532407408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4685,14 +4685,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49492-2024</t>
+          <t>A 64363-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45596.36532407408</v>
+        <v>45280</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4742,14 +4742,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 6978-2023</t>
+          <t>A 5201-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44967.64511574074</v>
+        <v>45330</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>6.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4799,14 +4799,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 5201-2024</t>
+          <t>A 6978-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45330</v>
+        <v>44967.64511574074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.7</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4863,7 +4863,7 @@
         <v>45719</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>45719</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44992</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44600</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,14 +5084,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17401-2023</t>
+          <t>A 9423-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45035</v>
+        <v>45359.46068287037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5141,14 +5141,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9423-2024</t>
+          <t>A 13669-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45359.46068287037</v>
+        <v>45736.85748842593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5198,14 +5198,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 31344-2024</t>
+          <t>A 17401-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45504.8096875</v>
+        <v>45035</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5255,14 +5255,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 13669-2025</t>
+          <t>A 31344-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45736.85748842593</v>
+        <v>45504.8096875</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>9.300000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5312,14 +5312,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 53972-2024</t>
+          <t>A 53194-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45616.3218287037</v>
+        <v>45610</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5369,14 +5369,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 12831-2025</t>
+          <t>A 61621-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45733.63225694445</v>
+        <v>46002.39636574074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5426,14 +5426,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3279-2025</t>
+          <t>A 23579-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45679</v>
+        <v>45792.62453703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5483,14 +5483,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62741-2022</t>
+          <t>A 23787-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44925.90137731482</v>
+        <v>45793.53262731482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5540,14 +5540,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 62743-2022</t>
+          <t>A 12831-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44925.90475694444</v>
+        <v>45733.63225694445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5597,14 +5597,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 61976-2024</t>
+          <t>A 53972-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45653.62631944445</v>
+        <v>45616.3218287037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.1</v>
+        <v>5.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5654,14 +5654,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 44353-2023</t>
+          <t>A 3279-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45188</v>
+        <v>45679</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5711,14 +5711,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 9417-2023</t>
+          <t>A 39154-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44981</v>
+        <v>45888.61770833333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5768,14 +5768,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 11310-2024</t>
+          <t>A 39066-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45371.87774305556</v>
+        <v>45888.46474537037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5825,14 +5825,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 51-2025</t>
+          <t>A 62741-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45659.38747685185</v>
+        <v>44925.90137731482</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5882,14 +5882,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 16045-2025</t>
+          <t>A 62743-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45749.63446759259</v>
+        <v>44925.90475694444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5939,14 +5939,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 10269-2023</t>
+          <t>A 39292-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44986.80671296296</v>
+        <v>45889.41831018519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5996,14 +5996,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 25269-2025</t>
+          <t>A 39295-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45800</v>
+        <v>45889.42100694445</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6053,14 +6053,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25757-2025</t>
+          <t>A 39486-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45801</v>
+        <v>45890</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8.9</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6110,14 +6110,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 40024-2021</t>
+          <t>A 61976-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44418.4324537037</v>
+        <v>45653.62631944445</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6167,14 +6167,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 15163-2024</t>
+          <t>A 44353-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45400.32577546296</v>
+        <v>45188</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6224,14 +6224,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61739-2023</t>
+          <t>A 25269-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45265</v>
+        <v>45800</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>13.8</v>
+        <v>2.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6281,14 +6281,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 6417-2024</t>
+          <t>A 9417-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45338</v>
+        <v>44981</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6.3</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6338,14 +6338,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 16076-2025</t>
+          <t>A 25757-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45749</v>
+        <v>45801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.1</v>
+        <v>8.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6395,14 +6395,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 35811-2024</t>
+          <t>A 11310-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45532.65364583334</v>
+        <v>45371.87774305556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6452,14 +6452,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8677-2022</t>
+          <t>A 51-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44613</v>
+        <v>45659.38747685185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6509,14 +6509,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 24964-2024</t>
+          <t>A 16045-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45461</v>
+        <v>45749.63446759259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6528,13 +6528,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6571,14 +6566,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 39154-2025</t>
+          <t>A 10269-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45888.61770833333</v>
+        <v>44986.80671296296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6591,7 +6586,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6628,14 +6623,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 39066-2025</t>
+          <t>A 40772-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45888.46474537037</v>
+        <v>45897.40917824074</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6648,7 +6643,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6685,14 +6680,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 20828-2025</t>
+          <t>A 61739-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45776.74407407407</v>
+        <v>45265</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6705,7 +6700,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>13.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6742,14 +6737,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 10664-2025</t>
+          <t>A 6417-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45721.73804398148</v>
+        <v>45338</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6762,7 +6757,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>15.2</v>
+        <v>6.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6799,14 +6794,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 27975-2025</t>
+          <t>A 16076-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45817.56953703704</v>
+        <v>45749</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6814,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6856,14 +6851,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 27977-2025</t>
+          <t>A 40024-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45817.57148148148</v>
+        <v>44418.4324537037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6876,7 +6871,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6913,14 +6908,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28610-2023</t>
+          <t>A 15163-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45103</v>
+        <v>45400.32577546296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6933,7 +6928,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6970,14 +6965,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 28331-2025</t>
+          <t>A 36284-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45818</v>
+        <v>45867.654375</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6990,7 +6985,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7027,14 +7022,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 39292-2025</t>
+          <t>A 20828-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45889.41831018519</v>
+        <v>45776.74407407407</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7047,7 +7042,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7084,14 +7079,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 39295-2025</t>
+          <t>A 27975-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45889.42100694445</v>
+        <v>45817.56953703704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7104,7 +7099,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7141,14 +7136,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 28332-2025</t>
+          <t>A 27977-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45818.660625</v>
+        <v>45817.57148148148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7161,7 +7156,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7198,14 +7193,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 56293-2023</t>
+          <t>A 28610-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45242.61020833333</v>
+        <v>45103</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7255,14 +7250,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 56294-2023</t>
+          <t>A 28331-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45242</v>
+        <v>45818</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7275,7 +7270,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7312,14 +7307,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 28383-2025</t>
+          <t>A 28332-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45819.31177083333</v>
+        <v>45818.660625</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7327,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7369,14 +7364,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 28900-2025</t>
+          <t>A 35811-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45820.63842592593</v>
+        <v>45532.65364583334</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7389,7 +7384,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7426,14 +7421,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 28879-2025</t>
+          <t>A 8677-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45820.62296296296</v>
+        <v>44613</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7446,7 +7441,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7483,14 +7478,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 11432-2025</t>
+          <t>A 28383-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45726.61204861111</v>
+        <v>45819.31177083333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7503,7 +7498,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7540,14 +7535,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 14898-2023</t>
+          <t>A 24964-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45014</v>
+        <v>45461</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7559,8 +7554,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>0.1</v>
+        <v>3.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7597,14 +7597,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 39486-2025</t>
+          <t>A 28900-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45890</v>
+        <v>45820.63842592593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7654,14 +7654,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 15061-2025</t>
+          <t>A 28879-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45743.71736111111</v>
+        <v>45820.62296296296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7711,14 +7711,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 22589-2023</t>
+          <t>A 10664-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45071.48055555556</v>
+        <v>45721.73804398148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>15.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7768,14 +7768,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 10949-2024</t>
+          <t>A 42754-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45370</v>
+        <v>45908.44385416667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7825,14 +7825,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 9848-2024</t>
+          <t>A 31950-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45363.36511574074</v>
+        <v>45835</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7844,13 +7844,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7887,14 +7882,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58118-2021</t>
+          <t>A 56293-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44487</v>
+        <v>45242.61020833333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7907,7 +7902,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7944,14 +7939,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 28036-2023</t>
+          <t>A 56294-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45099</v>
+        <v>45242</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7964,7 +7959,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8001,14 +7996,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 62141-2024</t>
+          <t>A 43655-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45656.65996527778</v>
+        <v>45912.33763888889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8021,7 +8016,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8058,14 +8053,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 31888-2025</t>
+          <t>A 11432-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45834.66146990741</v>
+        <v>45726.61204861111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8073,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8115,14 +8110,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 31873-2025</t>
+          <t>A 14898-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45834.65045138889</v>
+        <v>45014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8135,7 +8130,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.6</v>
+        <v>0.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8172,14 +8167,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 15093-2025</t>
+          <t>A 44666-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45744.32858796296</v>
+        <v>45917.56202546296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8192,7 +8187,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8229,14 +8224,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 15096-2025</t>
+          <t>A 44674-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45744.3337962963</v>
+        <v>45917.56850694444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8249,7 +8244,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8286,14 +8281,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 15122-2025</t>
+          <t>A 15061-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45744.32612268518</v>
+        <v>45743.71736111111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8306,7 +8301,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8343,14 +8338,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 21721-2023</t>
+          <t>A 31888-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45065</v>
+        <v>45834.66146990741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8363,7 +8358,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8400,14 +8395,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 32620-2025</t>
+          <t>A 31873-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45838.64533564815</v>
+        <v>45834.65045138889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8420,7 +8415,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>7.4</v>
+        <v>4.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8457,14 +8452,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 32894-2025</t>
+          <t>A 22589-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45839.61362268519</v>
+        <v>45071.48055555556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8477,7 +8472,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8514,14 +8509,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 36368-2021</t>
+          <t>A 10949-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44390</v>
+        <v>45370</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,13 +8528,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8576,14 +8566,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 40772-2025</t>
+          <t>A 45316-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45897.40917824074</v>
+        <v>45921.83819444444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8596,7 +8586,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8633,14 +8623,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 22594-2023</t>
+          <t>A 45623-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45071.49386574074</v>
+        <v>45922</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8653,7 +8643,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8690,14 +8680,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 34086-2025</t>
+          <t>A 9848-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45845.4681712963</v>
+        <v>45363.36511574074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8709,8 +8699,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8747,14 +8742,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 34360-2025</t>
+          <t>A 58118-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45846.48792824074</v>
+        <v>44487</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8767,7 +8762,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8804,14 +8799,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 3281-2025</t>
+          <t>A 45625-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45679</v>
+        <v>45922.79663194445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8824,7 +8819,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>10.8</v>
+        <v>3.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8861,14 +8856,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 34407-2025</t>
+          <t>A 45631-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45846.6321875</v>
+        <v>45922.84188657408</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8881,7 +8876,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8918,14 +8913,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 34660-2025</t>
+          <t>A 6135-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45848.36886574074</v>
+        <v>46054.64555555556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8938,7 +8933,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8975,14 +8970,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 34782-2025</t>
+          <t>A 45621-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45848</v>
+        <v>45922</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8995,7 +8990,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9032,14 +9027,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 34975-2025</t>
+          <t>A 45624-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45849.68076388889</v>
+        <v>45922.79326388889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9052,7 +9047,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9089,14 +9084,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 36284-2025</t>
+          <t>A 45626-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45867.654375</v>
+        <v>45922.79810185185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9109,7 +9104,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9146,14 +9141,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 35399-2025</t>
+          <t>A 45632-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45855.33679398148</v>
+        <v>45922.84633101852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9166,7 +9161,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9203,14 +9198,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 35801-2025</t>
+          <t>A 45622-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45861.38625</v>
+        <v>45922.78539351852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9223,7 +9218,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9260,14 +9255,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 49489-2024</t>
+          <t>A 32620-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45596.36135416666</v>
+        <v>45838.64533564815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9280,7 +9275,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.7</v>
+        <v>7.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9317,14 +9312,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 35800-2025</t>
+          <t>A 45639-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45861.38344907408</v>
+        <v>45922.86137731482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9374,14 +9369,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 12218-2025</t>
+          <t>A 28036-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45729.53674768518</v>
+        <v>45099</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9394,7 +9389,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9431,14 +9426,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 18179-2025</t>
+          <t>A 32894-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45761</v>
+        <v>45839.61362268519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9451,7 +9446,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9488,14 +9483,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 35898-2025</t>
+          <t>A 62141-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45862.48679398148</v>
+        <v>45656.65996527778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9508,7 +9503,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9545,14 +9540,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 46251-2024</t>
+          <t>A 15093-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45581.59541666666</v>
+        <v>45744.32858796296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9565,7 +9560,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9602,14 +9597,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 42754-2025</t>
+          <t>A 15096-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45908.44385416667</v>
+        <v>45744.3337962963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9622,7 +9617,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9659,14 +9654,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 33983-2023</t>
+          <t>A 15122-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45134.695</v>
+        <v>45744.32612268518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9679,7 +9674,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9716,14 +9711,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 23132-2025</t>
+          <t>A 21721-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45791.38755787037</v>
+        <v>45065</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9736,7 +9731,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>15.9</v>
+        <v>1.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9773,14 +9768,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 36654-2024</t>
+          <t>A 36368-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45537</v>
+        <v>44390</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9792,8 +9787,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9830,14 +9830,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 6757-2025</t>
+          <t>A 6136-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45700.62190972222</v>
+        <v>46054.64793981481</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9887,14 +9887,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 8942-2025</t>
+          <t>A 6137-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45713.45041666667</v>
+        <v>46054.65030092592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9944,14 +9944,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 34315-2024</t>
+          <t>A 34086-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45524.70024305556</v>
+        <v>45845.4681712963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10001,14 +10001,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 34319-2024</t>
+          <t>A 34360-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45524.71290509259</v>
+        <v>45846.48792824074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10058,14 +10058,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 45281-2024</t>
+          <t>A 47452-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45576.37672453704</v>
+        <v>45930</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10115,14 +10115,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 62664-2022</t>
+          <t>A 22594-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44925.53116898148</v>
+        <v>45071.49386574074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10172,14 +10172,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 10819-2025</t>
+          <t>A 34407-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45722.54821759259</v>
+        <v>45846.6321875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10229,14 +10229,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 41855-2024</t>
+          <t>A 34660-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45561.44230324074</v>
+        <v>45848.36886574074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10286,14 +10286,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 59726-2024</t>
+          <t>A 34782-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45639.49413194445</v>
+        <v>45848</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10343,14 +10343,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 2074-2025</t>
+          <t>A 34975-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45672</v>
+        <v>45849.68076388889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10400,14 +10400,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 28583-2024</t>
+          <t>A 48486-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45478</v>
+        <v>45936.35866898148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10457,14 +10457,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 10396-2024</t>
+          <t>A 3281-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45365.66971064815</v>
+        <v>45679</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.8</v>
+        <v>10.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10514,14 +10514,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 4386-2025</t>
+          <t>A 35399-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45686.39981481482</v>
+        <v>45855.33679398148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10571,14 +10571,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 34620-2025</t>
+          <t>A 35801-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45847</v>
+        <v>45861.38625</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10628,14 +10628,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 26145-2023</t>
+          <t>A 35800-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45091.48431712963</v>
+        <v>45861.38344907408</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10685,14 +10685,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 21279-2024</t>
+          <t>A 18179-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45440</v>
+        <v>45761</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10742,14 +10742,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 6103-2024</t>
+          <t>A 35898-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45337.36503472222</v>
+        <v>45862.48679398148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10799,14 +10799,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 6214-2024</t>
+          <t>A 49912-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45337</v>
+        <v>45940.61109953704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10856,14 +10856,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 58779-2024</t>
+          <t>A 46251-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45635.83408564814</v>
+        <v>45581.59541666666</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10913,14 +10913,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 7709-2025</t>
+          <t>A 33983-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45706</v>
+        <v>45134.695</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6.3</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10970,14 +10970,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 7718-2025</t>
+          <t>A 23132-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45706</v>
+        <v>45791.38755787037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>15.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11027,14 +11027,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 22003-2024</t>
+          <t>A 36654-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45443.57090277778</v>
+        <v>45537</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11084,14 +11084,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 21163-2023</t>
+          <t>A 6757-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45062</v>
+        <v>45700.62190972222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11141,14 +11141,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 57056-2022</t>
+          <t>A 8942-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44895.39894675926</v>
+        <v>45713.45041666667</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11198,14 +11198,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 30901-2022</t>
+          <t>A 34315-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44767</v>
+        <v>45524.70024305556</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11255,14 +11255,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 21171-2023</t>
+          <t>A 34319-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45062</v>
+        <v>45524.71290509259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11312,14 +11312,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 21306-2023</t>
+          <t>A 45281-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45062</v>
+        <v>45576.37672453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11369,14 +11369,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 16230-2023</t>
+          <t>A 62664-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45028.41518518519</v>
+        <v>44925.53116898148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11426,14 +11426,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 8947-2025</t>
+          <t>A 41855-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45713.4553125</v>
+        <v>45561.44230324074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11483,14 +11483,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 36597-2023</t>
+          <t>A 59726-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45153.48170138889</v>
+        <v>45639.49413194445</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11540,14 +11540,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 26148-2023</t>
+          <t>A 2074-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45091.48842592593</v>
+        <v>45672</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11597,14 +11597,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 63104-2023</t>
+          <t>A 28583-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45273</v>
+        <v>45478</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11654,14 +11654,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 31885-2023</t>
+          <t>A 10396-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45118.67444444444</v>
+        <v>45365.66971064815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11711,14 +11711,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 28574-2024</t>
+          <t>A 4386-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45478</v>
+        <v>45686.39981481482</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11768,14 +11768,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 4382-2025</t>
+          <t>A 34620-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45686.39684027778</v>
+        <v>45847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11825,14 +11825,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 57812-2024</t>
+          <t>A 26145-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45631.36516203704</v>
+        <v>45091.48431712963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11882,14 +11882,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 23136-2025</t>
+          <t>A 21279-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45791.39138888889</v>
+        <v>45440</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11939,14 +11939,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 26866-2025</t>
+          <t>A 6103-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45810.71270833333</v>
+        <v>45337.36503472222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11996,14 +11996,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 23141-2025</t>
+          <t>A 6214-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45791.39673611111</v>
+        <v>45337</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12053,14 +12053,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 13394-2025</t>
+          <t>A 58779-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45735.6999537037</v>
+        <v>45635.83408564814</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12110,14 +12110,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 37051-2025</t>
+          <t>A 7709-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45875.36324074074</v>
+        <v>45706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.6</v>
+        <v>6.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12167,14 +12167,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 36770-2025</t>
+          <t>A 7718-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45873.58733796296</v>
+        <v>45706</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12224,14 +12224,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 31950-2025</t>
+          <t>A 22003-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45835</v>
+        <v>45443.57090277778</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12281,14 +12281,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 59304-2024</t>
+          <t>A 21163-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45637.66958333334</v>
+        <v>45062</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12338,14 +12338,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 37995-2025</t>
+          <t>A 49489-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45881.75913194445</v>
+        <v>45596.36135416666</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12395,14 +12395,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 4927-2024</t>
+          <t>A 21171-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45329</v>
+        <v>45062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12452,14 +12452,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 38308-2025</t>
+          <t>A 21306-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45883.47233796296</v>
+        <v>45062</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12509,14 +12509,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 33646-2022</t>
+          <t>A 16230-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44789.60099537037</v>
+        <v>45028.41518518519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12566,14 +12566,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 43655-2025</t>
+          <t>A 5829-2026</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45912.33763888889</v>
+        <v>46052</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12623,14 +12623,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 46779-2022</t>
+          <t>A 8947-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44851.49621527778</v>
+        <v>45713.4553125</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>6.7</v>
+        <v>2.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12680,14 +12680,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 9409-2024</t>
+          <t>A 12218-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45359.43568287037</v>
+        <v>45729.53674768518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12699,13 +12699,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12742,14 +12737,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 9412-2024</t>
+          <t>A 36597-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45359.44203703704</v>
+        <v>45153.48170138889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12762,7 +12757,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12799,14 +12794,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 33715-2021</t>
+          <t>A 26148-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44378</v>
+        <v>45091.48842592593</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12819,7 +12814,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12856,14 +12851,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 35804-2024</t>
+          <t>A 63104-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45532</v>
+        <v>45273</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12876,7 +12871,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>7.4</v>
+        <v>2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12913,14 +12908,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 35808-2024</t>
+          <t>A 31885-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45532.64996527778</v>
+        <v>45118.67444444444</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12933,7 +12928,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12970,14 +12965,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 44666-2025</t>
+          <t>A 28574-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45917.56202546296</v>
+        <v>45478</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12990,7 +12985,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13027,14 +13022,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 44674-2025</t>
+          <t>A 4382-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45917.56850694444</v>
+        <v>45686.39684027778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13047,7 +13042,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13084,14 +13079,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 45316-2025</t>
+          <t>A 57812-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45921.83819444444</v>
+        <v>45631.36516203704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13104,7 +13099,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13141,14 +13136,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 45623-2025</t>
+          <t>A 23136-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45922</v>
+        <v>45791.39138888889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13161,7 +13156,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13198,14 +13193,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 45625-2025</t>
+          <t>A 26866-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45922.79663194445</v>
+        <v>45810.71270833333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13218,7 +13213,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13255,14 +13250,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 45631-2025</t>
+          <t>A 23141-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45922.84188657408</v>
+        <v>45791.39673611111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13275,7 +13270,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13312,14 +13307,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 45621-2025</t>
+          <t>A 37051-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45922</v>
+        <v>45875.36324074074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13332,7 +13327,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13369,14 +13364,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 11154-2022</t>
+          <t>A 36770-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44629.38306712963</v>
+        <v>45873.58733796296</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13389,7 +13384,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13426,14 +13421,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 45624-2025</t>
+          <t>A 45892-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45922.79326388889</v>
+        <v>45923</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13446,7 +13441,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13483,14 +13478,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 45626-2025</t>
+          <t>A 45887-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45922.79810185185</v>
+        <v>45923</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13503,7 +13498,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13540,14 +13535,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 45632-2025</t>
+          <t>A 51523-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45922.84633101852</v>
+        <v>45950</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13560,7 +13555,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13597,14 +13592,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 4144-2024</t>
+          <t>A 52132-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45323.77944444444</v>
+        <v>45952.80421296296</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13617,7 +13612,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13654,14 +13649,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 45622-2025</t>
+          <t>A 37995-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45922.78539351852</v>
+        <v>45881.75913194445</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13674,7 +13669,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13711,14 +13706,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 45639-2025</t>
+          <t>A 10819-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45922.86137731482</v>
+        <v>45722.54821759259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13731,7 +13726,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13768,14 +13763,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 28529-2022</t>
+          <t>A 4927-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44748</v>
+        <v>45329</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13783,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13825,14 +13820,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 59348-2023</t>
+          <t>A 38308-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45253</v>
+        <v>45883.47233796296</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13840,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13882,14 +13877,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 47452-2025</t>
+          <t>A 57056-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45930</v>
+        <v>44895.39894675926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13897,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13939,14 +13934,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 11938-2025</t>
+          <t>A 30901-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45728.53489583333</v>
+        <v>44767</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13954,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13996,14 +13991,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 48486-2025</t>
+          <t>A 13394-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45936.35866898148</v>
+        <v>45735.6999537037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14011,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14053,14 +14048,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 11293-2024</t>
+          <t>A 53487-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45371.83412037037</v>
+        <v>45960.28282407407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14068,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14110,14 +14105,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 11296-2024</t>
+          <t>A 59304-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45371.84763888889</v>
+        <v>45637.66958333334</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14130,7 +14125,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14167,14 +14162,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 16075-2025</t>
+          <t>A 54314-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45749.68863425926</v>
+        <v>45965.32422453703</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14182,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14224,14 +14219,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 11490-2025</t>
+          <t>A 33646-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45726</v>
+        <v>44789.60099537037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14239,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14281,14 +14276,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 31617-2022</t>
+          <t>A 46779-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44775.64850694445</v>
+        <v>44851.49621527778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14296,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14338,14 +14333,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 7069-2025</t>
+          <t>A 9409-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45701.66392361111</v>
+        <v>45359.43568287037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14357,8 +14352,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14395,14 +14395,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 49912-2025</t>
+          <t>A 9412-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45940.61109953704</v>
+        <v>45359.44203703704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14452,14 +14452,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 8789-2024</t>
+          <t>A 55272-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45356.60851851852</v>
+        <v>45968.67791666667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14509,14 +14509,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 8410-2021</t>
+          <t>A 33715-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44245</v>
+        <v>44378</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14566,14 +14566,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 10346-2021</t>
+          <t>A 35804-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44257</v>
+        <v>45532</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.2</v>
+        <v>7.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14623,14 +14623,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 4919-2024</t>
+          <t>A 35808-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45329</v>
+        <v>45532.64996527778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14680,14 +14680,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 58890-2024</t>
+          <t>A 11154-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45636.46195601852</v>
+        <v>44629.38306712963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14737,14 +14737,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 15020-2025</t>
+          <t>A 4144-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45743.64266203704</v>
+        <v>45323.77944444444</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14794,14 +14794,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 71676-2021</t>
+          <t>A 8170-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44539</v>
+        <v>46063</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>8.1</v>
+        <v>0.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14851,14 +14851,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 45892-2025</t>
+          <t>A 28529-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45923</v>
+        <v>44748</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.5</v>
+        <v>7.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14908,14 +14908,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 45887-2025</t>
+          <t>A 274-2026</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45923</v>
+        <v>46027.46872685185</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14965,14 +14965,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 51523-2025</t>
+          <t>A 59348-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45950</v>
+        <v>45253</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15022,14 +15022,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 62142-2024</t>
+          <t>A 8743-2026</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45656.66166666667</v>
+        <v>46066.52289351852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,8 +15041,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15079,14 +15084,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 62143-2024</t>
+          <t>A 11938-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45656.66363425926</v>
+        <v>45728.53489583333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15099,7 +15104,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15136,14 +15141,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 14719-2025</t>
+          <t>A 1379-2026</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45742.61819444445</v>
+        <v>46031.62039351852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15156,7 +15161,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15193,14 +15198,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 52132-2025</t>
+          <t>A 11293-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45952.80421296296</v>
+        <v>45371.83412037037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15213,7 +15218,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15250,14 +15255,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 14721-2025</t>
+          <t>A 11296-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45742.62212962963</v>
+        <v>45371.84763888889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15270,7 +15275,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15307,14 +15312,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 51331-2022</t>
+          <t>A 16075-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44869</v>
+        <v>45749.68863425926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15364,14 +15369,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 28608-2023</t>
+          <t>A 11490-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45103</v>
+        <v>45726</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15384,7 +15389,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15421,14 +15426,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 17212-2025</t>
+          <t>A 31617-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45756.44349537037</v>
+        <v>44775.64850694445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15441,7 +15446,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15478,14 +15483,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 17151-2025</t>
+          <t>A 7069-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45756.32365740741</v>
+        <v>45701.66392361111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15498,7 +15503,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15535,14 +15540,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 51978-2024</t>
+          <t>A 60004-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45607</v>
+        <v>45993.58465277778</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15555,7 +15560,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15592,14 +15597,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 57790-2022</t>
+          <t>A 1383-2026</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44897.655625</v>
+        <v>46031.62196759259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15612,7 +15617,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>18.8</v>
+        <v>0.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15649,14 +15654,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 11961-2023</t>
+          <t>A 1385-2026</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44994</v>
+        <v>46031.62402777778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15669,7 +15674,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15706,14 +15711,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 53487-2025</t>
+          <t>A 8789-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45960.28282407407</v>
+        <v>45356.60851851852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15726,7 +15731,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15763,14 +15768,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 7801-2025</t>
+          <t>A 8410-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45706</v>
+        <v>44245</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15783,7 +15788,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15820,14 +15825,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 27295-2023</t>
+          <t>A 10346-2021</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45096.64859953704</v>
+        <v>44257</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15840,7 +15845,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15877,14 +15882,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 54314-2025</t>
+          <t>A 4919-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45965.32422453703</v>
+        <v>45329</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15897,7 +15902,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15934,14 +15939,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 11958-2023</t>
+          <t>A 58890-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44994</v>
+        <v>45636.46195601852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15954,7 +15959,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15991,14 +15996,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 37823-2023</t>
+          <t>A 15020-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45160</v>
+        <v>45743.64266203704</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16011,7 +16016,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16048,14 +16053,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 55272-2025</t>
+          <t>A 71676-2021</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45968.67791666667</v>
+        <v>44539</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16068,7 +16073,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16105,14 +16110,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 14843-2024</t>
+          <t>A 61259-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45398.38857638889</v>
+        <v>46000.67261574074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16125,7 +16130,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16162,14 +16167,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 54319-2024</t>
+          <t>A 61424-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45617.35008101852</v>
+        <v>46001</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16182,7 +16187,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16219,14 +16224,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 6507-2025</t>
+          <t>A 62142-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45699.64993055556</v>
+        <v>45656.66166666667</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16239,7 +16244,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16276,14 +16281,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 31887-2022</t>
+          <t>A 62143-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44777.45361111111</v>
+        <v>45656.66363425926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16296,7 +16301,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>6.2</v>
+        <v>0.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16333,14 +16338,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 7335-2023</t>
+          <t>A 14719-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44971.23162037037</v>
+        <v>45742.61819444445</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16353,7 +16358,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16390,14 +16395,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 36984-2021</t>
+          <t>A 14721-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44393</v>
+        <v>45742.62212962963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,13 +16414,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16452,14 +16452,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 24459-2022</t>
+          <t>A 51331-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44726</v>
+        <v>44869</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16509,14 +16509,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 51316-2023</t>
+          <t>A 28608-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45219.57056712963</v>
+        <v>45103</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16566,14 +16566,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 10665-2025</t>
+          <t>A 17212-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45721.74442129629</v>
+        <v>45756.44349537037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16623,14 +16623,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 10572-2024</t>
+          <t>A 17151-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45366.64084490741</v>
+        <v>45756.32365740741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16680,14 +16680,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 4979-2022</t>
+          <t>A 51978-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44593.58465277778</v>
+        <v>45607</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16737,14 +16737,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 274-2026</t>
+          <t>A 57790-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>46027.46872685185</v>
+        <v>44897.655625</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>18.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16794,14 +16794,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 2415-2023</t>
+          <t>A 11961-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44942</v>
+        <v>44994</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>19.2</v>
+        <v>1.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16851,14 +16851,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 47832-2023</t>
+          <t>A 7801-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45204</v>
+        <v>45706</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16908,14 +16908,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 16887-2025</t>
+          <t>A 27295-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45755</v>
+        <v>45096.64859953704</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16927,13 +16927,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16970,14 +16965,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 39418-2021</t>
+          <t>A 11958-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44414</v>
+        <v>44994</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16990,7 +16985,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17027,14 +17022,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 7798-2025</t>
+          <t>A 37823-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45706</v>
+        <v>45160</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17047,7 +17042,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17084,14 +17079,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 1379-2026</t>
+          <t>A 14843-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46031.62039351852</v>
+        <v>45398.38857638889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17104,7 +17099,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17141,14 +17136,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 1765-2023</t>
+          <t>A 54319-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44936</v>
+        <v>45617.35008101852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17161,7 +17156,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>7.3</v>
+        <v>2.6</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17198,14 +17193,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 30996-2023</t>
+          <t>A 6507-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45113</v>
+        <v>45699.64993055556</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17218,7 +17213,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17255,14 +17250,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 60004-2025</t>
+          <t>A 31887-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45993.58465277778</v>
+        <v>44777.45361111111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17275,7 +17270,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2.5</v>
+        <v>6.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17312,14 +17307,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 62139-2024</t>
+          <t>A 7335-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45656.65846064815</v>
+        <v>44971.23162037037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17332,7 +17327,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17369,14 +17364,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 23994-2023</t>
+          <t>A 36984-2021</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45078</v>
+        <v>44393</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17390,11 +17385,11 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G286" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17431,14 +17426,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 1383-2026</t>
+          <t>A 24459-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>46031.62196759259</v>
+        <v>44726</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17451,7 +17446,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17488,14 +17483,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 1385-2026</t>
+          <t>A 51316-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>46031.62402777778</v>
+        <v>45219.57056712963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17508,7 +17503,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17545,14 +17540,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 52317-2022</t>
+          <t>A 10665-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44873</v>
+        <v>45721.74442129629</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17565,7 +17560,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17602,14 +17597,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 20750-2024</t>
+          <t>A 10572-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45436</v>
+        <v>45366.64084490741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17622,7 +17617,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17659,14 +17654,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 12071-2025</t>
+          <t>A 4979-2022</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45728.71550925926</v>
+        <v>44593.58465277778</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17679,7 +17674,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>5.7</v>
+        <v>0.2</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17716,14 +17711,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 10140-2025</t>
+          <t>A 2415-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45719</v>
+        <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17736,7 +17731,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>19.2</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17773,14 +17768,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 36364-2021</t>
+          <t>A 47832-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44390</v>
+        <v>45204</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17792,13 +17787,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G293" t="n">
-        <v>13.3</v>
+        <v>2.9</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17835,14 +17825,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 61259-2025</t>
+          <t>A 16887-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>46000.67261574074</v>
+        <v>45755</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,8 +17844,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G294" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17892,14 +17887,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 61424-2025</t>
+          <t>A 39418-2021</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>46001</v>
+        <v>44414</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17912,7 +17907,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17949,14 +17944,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 34445-2024</t>
+          <t>A 7798-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45525</v>
+        <v>45706</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17969,7 +17964,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18006,14 +18001,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 34449-2024</t>
+          <t>A 1765-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45525.55266203704</v>
+        <v>44936</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18026,7 +18021,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18063,14 +18058,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 5812-2024</t>
+          <t>A 30996-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45335</v>
+        <v>45113</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18083,7 +18078,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18120,14 +18115,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 61621-2025</t>
+          <t>A 62139-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>46002.39636574074</v>
+        <v>45656.65846064815</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18140,7 +18135,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18177,14 +18172,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 12094-2025</t>
+          <t>A 23994-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45729.32310185185</v>
+        <v>45078</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18202,7 +18197,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18239,14 +18234,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 31293-2024</t>
+          <t>A 52317-2022</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45504.47707175926</v>
+        <v>44873</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18259,7 +18254,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18296,14 +18291,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 6504-2022</t>
+          <t>A 20750-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>44601.44640046296</v>
+        <v>45436</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18316,7 +18311,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18353,14 +18348,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 41508-2024</t>
+          <t>A 12071-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45560</v>
+        <v>45728.71550925926</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18373,7 +18368,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18410,14 +18405,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 59696-2024</t>
+          <t>A 10140-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45639.41188657407</v>
+        <v>45719</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18430,7 +18425,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18467,14 +18462,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 6135-2026</t>
+          <t>A 36364-2021</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>46054.64555555556</v>
+        <v>44390</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,8 +18481,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>13.3</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18524,14 +18524,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 33494-2023</t>
+          <t>A 34445-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45131</v>
+        <v>45525</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18581,14 +18581,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 33496-2023</t>
+          <t>A 34449-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45131.45756944444</v>
+        <v>45525.55266203704</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18638,14 +18638,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 6136-2026</t>
+          <t>A 5812-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>46054.64793981481</v>
+        <v>45335</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18695,14 +18695,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 6137-2026</t>
+          <t>A 12094-2025</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>46054.65030092592</v>
+        <v>45729.32310185185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,8 +18714,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G309" t="n">
-        <v>2.1</v>
+        <v>6.7</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18752,14 +18757,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 10137-2025</t>
+          <t>A 31293-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45719</v>
+        <v>45504.47707175926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18772,7 +18777,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18809,14 +18814,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 5829-2026</t>
+          <t>A 6504-2022</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>46052</v>
+        <v>44601.44640046296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18829,7 +18834,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18866,14 +18871,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 11434-2025</t>
+          <t>A 41508-2024</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45726.61469907407</v>
+        <v>45560</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18886,7 +18891,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18923,14 +18928,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 11204-2025</t>
+          <t>A 59696-2024</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45726.31684027778</v>
+        <v>45639.41188657407</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18943,7 +18948,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18980,14 +18985,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 31302-2022</t>
+          <t>A 33494-2023</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44773.47849537037</v>
+        <v>45131</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19000,7 +19005,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19037,14 +19042,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 53051-2021</t>
+          <t>A 33496-2023</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>44467.73666666666</v>
+        <v>45131.45756944444</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19056,13 +19061,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G315" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19099,14 +19099,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 17293-2025</t>
+          <t>A 10137-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45756.58894675926</v>
+        <v>45719</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19156,14 +19156,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 24941-2024</t>
+          <t>A 11434-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45461</v>
+        <v>45726.61469907407</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19175,13 +19175,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G317" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19218,14 +19213,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 15076-2025</t>
+          <t>A 11204-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45743.78899305555</v>
+        <v>45726.31684027778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19275,14 +19270,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 61975-2024</t>
+          <t>A 31302-2022</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45653.62395833333</v>
+        <v>44773.47849537037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19295,7 +19290,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19332,14 +19327,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 61977-2024</t>
+          <t>A 53051-2021</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45653.62820601852</v>
+        <v>44467.73666666666</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,8 +19346,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G320" t="n">
-        <v>0.1</v>
+        <v>3.5</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19389,14 +19389,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 15110-2025</t>
+          <t>A 17293-2025</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45744.35528935185</v>
+        <v>45756.58894675926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19446,14 +19446,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 14052-2023</t>
+          <t>A 24941-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45008</v>
+        <v>45461</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,8 +19465,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G322" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19503,14 +19508,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 15055-2025</t>
+          <t>A 15076-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45743.7028587963</v>
+        <v>45743.78899305555</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19523,7 +19528,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19560,14 +19565,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 15060-2025</t>
+          <t>A 61975-2024</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45743.71545138889</v>
+        <v>45653.62395833333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19580,7 +19585,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19617,14 +19622,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 15062-2025</t>
+          <t>A 61977-2024</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45743.71922453704</v>
+        <v>45653.62820601852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19637,7 +19642,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>2.8</v>
+        <v>0.1</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19674,14 +19679,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 15074-2025</t>
+          <t>A 15110-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45743.78336805556</v>
+        <v>45744.35528935185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19694,7 +19699,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19731,14 +19736,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 57709-2023</t>
+          <t>A 14052-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45246.68188657407</v>
+        <v>45008</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19751,7 +19756,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>6.6</v>
+        <v>2.2</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19788,14 +19793,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 47321-2024</t>
+          <t>A 15055-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45587.38203703704</v>
+        <v>45743.7028587963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19808,7 +19813,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>9.699999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19845,14 +19850,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 52909-2021</t>
+          <t>A 15060-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>44467</v>
+        <v>45743.71545138889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19865,7 +19870,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19902,14 +19907,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 7810-2025</t>
+          <t>A 15062-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45706</v>
+        <v>45743.71922453704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19922,7 +19927,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19959,14 +19964,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 11306-2024</t>
+          <t>A 15074-2025</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45371.87320601852</v>
+        <v>45743.78336805556</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19979,7 +19984,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -20016,14 +20021,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 12064-2023</t>
+          <t>A 57709-2023</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>44997</v>
+        <v>45246.68188657407</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20036,7 +20041,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>10.5</v>
+        <v>6.6</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -20073,14 +20078,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 63598-2023</t>
+          <t>A 47321-2024</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45275.47011574074</v>
+        <v>45587.38203703704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20093,7 +20098,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -20130,14 +20135,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 32030-2024</t>
+          <t>A 52909-2021</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45510</v>
+        <v>44467</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,13 +20154,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G334" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20192,14 +20192,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 4145-2024</t>
+          <t>A 7810-2025</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45323.78577546297</v>
+        <v>45706</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20249,14 +20249,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 48406-2023</t>
+          <t>A 11306-2024</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45205</v>
+        <v>45371.87320601852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20306,14 +20306,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 48754-2023</t>
+          <t>A 12064-2023</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45208</v>
+        <v>44997</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>1.6</v>
+        <v>10.5</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20363,14 +20363,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 53378-2021</t>
+          <t>A 63598-2023</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>44468.60568287037</v>
+        <v>45275.47011574074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20420,14 +20420,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 59623-2024</t>
+          <t>A 32030-2024</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45638</v>
+        <v>45510</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,8 +20439,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G339" t="n">
-        <v>19.2</v>
+        <v>3.1</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20477,14 +20482,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 14846-2024</t>
+          <t>A 4145-2024</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45398.41739583333</v>
+        <v>45323.78577546297</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20497,7 +20502,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20534,14 +20539,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 4985-2025</t>
+          <t>A 48406-2023</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45691.30831018519</v>
+        <v>45205</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20591,14 +20596,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 10672-2025</t>
+          <t>A 48754-2023</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45721.78883101852</v>
+        <v>45208</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20611,7 +20616,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20648,14 +20653,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 6513-2025</t>
+          <t>A 53378-2021</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>45699.65769675926</v>
+        <v>44468.60568287037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20668,7 +20673,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20705,14 +20710,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 27287-2023</t>
+          <t>A 59623-2024</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>45096.64322916666</v>
+        <v>45638</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20725,7 +20730,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>0.4</v>
+        <v>19.2</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20762,14 +20767,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 10815-2025</t>
+          <t>A 14846-2024</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>45722.54424768518</v>
+        <v>45398.41739583333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20782,7 +20787,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20819,14 +20824,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 51332-2022</t>
+          <t>A 4985-2025</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>44869</v>
+        <v>45691.30831018519</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20839,7 +20844,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20876,14 +20881,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 6774-2025</t>
+          <t>A 10672-2025</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45700.64171296296</v>
+        <v>45721.78883101852</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20896,7 +20901,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20933,14 +20938,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 31884-2022</t>
+          <t>A 6513-2025</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>44777.44266203704</v>
+        <v>45699.65769675926</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20953,7 +20958,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -20990,14 +20995,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 4648-2025</t>
+          <t>A 27287-2023</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>45687.6631712963</v>
+        <v>45096.64322916666</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21010,7 +21015,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -21047,14 +21052,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 49505-2024</t>
+          <t>A 10815-2025</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45596.37319444444</v>
+        <v>45722.54424768518</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21067,7 +21072,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -21104,14 +21109,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 42412-2022</t>
+          <t>A 51332-2022</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>44831</v>
+        <v>44869</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21124,7 +21129,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -21161,14 +21166,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 11488-2025</t>
+          <t>A 6774-2025</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45726.70486111111</v>
+        <v>45700.64171296296</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21181,7 +21186,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -21218,14 +21223,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 16041-2025</t>
+          <t>A 31884-2022</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45749.63190972222</v>
+        <v>44777.44266203704</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21238,7 +21243,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -21275,14 +21280,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 61446-2024</t>
+          <t>A 4648-2025</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>45646.48326388889</v>
+        <v>45687.6631712963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21295,7 +21300,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -21332,14 +21337,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 11068-2023</t>
+          <t>A 49505-2024</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>44992</v>
+        <v>45596.37319444444</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21352,7 +21357,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>6.3</v>
+        <v>0.3</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -21389,14 +21394,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 19502-2022</t>
+          <t>A 42412-2022</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>44693</v>
+        <v>44831</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21446,14 +21451,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 62742-2022</t>
+          <t>A 11488-2025</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>44925.90333333334</v>
+        <v>45726.70486111111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21466,7 +21471,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>0.4</v>
+        <v>5.6</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21503,14 +21508,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 14487-2025</t>
+          <t>A 16041-2025</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>45741.60409722223</v>
+        <v>45749.63190972222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21523,7 +21528,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21560,14 +21565,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 6318-2025</t>
+          <t>A 61446-2024</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>45698.80875</v>
+        <v>45646.48326388889</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21617,14 +21622,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 12404-2023</t>
+          <t>A 11068-2023</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>44999.50241898148</v>
+        <v>44992</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21637,7 +21642,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21674,14 +21679,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 21009-2025</t>
+          <t>A 19502-2022</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>45777.4967824074</v>
+        <v>44693</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21694,7 +21699,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21731,14 +21736,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 20881-2025</t>
+          <t>A 62742-2022</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>45777.36047453704</v>
+        <v>44925.90333333334</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21751,7 +21756,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21788,14 +21793,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 20883-2025</t>
+          <t>A 14487-2025</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>45777.36590277778</v>
+        <v>45741.60409722223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21808,7 +21813,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21845,14 +21850,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 20781-2025</t>
+          <t>A 6318-2025</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>45776</v>
+        <v>45698.80875</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21865,7 +21870,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -21902,14 +21907,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 21968-2025</t>
+          <t>A 12404-2023</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>45784.62885416667</v>
+        <v>44999.50241898148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21922,7 +21927,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21959,14 +21964,14 @@
     <row r="366" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 21930-2025</t>
+          <t>A 21009-2025</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>45784.5525</v>
+        <v>45777.4967824074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21979,7 +21984,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -22016,14 +22021,14 @@
     <row r="367" ht="15" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
-          <t>A 53194-2024</t>
+          <t>A 20881-2025</t>
         </is>
       </c>
       <c r="B367" s="1" t="n">
-        <v>45610</v>
+        <v>45777.36047453704</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22036,7 +22041,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -22073,14 +22078,14 @@
     <row r="368" ht="15" customHeight="1">
       <c r="A368" t="inlineStr">
         <is>
-          <t>A 23579-2025</t>
+          <t>A 20883-2025</t>
         </is>
       </c>
       <c r="B368" s="1" t="n">
-        <v>45792.62453703704</v>
+        <v>45777.36590277778</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22093,7 +22098,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -22127,17 +22132,17 @@
       </c>
       <c r="R368" s="2" t="inlineStr"/>
     </row>
-    <row r="369">
+    <row r="369" ht="15" customHeight="1">
       <c r="A369" t="inlineStr">
         <is>
-          <t>A 23787-2025</t>
+          <t>A 20781-2025</t>
         </is>
       </c>
       <c r="B369" s="1" t="n">
-        <v>45793.53262731482</v>
+        <v>45776</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22150,7 +22155,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -22183,6 +22188,120 @@
         <v>0</v>
       </c>
       <c r="R369" s="2" t="inlineStr"/>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>A 21968-2025</t>
+        </is>
+      </c>
+      <c r="B370" s="1" t="n">
+        <v>45784.62885416667</v>
+      </c>
+      <c r="C370" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G370" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N370" t="n">
+        <v>0</v>
+      </c>
+      <c r="O370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R370" s="2" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>A 21930-2025</t>
+        </is>
+      </c>
+      <c r="B371" s="1" t="n">
+        <v>45784.5525</v>
+      </c>
+      <c r="C371" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G371" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N371" t="n">
+        <v>0</v>
+      </c>
+      <c r="O371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R371" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -575,7 +575,7 @@
         <v>45846.63826388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45761.37239583334</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45359.66121527777</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44645</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>45659.39741898148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44371</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>45288</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45701</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44873</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44645</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45737.67560185185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>45149</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>45719</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44840.59173611111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>45197</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44804.90865740741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44308.50634259259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44286.34952546296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44286.37935185185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44537</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>44390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2447,14 +2447,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 36358-2021</t>
+          <t>A 31246-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44390</v>
+        <v>44368.66283564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,13 +2466,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>8.199999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2509,14 +2504,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 31246-2021</t>
+          <t>A 36358-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44368.66283564815</v>
+        <v>44390</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2528,8 +2523,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>44392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44279</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44853.50788194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44613</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44462</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44298.52335648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44298.52487268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44285</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44539</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44740</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44684.3947800926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44455.7780787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44383</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44767.60487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44819</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44250</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44274</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44510</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44538.43275462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44251</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45632.62684027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45632.63079861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>45359.66539351852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4457,14 +4457,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9548-2024</t>
+          <t>A 65199-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45359</v>
+        <v>45288</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4514,14 +4514,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 65199-2023</t>
+          <t>A 9548-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45288</v>
+        <v>45359</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>44543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45596.36532407408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45280</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4742,14 +4742,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 5201-2024</t>
+          <t>A 6978-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45330</v>
+        <v>44967.64511574074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.7</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4799,14 +4799,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 6978-2023</t>
+          <t>A 21930-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44967.64511574074</v>
+        <v>45784.5525</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4856,14 +4856,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9965-2025</t>
+          <t>A 5201-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45719</v>
+        <v>45330</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.8</v>
+        <v>6.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4913,14 +4913,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 9976-2025</t>
+          <t>A 9965-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>45719</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4970,14 +4970,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11097-2023</t>
+          <t>A 9976-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44992</v>
+        <v>45719</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5027,14 +5027,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 6260-2022</t>
+          <t>A 11097-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44600</v>
+        <v>44992</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5084,14 +5084,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 9423-2024</t>
+          <t>A 6260-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45359.46068287037</v>
+        <v>44600</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5141,14 +5141,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13669-2025</t>
+          <t>A 53194-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45736.85748842593</v>
+        <v>45610</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>9.300000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5198,14 +5198,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 17401-2023</t>
+          <t>A 23579-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45035</v>
+        <v>45792.62453703704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5255,14 +5255,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 31344-2024</t>
+          <t>A 9423-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45504.8096875</v>
+        <v>45359.46068287037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5312,14 +5312,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 53194-2024</t>
+          <t>A 23787-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45610</v>
+        <v>45793.53262731482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5369,14 +5369,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 61621-2025</t>
+          <t>A 39154-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46002.39636574074</v>
+        <v>45888.61770833333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5426,14 +5426,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 23579-2025</t>
+          <t>A 39066-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45792.62453703704</v>
+        <v>45888.46474537037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5483,14 +5483,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23787-2025</t>
+          <t>A 13669-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45793.53262731482</v>
+        <v>45736.85748842593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5540,14 +5540,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 12831-2025</t>
+          <t>A 17401-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45733.63225694445</v>
+        <v>45035</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5597,14 +5597,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 53972-2024</t>
+          <t>A 39292-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45616.3218287037</v>
+        <v>45889.41831018519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5654,14 +5654,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 3279-2025</t>
+          <t>A 39295-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45679</v>
+        <v>45889.42100694445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5711,14 +5711,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 39154-2025</t>
+          <t>A 31344-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45888.61770833333</v>
+        <v>45504.8096875</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5768,14 +5768,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39066-2025</t>
+          <t>A 3279-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45888.46474537037</v>
+        <v>45679</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5825,14 +5825,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 62741-2022</t>
+          <t>A 39486-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44925.90137731482</v>
+        <v>45890</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5882,14 +5882,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 62743-2022</t>
+          <t>A 12831-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44925.90475694444</v>
+        <v>45733.63225694445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5939,14 +5939,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39292-2025</t>
+          <t>A 53972-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45889.41831018519</v>
+        <v>45616.3218287037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5996,14 +5996,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 39295-2025</t>
+          <t>A 40772-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45889.42100694445</v>
+        <v>45897.40917824074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6053,14 +6053,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 39486-2025</t>
+          <t>A 62741-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45890</v>
+        <v>44925.90137731482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6110,14 +6110,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 61976-2024</t>
+          <t>A 62743-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45653.62631944445</v>
+        <v>44925.90475694444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6167,14 +6167,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 44353-2023</t>
+          <t>A 25269-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45188</v>
+        <v>45800</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6224,14 +6224,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 25269-2025</t>
+          <t>A 25757-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45800</v>
+        <v>45801</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>8.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6281,14 +6281,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 9417-2023</t>
+          <t>A 61976-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44981</v>
+        <v>45653.62631944445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6338,14 +6338,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25757-2025</t>
+          <t>A 36284-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45801</v>
+        <v>45867.654375</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>8.9</v>
+        <v>3.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6395,14 +6395,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 11310-2024</t>
+          <t>A 44353-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45371.87774305556</v>
+        <v>45188</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6452,14 +6452,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 51-2025</t>
+          <t>A 9417-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45659.38747685185</v>
+        <v>44981</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6509,14 +6509,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 16045-2025</t>
+          <t>A 11310-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45749.63446759259</v>
+        <v>45371.87774305556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6566,14 +6566,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 10269-2023</t>
+          <t>A 51-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44986.80671296296</v>
+        <v>45659.38747685185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6623,14 +6623,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 40772-2025</t>
+          <t>A 16045-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45897.40917824074</v>
+        <v>45749.63446759259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6680,14 +6680,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 61739-2023</t>
+          <t>A 10269-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45265</v>
+        <v>44986.80671296296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>13.8</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6737,14 +6737,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 6417-2024</t>
+          <t>A 61739-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45338</v>
+        <v>45265</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.3</v>
+        <v>13.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6794,14 +6794,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 16076-2025</t>
+          <t>A 6417-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45749</v>
+        <v>45338</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.1</v>
+        <v>6.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6851,14 +6851,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 40024-2021</t>
+          <t>A 16076-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44418.4324537037</v>
+        <v>45749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6908,14 +6908,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 15163-2024</t>
+          <t>A 42754-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45400.32577546296</v>
+        <v>45908.44385416667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6965,14 +6965,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 36284-2025</t>
+          <t>A 40024-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45867.654375</v>
+        <v>44418.4324537037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7022,14 +7022,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 20828-2025</t>
+          <t>A 31950-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45776.74407407407</v>
+        <v>45835</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7079,14 +7079,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 27975-2025</t>
+          <t>A 20828-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45817.56953703704</v>
+        <v>45776.74407407407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7136,14 +7136,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27977-2025</t>
+          <t>A 15163-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45817.57148148148</v>
+        <v>45400.32577546296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7193,14 +7193,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 28610-2023</t>
+          <t>A 27975-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45103</v>
+        <v>45817.56953703704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7250,14 +7250,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 28331-2025</t>
+          <t>A 27977-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45818</v>
+        <v>45817.57148148148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7307,14 +7307,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 28332-2025</t>
+          <t>A 28610-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45818.660625</v>
+        <v>45103</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7364,14 +7364,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 35811-2024</t>
+          <t>A 43655-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45532.65364583334</v>
+        <v>45912.33763888889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7421,14 +7421,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 8677-2022</t>
+          <t>A 28331-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44613</v>
+        <v>45818</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7478,14 +7478,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28383-2025</t>
+          <t>A 28332-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45819.31177083333</v>
+        <v>45818.660625</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7535,14 +7535,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 24964-2024</t>
+          <t>A 28383-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45461</v>
+        <v>45819.31177083333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7554,13 +7554,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7597,14 +7592,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 28900-2025</t>
+          <t>A 35811-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45820.63842592593</v>
+        <v>45532.65364583334</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7617,7 +7612,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7654,14 +7649,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 28879-2025</t>
+          <t>A 28900-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45820.62296296296</v>
+        <v>45820.63842592593</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7674,7 +7669,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7711,14 +7706,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 10664-2025</t>
+          <t>A 28879-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45721.73804398148</v>
+        <v>45820.62296296296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7731,7 +7726,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>15.2</v>
+        <v>2.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7768,14 +7763,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 42754-2025</t>
+          <t>A 8677-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45908.44385416667</v>
+        <v>44613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7788,7 +7783,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7825,14 +7820,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 31950-2025</t>
+          <t>A 24964-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45835</v>
+        <v>45461</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7844,8 +7839,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7882,14 +7882,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 56293-2023</t>
+          <t>A 44666-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45242.61020833333</v>
+        <v>45917.56202546296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7939,14 +7939,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 56294-2023</t>
+          <t>A 44674-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45242</v>
+        <v>45917.56850694444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7996,14 +7996,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 43655-2025</t>
+          <t>A 10664-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45912.33763888889</v>
+        <v>45721.73804398148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.9</v>
+        <v>15.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8053,14 +8053,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 11432-2025</t>
+          <t>A 45316-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45726.61204861111</v>
+        <v>45921.83819444444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8110,14 +8110,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 14898-2023</t>
+          <t>A 45623-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45014</v>
+        <v>45922</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8167,14 +8167,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44666-2025</t>
+          <t>A 45625-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45917.56202546296</v>
+        <v>45922.79663194445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8224,14 +8224,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 44674-2025</t>
+          <t>A 45631-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45917.56850694444</v>
+        <v>45922.84188657408</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8281,14 +8281,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 15061-2025</t>
+          <t>A 45621-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45743.71736111111</v>
+        <v>45922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8338,14 +8338,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 31888-2025</t>
+          <t>A 45624-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45834.66146990741</v>
+        <v>45922.79326388889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8395,14 +8395,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 31873-2025</t>
+          <t>A 45626-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45834.65045138889</v>
+        <v>45922.79810185185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8452,14 +8452,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 22589-2023</t>
+          <t>A 45632-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45071.48055555556</v>
+        <v>45922.84633101852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8509,14 +8509,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 10949-2024</t>
+          <t>A 45622-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45370</v>
+        <v>45922.78539351852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8566,14 +8566,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 45316-2025</t>
+          <t>A 45639-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45921.83819444444</v>
+        <v>45922.86137731482</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8623,14 +8623,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 45623-2025</t>
+          <t>A 56293-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45922</v>
+        <v>45242.61020833333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8680,14 +8680,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 9848-2024</t>
+          <t>A 56294-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45363.36511574074</v>
+        <v>45242</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8699,13 +8699,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8742,14 +8737,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 58118-2021</t>
+          <t>A 11432-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44487</v>
+        <v>45726.61204861111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8762,7 +8757,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8799,14 +8794,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45625-2025</t>
+          <t>A 14898-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45922.79663194445</v>
+        <v>45014</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8819,7 +8814,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.6</v>
+        <v>0.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8856,14 +8851,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 45631-2025</t>
+          <t>A 15061-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45922.84188657408</v>
+        <v>45743.71736111111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8876,7 +8871,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8913,14 +8908,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 6135-2026</t>
+          <t>A 22589-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46054.64555555556</v>
+        <v>45071.48055555556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,14 +8965,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 45621-2025</t>
+          <t>A 10949-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45922</v>
+        <v>45370</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8990,7 +8985,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9027,14 +9022,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 45624-2025</t>
+          <t>A 31888-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45922.79326388889</v>
+        <v>45834.66146990741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9047,7 +9042,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9084,14 +9079,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 45626-2025</t>
+          <t>A 47452-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45922.79810185185</v>
+        <v>45930</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,14 +9136,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45632-2025</t>
+          <t>A 31873-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45922.84633101852</v>
+        <v>45834.65045138889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9161,7 +9156,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9198,14 +9193,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 45622-2025</t>
+          <t>A 9848-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45922.78539351852</v>
+        <v>45363.36511574074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9217,8 +9212,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9255,14 +9255,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 32620-2025</t>
+          <t>A 58118-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45838.64533564815</v>
+        <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>7.4</v>
+        <v>0.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9312,14 +9312,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 45639-2025</t>
+          <t>A 28036-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45922.86137731482</v>
+        <v>45099</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9369,14 +9369,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 28036-2023</t>
+          <t>A 32620-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45099</v>
+        <v>45838.64533564815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>7.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9426,14 +9426,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 32894-2025</t>
+          <t>A 62141-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45839.61362268519</v>
+        <v>45656.65996527778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9483,14 +9483,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 62141-2024</t>
+          <t>A 48486-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45656.65996527778</v>
+        <v>45936.35866898148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9547,7 +9547,7 @@
         <v>45744.32858796296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45744.3337962963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>45744.32612268518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,14 +9711,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 21721-2023</t>
+          <t>A 32894-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45065</v>
+        <v>45839.61362268519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9768,14 +9768,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 36368-2021</t>
+          <t>A 21721-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44390</v>
+        <v>45065</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9787,13 +9787,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9830,14 +9825,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 6136-2026</t>
+          <t>A 36368-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46054.64793981481</v>
+        <v>44390</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9849,8 +9844,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9887,14 +9887,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 6137-2026</t>
+          <t>A 49912-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46054.65030092592</v>
+        <v>45940.61109953704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9944,14 +9944,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 34086-2025</t>
+          <t>A 22594-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45845.4681712963</v>
+        <v>45071.49386574074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10001,14 +10001,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 34360-2025</t>
+          <t>A 34086-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45846.48792824074</v>
+        <v>45845.4681712963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10058,14 +10058,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 47452-2025</t>
+          <t>A 34360-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45930</v>
+        <v>45846.48792824074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10115,14 +10115,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 22594-2023</t>
+          <t>A 34407-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45071.49386574074</v>
+        <v>45846.6321875</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10172,14 +10172,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 34407-2025</t>
+          <t>A 34660-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45846.6321875</v>
+        <v>45848.36886574074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10229,14 +10229,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 34660-2025</t>
+          <t>A 3281-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45848.36886574074</v>
+        <v>45679</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>10.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10293,7 +10293,7 @@
         <v>45848</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>45849.68076388889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10400,14 +10400,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 48486-2025</t>
+          <t>A 35399-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45936.35866898148</v>
+        <v>45855.33679398148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10457,14 +10457,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 3281-2025</t>
+          <t>A 45892-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45679</v>
+        <v>45923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>10.8</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10514,14 +10514,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 35399-2025</t>
+          <t>A 45887-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45855.33679398148</v>
+        <v>45923</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10571,14 +10571,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 35801-2025</t>
+          <t>A 51523-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45861.38625</v>
+        <v>45950</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10628,14 +10628,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 35800-2025</t>
+          <t>A 52132-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45861.38344907408</v>
+        <v>45952.80421296296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10685,14 +10685,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 18179-2025</t>
+          <t>A 35801-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45761</v>
+        <v>45861.38625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10742,14 +10742,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 35898-2025</t>
+          <t>A 35800-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45862.48679398148</v>
+        <v>45861.38344907408</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10799,14 +10799,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 49912-2025</t>
+          <t>A 18179-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45940.61109953704</v>
+        <v>45761</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10856,14 +10856,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 46251-2024</t>
+          <t>A 35898-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45581.59541666666</v>
+        <v>45862.48679398148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10913,14 +10913,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 33983-2023</t>
+          <t>A 49489-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45134.695</v>
+        <v>45596.36135416666</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10970,14 +10970,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 23132-2025</t>
+          <t>A 12218-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45791.38755787037</v>
+        <v>45729.53674768518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>15.9</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11027,14 +11027,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 36654-2024</t>
+          <t>A 46251-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45537</v>
+        <v>45581.59541666666</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11084,14 +11084,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 6757-2025</t>
+          <t>A 33983-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45700.62190972222</v>
+        <v>45134.695</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11141,14 +11141,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 8942-2025</t>
+          <t>A 23132-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45713.45041666667</v>
+        <v>45791.38755787037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.8</v>
+        <v>15.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11198,14 +11198,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 34315-2024</t>
+          <t>A 36654-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45524.70024305556</v>
+        <v>45537</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11255,14 +11255,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 34319-2024</t>
+          <t>A 6757-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45524.71290509259</v>
+        <v>45700.62190972222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11312,14 +11312,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 45281-2024</t>
+          <t>A 8942-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45576.37672453704</v>
+        <v>45713.45041666667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11369,14 +11369,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 62664-2022</t>
+          <t>A 34315-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44925.53116898148</v>
+        <v>45524.70024305556</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11426,14 +11426,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 41855-2024</t>
+          <t>A 34319-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45561.44230324074</v>
+        <v>45524.71290509259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11483,14 +11483,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 59726-2024</t>
+          <t>A 45281-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45639.49413194445</v>
+        <v>45576.37672453704</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11540,14 +11540,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 2074-2025</t>
+          <t>A 62664-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45672</v>
+        <v>44925.53116898148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11597,14 +11597,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 28583-2024</t>
+          <t>A 41855-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45478</v>
+        <v>45561.44230324074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11654,14 +11654,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 10396-2024</t>
+          <t>A 59726-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45365.66971064815</v>
+        <v>45639.49413194445</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11711,14 +11711,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 4386-2025</t>
+          <t>A 2074-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45686.39981481482</v>
+        <v>45672</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11768,14 +11768,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 34620-2025</t>
+          <t>A 28583-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45847</v>
+        <v>45478</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11825,14 +11825,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 26145-2023</t>
+          <t>A 10396-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45091.48431712963</v>
+        <v>45365.66971064815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11882,14 +11882,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 21279-2024</t>
+          <t>A 4386-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45440</v>
+        <v>45686.39981481482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11939,14 +11939,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 6103-2024</t>
+          <t>A 34620-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45337.36503472222</v>
+        <v>45847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11996,14 +11996,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 6214-2024</t>
+          <t>A 26145-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45337</v>
+        <v>45091.48431712963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12053,14 +12053,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 58779-2024</t>
+          <t>A 21279-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45635.83408564814</v>
+        <v>45440</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12110,14 +12110,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 7709-2025</t>
+          <t>A 6103-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45706</v>
+        <v>45337.36503472222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12167,14 +12167,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 7718-2025</t>
+          <t>A 6214-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45706</v>
+        <v>45337</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12224,14 +12224,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 22003-2024</t>
+          <t>A 10819-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45443.57090277778</v>
+        <v>45722.54821759259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12281,14 +12281,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 21163-2023</t>
+          <t>A 58779-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45062</v>
+        <v>45635.83408564814</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12338,14 +12338,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 49489-2024</t>
+          <t>A 7709-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45596.36135416666</v>
+        <v>45706</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.7</v>
+        <v>6.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12395,14 +12395,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 21171-2023</t>
+          <t>A 7718-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45062</v>
+        <v>45706</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12452,14 +12452,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 21306-2023</t>
+          <t>A 22003-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45062</v>
+        <v>45443.57090277778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12509,14 +12509,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 16230-2023</t>
+          <t>A 21163-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45028.41518518519</v>
+        <v>45062</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12566,14 +12566,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 5829-2026</t>
+          <t>A 21171-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46052</v>
+        <v>45062</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12623,14 +12623,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 8947-2025</t>
+          <t>A 21306-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45713.4553125</v>
+        <v>45062</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12680,14 +12680,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 12218-2025</t>
+          <t>A 16230-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45729.53674768518</v>
+        <v>45028.41518518519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12737,14 +12737,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 36597-2023</t>
+          <t>A 8947-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45153.48170138889</v>
+        <v>45713.4553125</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12794,14 +12794,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 26148-2023</t>
+          <t>A 53487-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45091.48842592593</v>
+        <v>45960.28282407407</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12851,14 +12851,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 63104-2023</t>
+          <t>A 36597-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45273</v>
+        <v>45153.48170138889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12908,14 +12908,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 31885-2023</t>
+          <t>A 26148-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45118.67444444444</v>
+        <v>45091.48842592593</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12965,14 +12965,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 28574-2024</t>
+          <t>A 63104-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45478</v>
+        <v>45273</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13022,14 +13022,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 4382-2025</t>
+          <t>A 31885-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45686.39684027778</v>
+        <v>45118.67444444444</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13079,14 +13079,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 57812-2024</t>
+          <t>A 28574-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45631.36516203704</v>
+        <v>45478</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13136,14 +13136,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 23136-2025</t>
+          <t>A 4382-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45791.39138888889</v>
+        <v>45686.39684027778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13193,14 +13193,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 26866-2025</t>
+          <t>A 57812-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45810.71270833333</v>
+        <v>45631.36516203704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13250,14 +13250,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 23141-2025</t>
+          <t>A 23136-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45791.39673611111</v>
+        <v>45791.39138888889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13307,14 +13307,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 37051-2025</t>
+          <t>A 26866-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45875.36324074074</v>
+        <v>45810.71270833333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13364,14 +13364,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 36770-2025</t>
+          <t>A 23141-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45873.58733796296</v>
+        <v>45791.39673611111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13421,14 +13421,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 45892-2025</t>
+          <t>A 57056-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45923</v>
+        <v>44895.39894675926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13478,14 +13478,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 45887-2025</t>
+          <t>A 30901-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45923</v>
+        <v>44767</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13535,14 +13535,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 51523-2025</t>
+          <t>A 37051-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45950</v>
+        <v>45875.36324074074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13592,14 +13592,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 52132-2025</t>
+          <t>A 13394-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45952.80421296296</v>
+        <v>45735.6999537037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13649,14 +13649,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 37995-2025</t>
+          <t>A 54314-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45881.75913194445</v>
+        <v>45965.32422453703</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13706,14 +13706,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 10819-2025</t>
+          <t>A 36770-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45722.54821759259</v>
+        <v>45873.58733796296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13763,14 +13763,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 4927-2024</t>
+          <t>A 1379-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45329</v>
+        <v>46031.62039351852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13820,14 +13820,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 38308-2025</t>
+          <t>A 59304-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45883.47233796296</v>
+        <v>45637.66958333334</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13877,14 +13877,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 57056-2022</t>
+          <t>A 37995-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44895.39894675926</v>
+        <v>45881.75913194445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13934,14 +13934,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 30901-2022</t>
+          <t>A 55272-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44767</v>
+        <v>45968.67791666667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13991,14 +13991,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 13394-2025</t>
+          <t>A 4927-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45735.6999537037</v>
+        <v>45329</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14048,14 +14048,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 53487-2025</t>
+          <t>A 38308-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45960.28282407407</v>
+        <v>45883.47233796296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14105,14 +14105,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 59304-2024</t>
+          <t>A 60004-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45637.66958333334</v>
+        <v>45993.58465277778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14162,14 +14162,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 54314-2025</t>
+          <t>A 33646-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45965.32422453703</v>
+        <v>44789.60099537037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14219,14 +14219,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 33646-2022</t>
+          <t>A 46779-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44789.60099537037</v>
+        <v>44851.49621527778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.7</v>
+        <v>6.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14276,14 +14276,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 46779-2022</t>
+          <t>A 9409-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44851.49621527778</v>
+        <v>45359.43568287037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,8 +14295,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>6.7</v>
+        <v>0.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14333,14 +14338,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 9409-2024</t>
+          <t>A 9412-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45359.43568287037</v>
+        <v>45359.44203703704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14352,13 +14357,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14395,14 +14395,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 9412-2024</t>
+          <t>A 33715-2021</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45359.44203703704</v>
+        <v>44378</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14452,14 +14452,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 55272-2025</t>
+          <t>A 1383-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45968.67791666667</v>
+        <v>46031.62196759259</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14509,14 +14509,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 33715-2021</t>
+          <t>A 1385-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44378</v>
+        <v>46031.62402777778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14573,7 +14573,7 @@
         <v>45532</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>45532.64996527778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>44629.38306712963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>45323.77944444444</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14794,14 +14794,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 8170-2026</t>
+          <t>A 28529-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46063</v>
+        <v>44748</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.9</v>
+        <v>7.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14851,14 +14851,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 28529-2022</t>
+          <t>A 61259-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44748</v>
+        <v>46000.67261574074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>7.2</v>
+        <v>2.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14908,14 +14908,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 274-2026</t>
+          <t>A 59348-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>46027.46872685185</v>
+        <v>45253</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14965,14 +14965,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 59348-2023</t>
+          <t>A 61424-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45253</v>
+        <v>46001</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15022,14 +15022,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 8743-2026</t>
+          <t>A 11938-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>46066.52289351852</v>
+        <v>45728.53489583333</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15041,13 +15041,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15084,14 +15079,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 11938-2025</t>
+          <t>A 61621-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45728.53489583333</v>
+        <v>46002.39636574074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15104,7 +15099,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15141,14 +15136,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 1379-2026</t>
+          <t>A 11293-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>46031.62039351852</v>
+        <v>45371.83412037037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15161,7 +15156,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15198,14 +15193,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 11293-2024</t>
+          <t>A 11296-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45371.83412037037</v>
+        <v>45371.84763888889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15218,7 +15213,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15255,14 +15250,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 11296-2024</t>
+          <t>A 16075-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45371.84763888889</v>
+        <v>45749.68863425926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15275,7 +15270,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15312,14 +15307,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 16075-2025</t>
+          <t>A 11490-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45749.68863425926</v>
+        <v>45726</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15332,7 +15327,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15369,14 +15364,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 11490-2025</t>
+          <t>A 31617-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45726</v>
+        <v>44775.64850694445</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15389,7 +15384,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15426,14 +15421,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 31617-2022</t>
+          <t>A 7069-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44775.64850694445</v>
+        <v>45701.66392361111</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15483,14 +15478,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 7069-2025</t>
+          <t>A 8789-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45701.66392361111</v>
+        <v>45356.60851851852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15503,7 +15498,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15540,14 +15535,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 60004-2025</t>
+          <t>A 10346-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45993.58465277778</v>
+        <v>44257</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15560,7 +15555,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15597,14 +15592,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 1383-2026</t>
+          <t>A 4919-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>46031.62196759259</v>
+        <v>45329</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15617,7 +15612,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15654,14 +15649,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 1385-2026</t>
+          <t>A 58890-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>46031.62402777778</v>
+        <v>45636.46195601852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15674,7 +15669,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15711,14 +15706,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 8789-2024</t>
+          <t>A 15020-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45356.60851851852</v>
+        <v>45743.64266203704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15731,7 +15726,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15768,14 +15763,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 8410-2021</t>
+          <t>A 71676-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44245</v>
+        <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15788,7 +15783,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.4</v>
+        <v>8.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15825,14 +15820,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 10346-2021</t>
+          <t>A 6135-2026</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44257</v>
+        <v>46054.64555555556</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15845,7 +15840,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15882,14 +15877,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 4919-2024</t>
+          <t>A 6136-2026</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45329</v>
+        <v>46054.64793981481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15902,7 +15897,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15939,14 +15934,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 58890-2024</t>
+          <t>A 6137-2026</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45636.46195601852</v>
+        <v>46054.65030092592</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15959,7 +15954,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15996,14 +15991,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 15020-2025</t>
+          <t>A 5829-2026</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45743.64266203704</v>
+        <v>46052</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16016,7 +16011,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16053,14 +16048,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 71676-2021</t>
+          <t>A 62142-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44539</v>
+        <v>45656.66166666667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16073,7 +16068,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>8.1</v>
+        <v>0.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16110,14 +16105,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 61259-2025</t>
+          <t>A 62143-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>46000.67261574074</v>
+        <v>45656.66363425926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16130,7 +16125,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16167,14 +16162,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 61424-2025</t>
+          <t>A 14719-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>46001</v>
+        <v>45742.61819444445</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16187,7 +16182,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16224,14 +16219,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 62142-2024</t>
+          <t>A 14721-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45656.66166666667</v>
+        <v>45742.62212962963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16244,7 +16239,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.5</v>
+        <v>6.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16281,14 +16276,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 62143-2024</t>
+          <t>A 51331-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45656.66363425926</v>
+        <v>44869</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16301,7 +16296,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16338,14 +16333,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 14719-2025</t>
+          <t>A 28608-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45742.61819444445</v>
+        <v>45103</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16358,7 +16353,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16395,14 +16390,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 14721-2025</t>
+          <t>A 17212-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45742.62212962963</v>
+        <v>45756.44349537037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16415,7 +16410,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16452,14 +16447,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 51331-2022</t>
+          <t>A 17151-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44869</v>
+        <v>45756.32365740741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16472,7 +16467,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16509,14 +16504,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 28608-2023</t>
+          <t>A 51978-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45103</v>
+        <v>45607</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16529,7 +16524,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16566,14 +16561,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 17212-2025</t>
+          <t>A 57790-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45756.44349537037</v>
+        <v>44897.655625</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16586,7 +16581,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.8</v>
+        <v>18.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16623,14 +16618,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 17151-2025</t>
+          <t>A 11961-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45756.32365740741</v>
+        <v>44994</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16643,7 +16638,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16680,14 +16675,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 51978-2024</t>
+          <t>A 7801-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45607</v>
+        <v>45706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16700,7 +16695,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16737,14 +16732,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 57790-2022</t>
+          <t>A 27295-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44897.655625</v>
+        <v>45096.64859953704</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16757,7 +16752,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>18.8</v>
+        <v>1.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16794,14 +16789,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 11961-2023</t>
+          <t>A 11958-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
         <v>44994</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16814,7 +16809,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16851,14 +16846,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 7801-2025</t>
+          <t>A 37823-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45706</v>
+        <v>45160</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16871,7 +16866,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16908,14 +16903,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 27295-2023</t>
+          <t>A 8170-2026</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45096.64859953704</v>
+        <v>46063</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16928,7 +16923,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16965,14 +16960,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 11958-2023</t>
+          <t>A 14843-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44994</v>
+        <v>45398.38857638889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16985,7 +16980,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17022,14 +17017,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 37823-2023</t>
+          <t>A 274-2026</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45160</v>
+        <v>46027.46872685185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17042,7 +17037,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17079,14 +17074,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 14843-2024</t>
+          <t>A 54319-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45398.38857638889</v>
+        <v>45617.35008101852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17099,7 +17094,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17136,14 +17131,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 54319-2024</t>
+          <t>A 8743-2026</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45617.35008101852</v>
+        <v>46066.52289351852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17155,8 +17150,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G282" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17200,7 +17200,7 @@
         <v>45699.64993055556</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44777.45361111111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44971.23162037037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44393</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17426,14 +17426,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 24459-2022</t>
+          <t>A 8167-2026</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44726</v>
+        <v>46063</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17483,14 +17483,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 51316-2023</t>
+          <t>A 24459-2022</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45219.57056712963</v>
+        <v>44726</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17540,14 +17540,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 10665-2025</t>
+          <t>A 51316-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45721.74442129629</v>
+        <v>45219.57056712963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17597,14 +17597,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 10572-2024</t>
+          <t>A 10665-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45366.64084490741</v>
+        <v>45721.74442129629</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17654,14 +17654,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 4979-2022</t>
+          <t>A 10572-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44593.58465277778</v>
+        <v>45366.64084490741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17711,14 +17711,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 2415-2023</t>
+          <t>A 4979-2022</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44942</v>
+        <v>44593.58465277778</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>19.2</v>
+        <v>0.2</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17768,14 +17768,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 47832-2023</t>
+          <t>A 2415-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45204</v>
+        <v>44942</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>2.9</v>
+        <v>19.2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17825,14 +17825,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 16887-2025</t>
+          <t>A 47832-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45755</v>
+        <v>45204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17844,13 +17844,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G294" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17887,14 +17882,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 39418-2021</t>
+          <t>A 16887-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44414</v>
+        <v>45755</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17906,8 +17901,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G295" t="n">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17944,14 +17944,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 7798-2025</t>
+          <t>A 39418-2021</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45706</v>
+        <v>44414</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18001,14 +18001,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 1765-2023</t>
+          <t>A 7798-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44936</v>
+        <v>45706</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>7.3</v>
+        <v>2.6</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18058,14 +18058,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 30996-2023</t>
+          <t>A 1765-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45113</v>
+        <v>44936</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18115,14 +18115,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 62139-2024</t>
+          <t>A 30996-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45656.65846064815</v>
+        <v>45113</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18172,14 +18172,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 23994-2023</t>
+          <t>A 62139-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45078</v>
+        <v>45656.65846064815</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18191,13 +18191,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G300" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18234,14 +18229,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 52317-2022</t>
+          <t>A 23994-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44873</v>
+        <v>45078</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18253,8 +18248,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G301" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18291,14 +18291,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 20750-2024</t>
+          <t>A 52317-2022</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45436</v>
+        <v>44873</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18348,14 +18348,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 12071-2025</t>
+          <t>A 20750-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45728.71550925926</v>
+        <v>45436</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18405,14 +18405,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 10140-2025</t>
+          <t>A 12071-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45719</v>
+        <v>45728.71550925926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18462,14 +18462,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 36364-2021</t>
+          <t>A 10140-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>44390</v>
+        <v>45719</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18481,13 +18481,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G305" t="n">
-        <v>13.3</v>
+        <v>1</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18524,14 +18519,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 34445-2024</t>
+          <t>A 36364-2021</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45525</v>
+        <v>44390</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,8 +18538,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G306" t="n">
-        <v>0.9</v>
+        <v>13.3</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18581,14 +18581,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 34449-2024</t>
+          <t>A 34445-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45525.55266203704</v>
+        <v>45525</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18638,14 +18638,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 5812-2024</t>
+          <t>A 34449-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45335</v>
+        <v>45525.55266203704</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18695,14 +18695,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 12094-2025</t>
+          <t>A 5812-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45729.32310185185</v>
+        <v>45335</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,13 +18714,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G309" t="n">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18757,14 +18752,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 31293-2024</t>
+          <t>A 12094-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45504.47707175926</v>
+        <v>45729.32310185185</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,8 +18771,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G310" t="n">
-        <v>0.5</v>
+        <v>6.7</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18814,14 +18814,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 6504-2022</t>
+          <t>A 31293-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>44601.44640046296</v>
+        <v>45504.47707175926</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18871,14 +18871,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 41508-2024</t>
+          <t>A 6504-2022</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45560</v>
+        <v>44601.44640046296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18928,14 +18928,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 59696-2024</t>
+          <t>A 41508-2024</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45639.41188657407</v>
+        <v>45560</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18985,14 +18985,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 33494-2023</t>
+          <t>A 59696-2024</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45131</v>
+        <v>45639.41188657407</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19042,14 +19042,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 33496-2023</t>
+          <t>A 33494-2023</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45131.45756944444</v>
+        <v>45131</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19099,14 +19099,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 10137-2025</t>
+          <t>A 33496-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45719</v>
+        <v>45131.45756944444</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19156,14 +19156,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 11434-2025</t>
+          <t>A 10137-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45726.61469907407</v>
+        <v>45719</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19213,14 +19213,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 11204-2025</t>
+          <t>A 11434-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45726.31684027778</v>
+        <v>45726.61469907407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19270,14 +19270,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 31302-2022</t>
+          <t>A 11204-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>44773.47849537037</v>
+        <v>45726.31684027778</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19327,14 +19327,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 53051-2021</t>
+          <t>A 31302-2022</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>44467.73666666666</v>
+        <v>44773.47849537037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19346,13 +19346,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G320" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19389,14 +19384,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 17293-2025</t>
+          <t>A 53051-2021</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45756.58894675926</v>
+        <v>44467.73666666666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,8 +19403,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G321" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19446,14 +19446,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 24941-2024</t>
+          <t>A 17293-2025</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45461</v>
+        <v>45756.58894675926</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19463,11 +19463,6 @@
       <c r="E322" t="inlineStr">
         <is>
           <t>KUNGSBACKA</t>
-        </is>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G322" t="n">
@@ -19508,14 +19503,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 15076-2025</t>
+          <t>A 24941-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45743.78899305555</v>
+        <v>45461</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19527,8 +19522,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G323" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19565,14 +19565,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 61975-2024</t>
+          <t>A 15076-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45653.62395833333</v>
+        <v>45743.78899305555</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19622,14 +19622,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 61977-2024</t>
+          <t>A 61975-2024</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45653.62820601852</v>
+        <v>45653.62395833333</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19679,14 +19679,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 15110-2025</t>
+          <t>A 61977-2024</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45744.35528935185</v>
+        <v>45653.62820601852</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>4.1</v>
+        <v>0.1</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19736,14 +19736,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 14052-2023</t>
+          <t>A 15110-2025</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45008</v>
+        <v>45744.35528935185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19793,14 +19793,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 15055-2025</t>
+          <t>A 14052-2023</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45743.7028587963</v>
+        <v>45008</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19850,14 +19850,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 15060-2025</t>
+          <t>A 15055-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45743.71545138889</v>
+        <v>45743.7028587963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19907,14 +19907,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 15062-2025</t>
+          <t>A 15060-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45743.71922453704</v>
+        <v>45743.71545138889</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19964,14 +19964,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 15074-2025</t>
+          <t>A 15062-2025</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45743.78336805556</v>
+        <v>45743.71922453704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -20021,14 +20021,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 57709-2023</t>
+          <t>A 15074-2025</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45246.68188657407</v>
+        <v>45743.78336805556</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -20078,14 +20078,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 47321-2024</t>
+          <t>A 57709-2023</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45587.38203703704</v>
+        <v>45246.68188657407</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>9.699999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -20135,14 +20135,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 52909-2021</t>
+          <t>A 47321-2024</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>44467</v>
+        <v>45587.38203703704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>2.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20192,14 +20192,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 7810-2025</t>
+          <t>A 52909-2021</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45706</v>
+        <v>44467</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20249,14 +20249,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 11306-2024</t>
+          <t>A 7810-2025</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45371.87320601852</v>
+        <v>45706</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20306,14 +20306,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 12064-2023</t>
+          <t>A 11306-2024</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>44997</v>
+        <v>45371.87320601852</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>10.5</v>
+        <v>1.7</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20363,14 +20363,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 63598-2023</t>
+          <t>A 12064-2023</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45275.47011574074</v>
+        <v>44997</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>1.6</v>
+        <v>10.5</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20420,14 +20420,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 32030-2024</t>
+          <t>A 63598-2023</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45510</v>
+        <v>45275.47011574074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,13 +20439,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G339" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20482,14 +20477,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 4145-2024</t>
+          <t>A 32030-2024</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45323.78577546297</v>
+        <v>45510</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20501,8 +20496,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G340" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20539,14 +20539,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 48406-2023</t>
+          <t>A 4145-2024</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45205</v>
+        <v>45323.78577546297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20596,14 +20596,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 48754-2023</t>
+          <t>A 48406-2023</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45208</v>
+        <v>45205</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20653,14 +20653,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 53378-2021</t>
+          <t>A 48754-2023</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>44468.60568287037</v>
+        <v>45208</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20710,14 +20710,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 59623-2024</t>
+          <t>A 53378-2021</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>45638</v>
+        <v>44468.60568287037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>19.2</v>
+        <v>0.8</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20767,14 +20767,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 14846-2024</t>
+          <t>A 59623-2024</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>45398.41739583333</v>
+        <v>45638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>0.9</v>
+        <v>19.2</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20824,14 +20824,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 4985-2025</t>
+          <t>A 14846-2024</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>45691.30831018519</v>
+        <v>45398.41739583333</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20881,14 +20881,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 10672-2025</t>
+          <t>A 4985-2025</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45721.78883101852</v>
+        <v>45691.30831018519</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20938,14 +20938,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 6513-2025</t>
+          <t>A 10672-2025</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45699.65769675926</v>
+        <v>45721.78883101852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20995,14 +20995,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 27287-2023</t>
+          <t>A 6513-2025</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>45096.64322916666</v>
+        <v>45699.65769675926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -21052,14 +21052,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 10815-2025</t>
+          <t>A 27287-2023</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45722.54424768518</v>
+        <v>45096.64322916666</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -21109,14 +21109,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 51332-2022</t>
+          <t>A 10815-2025</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>44869</v>
+        <v>45722.54424768518</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -21166,14 +21166,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 6774-2025</t>
+          <t>A 51332-2022</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45700.64171296296</v>
+        <v>44869</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -21223,14 +21223,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 31884-2022</t>
+          <t>A 6774-2025</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>44777.44266203704</v>
+        <v>45700.64171296296</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -21280,14 +21280,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 4648-2025</t>
+          <t>A 31884-2022</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>45687.6631712963</v>
+        <v>44777.44266203704</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -21337,14 +21337,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 49505-2024</t>
+          <t>A 4648-2025</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>45596.37319444444</v>
+        <v>45687.6631712963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -21394,14 +21394,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 42412-2022</t>
+          <t>A 49505-2024</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>44831</v>
+        <v>45596.37319444444</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -21451,14 +21451,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 11488-2025</t>
+          <t>A 42412-2022</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>45726.70486111111</v>
+        <v>44831</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21508,14 +21508,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 16041-2025</t>
+          <t>A 11488-2025</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>45749.63190972222</v>
+        <v>45726.70486111111</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21565,14 +21565,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 61446-2024</t>
+          <t>A 16041-2025</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>45646.48326388889</v>
+        <v>45749.63190972222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21622,14 +21622,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 11068-2023</t>
+          <t>A 61446-2024</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>44992</v>
+        <v>45646.48326388889</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21679,14 +21679,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 19502-2022</t>
+          <t>A 11068-2023</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>44693</v>
+        <v>44992</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>1.6</v>
+        <v>6.3</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21736,14 +21736,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 62742-2022</t>
+          <t>A 19502-2022</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>44925.90333333334</v>
+        <v>44693</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21793,14 +21793,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 14487-2025</t>
+          <t>A 62742-2022</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>45741.60409722223</v>
+        <v>44925.90333333334</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21850,14 +21850,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 6318-2025</t>
+          <t>A 14487-2025</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>45698.80875</v>
+        <v>45741.60409722223</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -21907,14 +21907,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 12404-2023</t>
+          <t>A 6318-2025</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>44999.50241898148</v>
+        <v>45698.80875</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21964,14 +21964,14 @@
     <row r="366" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 21009-2025</t>
+          <t>A 12404-2023</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>45777.4967824074</v>
+        <v>44999.50241898148</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -22021,14 +22021,14 @@
     <row r="367" ht="15" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
-          <t>A 20881-2025</t>
+          <t>A 21009-2025</t>
         </is>
       </c>
       <c r="B367" s="1" t="n">
-        <v>45777.36047453704</v>
+        <v>45777.4967824074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -22078,14 +22078,14 @@
     <row r="368" ht="15" customHeight="1">
       <c r="A368" t="inlineStr">
         <is>
-          <t>A 20883-2025</t>
+          <t>A 20881-2025</t>
         </is>
       </c>
       <c r="B368" s="1" t="n">
-        <v>45777.36590277778</v>
+        <v>45777.36047453704</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -22135,14 +22135,14 @@
     <row r="369" ht="15" customHeight="1">
       <c r="A369" t="inlineStr">
         <is>
-          <t>A 20781-2025</t>
+          <t>A 20883-2025</t>
         </is>
       </c>
       <c r="B369" s="1" t="n">
-        <v>45776</v>
+        <v>45777.36590277778</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>5.7</v>
+        <v>1.9</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -22192,14 +22192,14 @@
     <row r="370" ht="15" customHeight="1">
       <c r="A370" t="inlineStr">
         <is>
-          <t>A 21968-2025</t>
+          <t>A 20781-2025</t>
         </is>
       </c>
       <c r="B370" s="1" t="n">
-        <v>45784.62885416667</v>
+        <v>45776</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>2.9</v>
+        <v>5.7</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -22249,14 +22249,14 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>A 21930-2025</t>
+          <t>A 21968-2025</t>
         </is>
       </c>
       <c r="B371" s="1" t="n">
-        <v>45784.5525</v>
+        <v>45784.62885416667</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -575,7 +575,7 @@
         <v>45846.63826388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45761.37239583334</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45359.66121527777</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44645</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,14 +1042,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 58-2025</t>
+          <t>A 32329-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45659.39741898148</v>
+        <v>44371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,8 +1061,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>0.4</v>
+        <v>31.3</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -1095,137 +1100,132 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita
+Kambräken</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 32329-2021 artfynd.xlsx", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 32329-2021 karta.png", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 32329-2021 FSC-klagomål.docx", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 32329-2021 FSC-klagomål mail.docx", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 32329-2021 tillsynsbegäran.docx", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 32329-2021 tillsynsbegäran mail.docx", "A 32329-2021")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 32329-2021 prioriterade fågelarter.docx", "A 32329-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 58-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45659.39741898148</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Mindre hackspett
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 58-2025 artfynd.xlsx", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 58-2025 karta.png", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 58-2025 FSC-klagomål.docx", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 58-2025 FSC-klagomål mail.docx", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 58-2025 tillsynsbegäran.docx", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 58-2025 tillsynsbegäran mail.docx", "A 58-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 58-2025 prioriterade fågelarter.docx", "A 58-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 32329-2021</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44371</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>HALLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KUNGSBACKA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita
-Kambräken</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 32329-2021 artfynd.xlsx", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 32329-2021 karta.png", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 32329-2021 FSC-klagomål.docx", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 32329-2021 FSC-klagomål mail.docx", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 32329-2021 tillsynsbegäran.docx", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 32329-2021 tillsynsbegäran mail.docx", "A 32329-2021")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 32329-2021 prioriterade fågelarter.docx", "A 32329-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>45288</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45701</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44873</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44645</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45737.67560185185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,14 +1657,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 36068-2023</t>
+          <t>A 46459-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45149</v>
+        <v>45197</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1676,8 +1676,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1686,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1701,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1711,35 +1716,31 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Drillsnäppa</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 36068-2023 artfynd.xlsx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 46459-2023 artfynd.xlsx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 36068-2023 karta.png", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 46459-2023 karta.png", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 36068-2023 FSC-klagomål.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 46459-2023 FSC-klagomål.docx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 36068-2023 FSC-klagomål mail.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 46459-2023 FSC-klagomål mail.docx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 36068-2023 tillsynsbegäran.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 46459-2023 tillsynsbegäran.docx", "A 46459-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 36068-2023 tillsynsbegäran mail.docx", "A 36068-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 36068-2023 prioriterade fågelarter.docx", "A 36068-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 46459-2023 tillsynsbegäran mail.docx", "A 46459-2023")</f>
         <v/>
       </c>
     </row>
@@ -1753,7 +1754,7 @@
         <v>45723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,14 +1832,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 10124-2025</t>
+          <t>A 44638-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45719</v>
+        <v>44840.59173611111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1850,8 +1851,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>11.8</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1885,139 +1891,134 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 44638-2022 artfynd.xlsx", "A 44638-2022")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 44638-2022 karta.png", "A 44638-2022")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 44638-2022 FSC-klagomål.docx", "A 44638-2022")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 44638-2022 FSC-klagomål mail.docx", "A 44638-2022")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 44638-2022 tillsynsbegäran.docx", "A 44638-2022")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 44638-2022 tillsynsbegäran mail.docx", "A 44638-2022")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 44638-2022 prioriterade fågelarter.docx", "A 44638-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 10124-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45719</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Fiskmås</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 10124-2025 artfynd.xlsx", "A 10124-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 10124-2025 karta.png", "A 10124-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 10124-2025 FSC-klagomål.docx", "A 10124-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 10124-2025 FSC-klagomål mail.docx", "A 10124-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 10124-2025 tillsynsbegäran.docx", "A 10124-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 10124-2025 tillsynsbegäran mail.docx", "A 10124-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 44638-2022</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44840.59173611111</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>HALLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>KUNGSBACKA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 44638-2022 artfynd.xlsx", "A 44638-2022")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 44638-2022 karta.png", "A 44638-2022")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 44638-2022 FSC-klagomål.docx", "A 44638-2022")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 44638-2022 FSC-klagomål mail.docx", "A 44638-2022")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 44638-2022 tillsynsbegäran.docx", "A 44638-2022")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 44638-2022 tillsynsbegäran mail.docx", "A 44638-2022")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 44638-2022 prioriterade fågelarter.docx", "A 44638-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 46459-2023</t>
+          <t>A 36068-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45197</v>
+        <v>45149</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2029,13 +2030,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2044,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2059,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2069,31 +2065,35 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Drillsnäppa</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 46459-2023 artfynd.xlsx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/artfynd/A 36068-2023 artfynd.xlsx", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 46459-2023 karta.png", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/kartor/A 36068-2023 karta.png", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 46459-2023 FSC-klagomål.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomål/A 36068-2023 FSC-klagomål.docx", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 46459-2023 FSC-klagomål mail.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/klagomålsmail/A 36068-2023 FSC-klagomål mail.docx", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 46459-2023 tillsynsbegäran.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsyn/A 36068-2023 tillsynsbegäran.docx", "A 36068-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 46459-2023 tillsynsbegäran mail.docx", "A 46459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/tillsynsmail/A 36068-2023 tillsynsbegäran mail.docx", "A 36068-2023")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1384/fåglar/A 36068-2023 prioriterade fågelarter.docx", "A 36068-2023")</f>
         <v/>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
         <v>44804.90865740741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44308.50634259259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44286.34952546296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44286.37935185185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44537</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>44390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2447,14 +2447,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 31246-2021</t>
+          <t>A 36358-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44368.66283564815</v>
+        <v>44390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,8 +2466,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2504,14 +2509,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 36358-2021</t>
+          <t>A 31246-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44390</v>
+        <v>44368.66283564815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,13 +2528,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>8.199999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>44392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44279</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44853.50788194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44613</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44462</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44298.52335648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44298.52487268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44285</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44539</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44740</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44684.3947800926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44455.7780787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44383</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44767.60487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44819</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44250</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44274</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44510</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44538.43275462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44251</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4281,14 +4281,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 58324-2024</t>
+          <t>A 28608-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45632.62684027778</v>
+        <v>45103</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4338,14 +4338,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 58330-2024</t>
+          <t>A 54319-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45632.63079861111</v>
+        <v>45617.35008101852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4395,14 +4395,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 9527-2024</t>
+          <t>A 6513-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45359.66539351852</v>
+        <v>45699.65769675926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4414,13 +4414,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4457,14 +4452,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 65199-2023</t>
+          <t>A 59348-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45288</v>
+        <v>45253</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4477,7 +4472,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4514,14 +4509,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9548-2024</t>
+          <t>A 61446-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45359</v>
+        <v>45646.48326388889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4534,7 +4529,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4571,14 +4566,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 71891-2021</t>
+          <t>A 15110-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44543</v>
+        <v>45744.35528935185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4591,7 +4586,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4628,14 +4623,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49492-2024</t>
+          <t>A 10815-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45596.36532407408</v>
+        <v>45722.54424768518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4648,7 +4643,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4685,14 +4680,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 64363-2023</t>
+          <t>A 59623-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45280</v>
+        <v>45638</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4705,7 +4700,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>19.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4742,14 +4737,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 6978-2023</t>
+          <t>A 4145-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44967.64511574074</v>
+        <v>45323.78577546297</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4762,7 +4757,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4799,14 +4794,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 21930-2025</t>
+          <t>A 10137-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45784.5525</v>
+        <v>45719</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4819,7 +4814,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4856,14 +4851,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 5201-2024</t>
+          <t>A 48486-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45330</v>
+        <v>45936.35866898148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4876,7 +4871,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.7</v>
+        <v>2.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4913,14 +4908,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 9965-2025</t>
+          <t>A 5201-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45719</v>
+        <v>45330</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4933,7 +4928,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.8</v>
+        <v>6.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4970,14 +4965,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9976-2025</t>
+          <t>A 20781-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45719</v>
+        <v>45776</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4990,7 +4985,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5027,14 +5022,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11097-2023</t>
+          <t>A 21009-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44992</v>
+        <v>45777.4967824074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5047,7 +5042,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5084,14 +5079,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 6260-2022</t>
+          <t>A 51332-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44600</v>
+        <v>44869</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5104,7 +5099,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5141,14 +5136,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 53194-2024</t>
+          <t>A 20881-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45610</v>
+        <v>45777.36047453704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5161,7 +5156,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5198,14 +5193,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 23579-2025</t>
+          <t>A 38308-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45792.62453703704</v>
+        <v>45883.47233796296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5218,7 +5213,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5255,14 +5250,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 9423-2024</t>
+          <t>A 20883-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45359.46068287037</v>
+        <v>45777.36590277778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5275,7 +5270,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5312,14 +5307,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 23787-2025</t>
+          <t>A 39154-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45793.53262731482</v>
+        <v>45888.61770833333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5332,7 +5327,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5369,14 +5364,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39154-2025</t>
+          <t>A 39066-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45888.61770833333</v>
+        <v>45888.46474537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5389,7 +5384,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5426,14 +5421,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39066-2025</t>
+          <t>A 21968-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45888.46474537037</v>
+        <v>45784.62885416667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5446,7 +5441,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5483,14 +5478,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 13669-2025</t>
+          <t>A 17212-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45736.85748842593</v>
+        <v>45756.44349537037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5503,7 +5498,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>9.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5540,14 +5535,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 17401-2023</t>
+          <t>A 21930-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45035</v>
+        <v>45784.5525</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5560,7 +5555,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5597,14 +5592,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 39292-2025</t>
+          <t>A 39418-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45889.41831018519</v>
+        <v>44414</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5617,7 +5612,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5654,14 +5649,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 39295-2025</t>
+          <t>A 39292-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45889.42100694445</v>
+        <v>45889.41831018519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5674,7 +5669,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5711,14 +5706,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 31344-2024</t>
+          <t>A 39295-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45504.8096875</v>
+        <v>45889.42100694445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5731,7 +5726,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5768,14 +5763,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 3279-2025</t>
+          <t>A 39486-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45679</v>
+        <v>45890</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5783,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5825,14 +5820,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 39486-2025</t>
+          <t>A 10949-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45890</v>
+        <v>45370</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5840,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5882,14 +5877,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 12831-2025</t>
+          <t>A 30901-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45733.63225694445</v>
+        <v>44767</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5897,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5939,14 +5934,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 53972-2024</t>
+          <t>A 20750-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45616.3218287037</v>
+        <v>45436</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5954,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5996,14 +5991,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 40772-2025</t>
+          <t>A 62742-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45897.40917824074</v>
+        <v>44925.90333333334</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6011,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6053,14 +6048,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 62741-2022</t>
+          <t>A 40772-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44925.90137731482</v>
+        <v>45897.40917824074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6068,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6110,14 +6105,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 62743-2022</t>
+          <t>A 23579-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44925.90475694444</v>
+        <v>45792.62453703704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6125,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6167,14 +6162,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25269-2025</t>
+          <t>A 53194-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45800</v>
+        <v>45610</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6182,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6224,14 +6219,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 25757-2025</t>
+          <t>A 53051-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45801</v>
+        <v>44467.73666666666</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6243,8 +6238,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>8.9</v>
+        <v>3.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6281,14 +6281,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 61976-2024</t>
+          <t>A 31293-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45653.62631944445</v>
+        <v>45504.47707175926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6345,7 +6345,7 @@
         <v>45867.654375</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6395,14 +6395,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 44353-2023</t>
+          <t>A 49912-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45188</v>
+        <v>45940.61109953704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6452,14 +6452,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 9417-2023</t>
+          <t>A 42754-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44981</v>
+        <v>45908.44385416667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6509,14 +6509,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 11310-2024</t>
+          <t>A 23787-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45371.87774305556</v>
+        <v>45793.53262731482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6566,14 +6566,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 51-2025</t>
+          <t>A 3279-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45659.38747685185</v>
+        <v>45679</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6623,14 +6623,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 16045-2025</t>
+          <t>A 45887-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45749.63446759259</v>
+        <v>45923</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6680,14 +6680,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 10269-2023</t>
+          <t>A 52909-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44986.80671296296</v>
+        <v>44467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6737,14 +6737,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 61739-2023</t>
+          <t>A 51523-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45265</v>
+        <v>45950</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>13.8</v>
+        <v>3.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6794,14 +6794,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 6417-2024</t>
+          <t>A 45892-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45338</v>
+        <v>45923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6.3</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6851,14 +6851,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 16076-2025</t>
+          <t>A 31344-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45749</v>
+        <v>45504.8096875</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6908,14 +6908,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 42754-2025</t>
+          <t>A 2415-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45908.44385416667</v>
+        <v>44942</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>19.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6965,14 +6965,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40024-2021</t>
+          <t>A 35804-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44418.4324537037</v>
+        <v>45532</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.8</v>
+        <v>7.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7022,14 +7022,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 31950-2025</t>
+          <t>A 35808-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45835</v>
+        <v>45532.64996527778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7079,14 +7079,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 20828-2025</t>
+          <t>A 35811-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45776.74407407407</v>
+        <v>45532.65364583334</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7136,14 +7136,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 15163-2024</t>
+          <t>A 52132-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45400.32577546296</v>
+        <v>45952.80421296296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7193,14 +7193,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 27975-2025</t>
+          <t>A 7335-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45817.56953703704</v>
+        <v>44971.23162037037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7250,14 +7250,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 27977-2025</t>
+          <t>A 31950-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45817.57148148148</v>
+        <v>45835</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7307,14 +7307,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 28610-2023</t>
+          <t>A 36984-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45103</v>
+        <v>44393</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7326,8 +7326,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7364,14 +7369,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 43655-2025</t>
+          <t>A 53487-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45912.33763888889</v>
+        <v>45960.28282407407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7384,7 +7389,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7421,14 +7426,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 28331-2025</t>
+          <t>A 43655-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45818</v>
+        <v>45912.33763888889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7441,7 +7446,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7478,14 +7483,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28332-2025</t>
+          <t>A 25269-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45818.660625</v>
+        <v>45800</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7498,7 +7503,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7535,14 +7540,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 28383-2025</t>
+          <t>A 54314-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45819.31177083333</v>
+        <v>45965.32422453703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7555,7 +7560,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7592,14 +7597,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 35811-2024</t>
+          <t>A 58118-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45532.65364583334</v>
+        <v>44487</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7612,7 +7617,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7649,14 +7654,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 28900-2025</t>
+          <t>A 55272-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45820.63842592593</v>
+        <v>45968.67791666667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7669,7 +7674,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7706,14 +7711,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 28879-2025</t>
+          <t>A 25757-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45820.62296296296</v>
+        <v>45801</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7726,7 +7731,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.4</v>
+        <v>8.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7763,14 +7768,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 8677-2022</t>
+          <t>A 44666-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44613</v>
+        <v>45917.56202546296</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7783,7 +7788,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7820,14 +7825,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 24964-2024</t>
+          <t>A 44674-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45461</v>
+        <v>45917.56850694444</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,13 +7844,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7882,14 +7882,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44666-2025</t>
+          <t>A 33715-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45917.56202546296</v>
+        <v>44378</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7939,14 +7939,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 44674-2025</t>
+          <t>A 45623-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45917.56850694444</v>
+        <v>45922</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7996,14 +7996,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 10664-2025</t>
+          <t>A 61739-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45721.73804398148</v>
+        <v>45265</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>15.2</v>
+        <v>13.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8053,14 +8053,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 45316-2025</t>
+          <t>A 45621-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45921.83819444444</v>
+        <v>45922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8110,14 +8110,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 45623-2025</t>
+          <t>A 6417-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45922</v>
+        <v>45338</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8167,14 +8167,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 45625-2025</t>
+          <t>A 45316-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45922.79663194445</v>
+        <v>45921.83819444444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8224,14 +8224,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 45631-2025</t>
+          <t>A 45625-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45922.84188657408</v>
+        <v>45922.79663194445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8281,14 +8281,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 45621-2025</t>
+          <t>A 45631-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45922</v>
+        <v>45922.84188657408</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8338,14 +8338,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 45624-2025</t>
+          <t>A 16076-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45922.79326388889</v>
+        <v>45749</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8395,14 +8395,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45626-2025</t>
+          <t>A 64363-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45922.79810185185</v>
+        <v>45280</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8452,14 +8452,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 45632-2025</t>
+          <t>A 45622-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45922.84633101852</v>
+        <v>45922.78539351852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8509,14 +8509,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 45622-2025</t>
+          <t>A 45624-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45922.78539351852</v>
+        <v>45922.79326388889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8566,14 +8566,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 45639-2025</t>
+          <t>A 45626-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45922.86137731482</v>
+        <v>45922.79810185185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8623,14 +8623,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 56293-2023</t>
+          <t>A 45632-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45242.61020833333</v>
+        <v>45922.84633101852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8680,14 +8680,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 56294-2023</t>
+          <t>A 45639-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45242</v>
+        <v>45922.86137731482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8737,14 +8737,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 11432-2025</t>
+          <t>A 11958-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45726.61204861111</v>
+        <v>44994</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8794,14 +8794,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 14898-2023</t>
+          <t>A 57790-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45014</v>
+        <v>44897.655625</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.1</v>
+        <v>18.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8851,14 +8851,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 15061-2025</t>
+          <t>A 11432-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45743.71736111111</v>
+        <v>45726.61204861111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8908,14 +8908,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 22589-2023</t>
+          <t>A 62743-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45071.48055555556</v>
+        <v>44925.90475694444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8965,14 +8965,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 10949-2024</t>
+          <t>A 53972-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45370</v>
+        <v>45616.3218287037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.4</v>
+        <v>5.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9022,14 +9022,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 31888-2025</t>
+          <t>A 28332-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45834.66146990741</v>
+        <v>45818.660625</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9079,14 +9079,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 47452-2025</t>
+          <t>A 27975-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45930</v>
+        <v>45817.56953703704</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9136,14 +9136,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 31873-2025</t>
+          <t>A 28610-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45834.65045138889</v>
+        <v>45103</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9193,14 +9193,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 9848-2024</t>
+          <t>A 32030-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45363.36511574074</v>
+        <v>45510</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9214,11 +9214,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9255,14 +9255,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 58118-2021</t>
+          <t>A 20828-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44487</v>
+        <v>45776.74407407407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9312,14 +9312,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 28036-2023</t>
+          <t>A 27977-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45099</v>
+        <v>45817.57148148148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9369,14 +9369,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 32620-2025</t>
+          <t>A 47452-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45838.64533564815</v>
+        <v>45930</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>7.4</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9426,14 +9426,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 62141-2024</t>
+          <t>A 28331-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45656.65996527778</v>
+        <v>45818</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9483,14 +9483,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48486-2025</t>
+          <t>A 28879-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45936.35866898148</v>
+        <v>45820.62296296296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9540,14 +9540,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 15093-2025</t>
+          <t>A 28383-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45744.32858796296</v>
+        <v>45819.31177083333</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9597,14 +9597,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 15096-2025</t>
+          <t>A 28900-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45744.3337962963</v>
+        <v>45820.63842592593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9654,14 +9654,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 15122-2025</t>
+          <t>A 52317-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45744.32612268518</v>
+        <v>44873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9711,14 +9711,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 32894-2025</t>
+          <t>A 41508-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45839.61362268519</v>
+        <v>45560</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9768,14 +9768,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 21721-2023</t>
+          <t>A 4985-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45065</v>
+        <v>45691.30831018519</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9825,14 +9825,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 36368-2021</t>
+          <t>A 6260-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44390</v>
+        <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9842,11 +9842,6 @@
       <c r="E154" t="inlineStr">
         <is>
           <t>KUNGSBACKA</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -9887,14 +9882,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 49912-2025</t>
+          <t>A 14487-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45940.61109953704</v>
+        <v>45741.60409722223</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9907,7 +9902,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9944,14 +9939,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 22594-2023</t>
+          <t>A 19502-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45071.49386574074</v>
+        <v>44693</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9964,7 +9959,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10001,14 +9996,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 34086-2025</t>
+          <t>A 57709-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45845.4681712963</v>
+        <v>45246.68188657407</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10021,7 +10016,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.6</v>
+        <v>6.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10058,14 +10053,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 34360-2025</t>
+          <t>A 31873-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45846.48792824074</v>
+        <v>45834.65045138889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10078,7 +10073,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10115,14 +10110,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 34407-2025</t>
+          <t>A 31888-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45846.6321875</v>
+        <v>45834.66146990741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10135,7 +10130,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10172,14 +10167,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 34660-2025</t>
+          <t>A 10269-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45848.36886574074</v>
+        <v>44986.80671296296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10192,7 +10187,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10229,14 +10224,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 3281-2025</t>
+          <t>A 32620-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45679</v>
+        <v>45838.64533564815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10249,7 +10244,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>10.8</v>
+        <v>7.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10286,14 +10281,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 34782-2025</t>
+          <t>A 32894-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45848</v>
+        <v>45839.61362268519</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10306,7 +10301,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10343,14 +10338,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 34975-2025</t>
+          <t>A 30996-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45849.68076388889</v>
+        <v>45113</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10363,7 +10358,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10400,14 +10395,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 35399-2025</t>
+          <t>A 34086-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45855.33679398148</v>
+        <v>45845.4681712963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10420,7 +10415,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10457,14 +10452,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 45892-2025</t>
+          <t>A 34360-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45923</v>
+        <v>45846.48792824074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10477,7 +10472,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10514,14 +10509,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 45887-2025</t>
+          <t>A 34407-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45923</v>
+        <v>45846.6321875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10534,7 +10529,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10571,14 +10566,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 51523-2025</t>
+          <t>A 34782-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45950</v>
+        <v>45848</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10591,7 +10586,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10628,14 +10623,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 52132-2025</t>
+          <t>A 1383-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45952.80421296296</v>
+        <v>46031.62196759259</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10648,7 +10643,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10685,14 +10680,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 35801-2025</t>
+          <t>A 1385-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45861.38625</v>
+        <v>46031.62402777778</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10705,7 +10700,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10742,14 +10737,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 35800-2025</t>
+          <t>A 34660-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45861.38344907408</v>
+        <v>45848.36886574074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10762,7 +10757,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10799,14 +10794,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 18179-2025</t>
+          <t>A 1379-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45761</v>
+        <v>46031.62039351852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10819,7 +10814,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10856,14 +10851,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 35898-2025</t>
+          <t>A 6978-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45862.48679398148</v>
+        <v>44967.64511574074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10876,7 +10871,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10913,14 +10908,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 49489-2024</t>
+          <t>A 34975-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45596.36135416666</v>
+        <v>45849.68076388889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10933,7 +10928,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10970,14 +10965,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 12218-2025</t>
+          <t>A 14052-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45729.53674768518</v>
+        <v>45008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10990,7 +10985,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11027,14 +11022,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 46251-2024</t>
+          <t>A 35399-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45581.59541666666</v>
+        <v>45855.33679398148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11047,7 +11042,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11084,14 +11079,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 33983-2023</t>
+          <t>A 35800-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45134.695</v>
+        <v>45861.38344907408</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11104,7 +11099,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11141,14 +11136,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 23132-2025</t>
+          <t>A 35801-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45791.38755787037</v>
+        <v>45861.38625</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11161,7 +11156,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>15.9</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11198,14 +11193,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 36654-2024</t>
+          <t>A 35898-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45537</v>
+        <v>45862.48679398148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11218,7 +11213,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11255,14 +11250,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 6757-2025</t>
+          <t>A 18179-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45700.62190972222</v>
+        <v>45761</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11275,7 +11270,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11312,14 +11307,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 8942-2025</t>
+          <t>A 60004-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45713.45041666667</v>
+        <v>45993.58465277778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11332,7 +11327,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11369,14 +11364,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 34315-2024</t>
+          <t>A 46251-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45524.70024305556</v>
+        <v>45581.59541666666</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11389,7 +11384,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11426,14 +11421,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 34319-2024</t>
+          <t>A 7810-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45524.71290509259</v>
+        <v>45706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11446,7 +11441,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11483,14 +11478,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 45281-2024</t>
+          <t>A 24964-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45576.37672453704</v>
+        <v>45461</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11502,8 +11497,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11540,14 +11540,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 62664-2022</t>
+          <t>A 28574-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44925.53116898148</v>
+        <v>45478</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11597,14 +11597,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 41855-2024</t>
+          <t>A 7709-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45561.44230324074</v>
+        <v>45706</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>6.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11654,14 +11654,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 59726-2024</t>
+          <t>A 7718-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45639.49413194445</v>
+        <v>45706</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11711,14 +11711,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 2074-2025</t>
+          <t>A 34620-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45672</v>
+        <v>45847</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11768,14 +11768,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 28583-2024</t>
+          <t>A 36770-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45478</v>
+        <v>45873.58733796296</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11825,14 +11825,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 10396-2024</t>
+          <t>A 28583-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45365.66971064815</v>
+        <v>45478</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11882,14 +11882,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 4386-2025</t>
+          <t>A 23132-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45686.39981481482</v>
+        <v>45791.38755787037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5.5</v>
+        <v>15.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11939,14 +11939,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 34620-2025</t>
+          <t>A 23141-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45847</v>
+        <v>45791.39673611111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11996,14 +11996,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 26145-2023</t>
+          <t>A 8947-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45091.48431712963</v>
+        <v>45713.4553125</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12053,14 +12053,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 21279-2024</t>
+          <t>A 6103-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45440</v>
+        <v>45337.36503472222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12110,14 +12110,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 6103-2024</t>
+          <t>A 6214-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45337.36503472222</v>
+        <v>45337</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12167,14 +12167,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 6214-2024</t>
+          <t>A 16230-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45337</v>
+        <v>45028.41518518519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12224,14 +12224,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 10819-2025</t>
+          <t>A 34315-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45722.54821759259</v>
+        <v>45524.70024305556</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12281,14 +12281,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 58779-2024</t>
+          <t>A 34319-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45635.83408564814</v>
+        <v>45524.71290509259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12338,14 +12338,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 7709-2025</t>
+          <t>A 57812-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45706</v>
+        <v>45631.36516203704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12395,14 +12395,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 7718-2025</t>
+          <t>A 4382-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45706</v>
+        <v>45686.39684027778</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12452,14 +12452,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 22003-2024</t>
+          <t>A 4386-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45443.57090277778</v>
+        <v>45686.39981481482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12509,14 +12509,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 21163-2023</t>
+          <t>A 21279-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45062</v>
+        <v>45440</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12566,14 +12566,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 21171-2023</t>
+          <t>A 26866-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45062</v>
+        <v>45810.71270833333</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12623,14 +12623,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 21306-2023</t>
+          <t>A 23136-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45062</v>
+        <v>45791.39138888889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12680,14 +12680,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 16230-2023</t>
+          <t>A 36597-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45028.41518518519</v>
+        <v>45153.48170138889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12737,14 +12737,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 8947-2025</t>
+          <t>A 10396-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45713.4553125</v>
+        <v>45365.66971064815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12794,14 +12794,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 53487-2025</t>
+          <t>A 26148-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45960.28282407407</v>
+        <v>45091.48842592593</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12851,14 +12851,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 36597-2023</t>
+          <t>A 31885-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45153.48170138889</v>
+        <v>45118.67444444444</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12908,14 +12908,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 26148-2023</t>
+          <t>A 21163-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45091.48842592593</v>
+        <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12965,14 +12965,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 63104-2023</t>
+          <t>A 8942-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45273</v>
+        <v>45713.45041666667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13022,14 +13022,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 31885-2023</t>
+          <t>A 49492-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45118.67444444444</v>
+        <v>45596.36532407408</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13079,14 +13079,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 28574-2024</t>
+          <t>A 27287-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45478</v>
+        <v>45096.64322916666</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13136,14 +13136,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 4382-2025</t>
+          <t>A 63104-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45686.39684027778</v>
+        <v>45273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13193,14 +13193,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 57812-2024</t>
+          <t>A 26145-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45631.36516203704</v>
+        <v>45091.48431712963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13250,14 +13250,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 23136-2025</t>
+          <t>A 33983-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45791.39138888889</v>
+        <v>45134.695</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13307,14 +13307,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 26866-2025</t>
+          <t>A 36654-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45810.71270833333</v>
+        <v>45537</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13364,14 +13364,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 23141-2025</t>
+          <t>A 59726-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45791.39673611111</v>
+        <v>45639.49413194445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13421,14 +13421,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 57056-2022</t>
+          <t>A 9409-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44895.39894675926</v>
+        <v>45359.43568287037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13440,8 +13440,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13478,14 +13483,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 30901-2022</t>
+          <t>A 9412-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44767</v>
+        <v>45359.44203703704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13498,7 +13503,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13535,14 +13540,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 37051-2025</t>
+          <t>A 6757-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45875.36324074074</v>
+        <v>45700.62190972222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13560,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13592,14 +13597,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 13394-2025</t>
+          <t>A 21171-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45735.6999537037</v>
+        <v>45062</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13617,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13649,14 +13654,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 54314-2025</t>
+          <t>A 21306-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45965.32422453703</v>
+        <v>45062</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13674,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13706,14 +13711,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 36770-2025</t>
+          <t>A 58779-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45873.58733796296</v>
+        <v>45635.83408564814</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13731,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13763,14 +13768,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 1379-2026</t>
+          <t>A 2074-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46031.62039351852</v>
+        <v>45672</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13783,7 +13788,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13820,14 +13825,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 59304-2024</t>
+          <t>A 41855-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45637.66958333334</v>
+        <v>45561.44230324074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13840,7 +13845,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13877,14 +13882,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 37995-2025</t>
+          <t>A 45281-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45881.75913194445</v>
+        <v>45576.37672453704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13934,14 +13939,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 55272-2025</t>
+          <t>A 62664-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45968.67791666667</v>
+        <v>44925.53116898148</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13954,7 +13959,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13991,14 +13996,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 4927-2024</t>
+          <t>A 22003-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45329</v>
+        <v>45443.57090277778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14011,7 +14016,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14048,14 +14053,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 38308-2025</t>
+          <t>A 37051-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45883.47233796296</v>
+        <v>45875.36324074074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14068,7 +14073,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14105,14 +14110,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 60004-2025</t>
+          <t>A 61259-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45993.58465277778</v>
+        <v>46000.67261574074</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14125,7 +14130,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14162,14 +14167,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 33646-2022</t>
+          <t>A 51978-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44789.60099537037</v>
+        <v>45607</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14182,7 +14187,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14219,14 +14224,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 46779-2022</t>
+          <t>A 37995-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44851.49621527778</v>
+        <v>45881.75913194445</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14239,7 +14244,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14276,14 +14281,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 9409-2024</t>
+          <t>A 47832-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45359.43568287037</v>
+        <v>45204</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14295,13 +14300,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>0.1</v>
+        <v>2.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14338,14 +14338,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 9412-2024</t>
+          <t>A 10819-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45359.44203703704</v>
+        <v>45722.54821759259</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14395,14 +14395,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 33715-2021</t>
+          <t>A 6318-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44378</v>
+        <v>45698.80875</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14452,14 +14452,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 1383-2026</t>
+          <t>A 4927-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46031.62196759259</v>
+        <v>45329</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14509,14 +14509,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 1385-2026</t>
+          <t>A 11434-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46031.62402777778</v>
+        <v>45726.61469907407</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14566,14 +14566,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 35804-2024</t>
+          <t>A 15055-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45532</v>
+        <v>45743.7028587963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>7.4</v>
+        <v>3.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14623,14 +14623,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 35808-2024</t>
+          <t>A 15060-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45532.64996527778</v>
+        <v>45743.71545138889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14680,14 +14680,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 11154-2022</t>
+          <t>A 15062-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44629.38306712963</v>
+        <v>45743.71922453704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14737,14 +14737,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 4144-2024</t>
+          <t>A 61424-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45323.77944444444</v>
+        <v>46001</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14794,14 +14794,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 28529-2022</t>
+          <t>A 11490-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44748</v>
+        <v>45726</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>7.2</v>
+        <v>2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14851,14 +14851,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 61259-2025</t>
+          <t>A 11488-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46000.67261574074</v>
+        <v>45726.70486111111</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14908,14 +14908,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 59348-2023</t>
+          <t>A 12094-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45253</v>
+        <v>45729.32310185185</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14927,8 +14927,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>0.5</v>
+        <v>6.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14965,14 +14970,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 61424-2025</t>
+          <t>A 61621-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46001</v>
+        <v>46002.39636574074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14985,7 +14990,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15022,14 +15027,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 11938-2025</t>
+          <t>A 14719-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45728.53489583333</v>
+        <v>45742.61819444445</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15042,7 +15047,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15079,14 +15084,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 61621-2025</t>
+          <t>A 23994-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46002.39636574074</v>
+        <v>45078</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15098,8 +15103,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15136,14 +15146,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 11293-2024</t>
+          <t>A 59304-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45371.83412037037</v>
+        <v>45637.66958333334</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15156,7 +15166,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15193,14 +15203,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 11296-2024</t>
+          <t>A 9965-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45371.84763888889</v>
+        <v>45719</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15213,7 +15223,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15250,14 +15260,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 16075-2025</t>
+          <t>A 9976-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45749.68863425926</v>
+        <v>45719</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15270,7 +15280,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15307,14 +15317,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 11490-2025</t>
+          <t>A 40024-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45726</v>
+        <v>44418.4324537037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15327,7 +15337,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15364,14 +15374,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 31617-2022</t>
+          <t>A 12071-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44775.64850694445</v>
+        <v>45728.71550925926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15384,7 +15394,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15421,14 +15431,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 7069-2025</t>
+          <t>A 6774-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45701.66392361111</v>
+        <v>45700.64171296296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15441,7 +15451,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15478,14 +15488,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 8789-2024</t>
+          <t>A 22594-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45356.60851851852</v>
+        <v>45071.49386574074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15498,7 +15508,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15535,14 +15545,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 10346-2021</t>
+          <t>A 13394-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44257</v>
+        <v>45735.6999537037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15555,7 +15565,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15592,14 +15602,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 4919-2024</t>
+          <t>A 16075-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45329</v>
+        <v>45749.68863425926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15612,7 +15622,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15649,14 +15659,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 58890-2024</t>
+          <t>A 5829-2026</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45636.46195601852</v>
+        <v>46052</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15669,7 +15679,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15706,14 +15716,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 15020-2025</t>
+          <t>A 6136-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45743.64266203704</v>
+        <v>46054.64793981481</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15726,7 +15736,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15763,14 +15773,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 71676-2021</t>
+          <t>A 36368-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44539</v>
+        <v>44390</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15782,8 +15792,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>8.1</v>
+        <v>2.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15820,14 +15835,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 6135-2026</t>
+          <t>A 24941-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>46054.64555555556</v>
+        <v>45461</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15839,8 +15854,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15877,14 +15897,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 6136-2026</t>
+          <t>A 6137-2026</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>46054.64793981481</v>
+        <v>46054.65030092592</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15897,7 +15917,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15934,14 +15954,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 6137-2026</t>
+          <t>A 6135-2026</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>46054.65030092592</v>
+        <v>46054.64555555556</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15954,7 +15974,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15991,14 +16011,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 5829-2026</t>
+          <t>A 53378-2021</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>46052</v>
+        <v>44468.60568287037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16011,7 +16031,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16048,14 +16068,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 62142-2024</t>
+          <t>A 46779-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45656.66166666667</v>
+        <v>44851.49621527778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16068,7 +16088,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.5</v>
+        <v>6.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16105,14 +16125,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 62143-2024</t>
+          <t>A 11961-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45656.66363425926</v>
+        <v>44994</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16125,7 +16145,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16162,14 +16182,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 14719-2025</t>
+          <t>A 9417-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45742.61819444445</v>
+        <v>44981</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16182,7 +16202,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16219,14 +16239,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 14721-2025</t>
+          <t>A 10664-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45742.62212962963</v>
+        <v>45721.73804398148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16239,7 +16259,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>6.1</v>
+        <v>15.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16276,14 +16296,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 51331-2022</t>
+          <t>A 10665-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44869</v>
+        <v>45721.74442129629</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16296,7 +16316,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16333,14 +16353,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 28608-2023</t>
+          <t>A 62142-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45103</v>
+        <v>45656.66166666667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16353,7 +16373,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16390,14 +16410,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 17212-2025</t>
+          <t>A 62143-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45756.44349537037</v>
+        <v>45656.66363425926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16410,7 +16430,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16447,14 +16467,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 17151-2025</t>
+          <t>A 4919-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45756.32365740741</v>
+        <v>45329</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16467,7 +16487,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16504,14 +16524,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 51978-2024</t>
+          <t>A 17293-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45607</v>
+        <v>45756.58894675926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16524,7 +16544,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16561,14 +16581,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 57790-2022</t>
+          <t>A 16887-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44897.655625</v>
+        <v>45755</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16580,8 +16600,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>18.8</v>
+        <v>3.5</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16618,14 +16643,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 11961-2023</t>
+          <t>A 61976-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44994</v>
+        <v>45653.62631944445</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16638,7 +16663,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16675,14 +16700,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 7801-2025</t>
+          <t>A 8170-2026</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45706</v>
+        <v>46063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16695,7 +16720,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16732,14 +16757,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 27295-2023</t>
+          <t>A 8743-2026</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45096.64859953704</v>
+        <v>46066.52289351852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16751,8 +16776,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16789,14 +16819,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 11958-2023</t>
+          <t>A 42412-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44994</v>
+        <v>44831</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16809,7 +16839,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16846,14 +16876,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 37823-2023</t>
+          <t>A 12064-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45160</v>
+        <v>44997</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16866,7 +16896,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.4</v>
+        <v>10.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16903,14 +16933,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 8170-2026</t>
+          <t>A 65199-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46063</v>
+        <v>45288</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16923,7 +16953,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16960,14 +16990,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 14843-2024</t>
+          <t>A 71676-2021</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45398.38857638889</v>
+        <v>44539</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16980,7 +17010,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.5</v>
+        <v>8.1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17017,14 +17047,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 274-2026</t>
+          <t>A 14898-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>46027.46872685185</v>
+        <v>45014</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17037,7 +17067,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17074,14 +17104,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 54319-2024</t>
+          <t>A 274-2026</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45617.35008101852</v>
+        <v>46027.46872685185</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17094,7 +17124,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17131,14 +17161,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 8743-2026</t>
+          <t>A 49489-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>46066.52289351852</v>
+        <v>45596.36135416666</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,13 +17180,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G282" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17193,14 +17218,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 6507-2025</t>
+          <t>A 8167-2026</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45699.64993055556</v>
+        <v>46063</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17213,7 +17238,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17250,14 +17275,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 31887-2022</t>
+          <t>A 10672-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44777.45361111111</v>
+        <v>45721.78883101852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17270,7 +17295,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17307,14 +17332,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 7335-2023</t>
+          <t>A 17151-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44971.23162037037</v>
+        <v>45756.32365740741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17327,7 +17352,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17364,14 +17389,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 36984-2021</t>
+          <t>A 15163-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44393</v>
+        <v>45400.32577546296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17383,13 +17408,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G286" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17426,14 +17446,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 8167-2026</t>
+          <t>A 63598-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>46063</v>
+        <v>45275.47011574074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17446,7 +17466,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17483,14 +17503,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 24459-2022</t>
+          <t>A 12404-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44726</v>
+        <v>44999.50241898148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17503,7 +17523,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17540,14 +17560,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 51316-2023</t>
+          <t>A 58890-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45219.57056712963</v>
+        <v>45636.46195601852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17560,7 +17580,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17597,14 +17617,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 10665-2025</t>
+          <t>A 47321-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45721.74442129629</v>
+        <v>45587.38203703704</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17617,7 +17637,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17654,14 +17674,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 10572-2024</t>
+          <t>A 10346-2021</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45366.64084490741</v>
+        <v>44257</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17674,7 +17694,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17711,14 +17731,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 4979-2022</t>
+          <t>A 59696-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44593.58465277778</v>
+        <v>45639.41188657407</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17731,7 +17751,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17768,14 +17788,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 2415-2023</t>
+          <t>A 14721-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44942</v>
+        <v>45742.62212962963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17788,7 +17808,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>19.2</v>
+        <v>6.1</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17825,14 +17845,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 47832-2023</t>
+          <t>A 7801-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45204</v>
+        <v>45706</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17845,7 +17865,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17882,14 +17902,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 16887-2025</t>
+          <t>A 22589-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45755</v>
+        <v>45071.48055555556</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17901,13 +17921,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G295" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17944,14 +17959,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 39418-2021</t>
+          <t>A 51-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44414</v>
+        <v>45659.38747685185</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17964,7 +17979,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18001,14 +18016,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 7798-2025</t>
+          <t>A 62141-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45706</v>
+        <v>45656.65996527778</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18021,7 +18036,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18058,14 +18073,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 1765-2023</t>
+          <t>A 10572-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44936</v>
+        <v>45366.64084490741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18078,7 +18093,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>7.3</v>
+        <v>0.5</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18115,14 +18130,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 30996-2023</t>
+          <t>A 11306-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45113</v>
+        <v>45371.87320601852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18135,7 +18150,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18172,14 +18187,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 62139-2024</t>
+          <t>A 6504-2022</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45656.65846064815</v>
+        <v>44601.44640046296</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18192,7 +18207,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18229,14 +18244,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 23994-2023</t>
+          <t>A 33646-2022</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45078</v>
+        <v>44789.60099537037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18248,13 +18263,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G301" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18291,14 +18301,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 52317-2022</t>
+          <t>A 7798-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>44873</v>
+        <v>45706</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18311,7 +18321,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18348,14 +18358,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 20750-2024</t>
+          <t>A 4648-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45436</v>
+        <v>45687.6631712963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18368,7 +18378,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18405,14 +18415,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 12071-2025</t>
+          <t>A 8677-2022</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45728.71550925926</v>
+        <v>44613</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18425,7 +18435,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18462,14 +18472,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 10140-2025</t>
+          <t>A 31302-2022</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45719</v>
+        <v>44773.47849537037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18482,7 +18492,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18519,14 +18529,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 36364-2021</t>
+          <t>A 11204-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44390</v>
+        <v>45726.31684027778</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18538,13 +18548,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G306" t="n">
-        <v>13.3</v>
+        <v>1.5</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18581,14 +18586,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 34445-2024</t>
+          <t>A 27295-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45525</v>
+        <v>45096.64859953704</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18601,7 +18606,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18638,14 +18643,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 34449-2024</t>
+          <t>A 58324-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45525.55266203704</v>
+        <v>45632.62684027778</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18658,7 +18663,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18695,14 +18700,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 5812-2024</t>
+          <t>A 58330-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45335</v>
+        <v>45632.63079861111</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18715,7 +18720,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18752,14 +18757,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 12094-2025</t>
+          <t>A 24459-2022</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45729.32310185185</v>
+        <v>44726</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18771,13 +18776,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G310" t="n">
-        <v>6.7</v>
+        <v>4</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18814,14 +18814,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 31293-2024</t>
+          <t>A 10140-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45504.47707175926</v>
+        <v>45719</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18871,14 +18871,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 6504-2022</t>
+          <t>A 16041-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44601.44640046296</v>
+        <v>45749.63190972222</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18928,14 +18928,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 41508-2024</t>
+          <t>A 15076-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45560</v>
+        <v>45743.78899305555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18985,14 +18985,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 59696-2024</t>
+          <t>A 15093-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45639.41188657407</v>
+        <v>45744.32858796296</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19042,14 +19042,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 33494-2023</t>
+          <t>A 15096-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45131</v>
+        <v>45744.3337962963</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19099,14 +19099,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 33496-2023</t>
+          <t>A 15122-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45131.45756944444</v>
+        <v>45744.32612268518</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19156,14 +19156,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 10137-2025</t>
+          <t>A 31887-2022</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45719</v>
+        <v>44777.45361111111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19213,14 +19213,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 11434-2025</t>
+          <t>A 36364-2021</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45726.61469907407</v>
+        <v>44390</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19232,8 +19232,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G318" t="n">
-        <v>1.6</v>
+        <v>13.3</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19270,14 +19275,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 11204-2025</t>
+          <t>A 62741-2022</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45726.31684027778</v>
+        <v>44925.90137731482</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19290,7 +19295,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19327,14 +19332,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 31302-2022</t>
+          <t>A 13669-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>44773.47849537037</v>
+        <v>45736.85748842593</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19347,7 +19352,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>2.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19384,14 +19389,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 53051-2021</t>
+          <t>A 15020-2025</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>44467.73666666666</v>
+        <v>45743.64266203704</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19403,13 +19408,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G321" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19446,14 +19446,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 17293-2025</t>
+          <t>A 37823-2023</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45756.58894675926</v>
+        <v>45160</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19503,14 +19503,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 24941-2024</t>
+          <t>A 3281-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45461</v>
+        <v>45679</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,13 +19522,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G323" t="n">
-        <v>0.6</v>
+        <v>10.8</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19565,14 +19560,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 15076-2025</t>
+          <t>A 7069-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45743.78899305555</v>
+        <v>45701.66392361111</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19585,7 +19580,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19622,14 +19617,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 61975-2024</t>
+          <t>A 12218-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45653.62395833333</v>
+        <v>45729.53674768518</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19642,7 +19637,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19679,14 +19674,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 61977-2024</t>
+          <t>A 34445-2024</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45653.62820601852</v>
+        <v>45525</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19699,7 +19694,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19736,14 +19731,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 15110-2025</t>
+          <t>A 34449-2024</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45744.35528935185</v>
+        <v>45525.55266203704</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19756,7 +19751,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19793,14 +19788,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 14052-2023</t>
+          <t>A 11068-2023</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45008</v>
+        <v>44992</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19813,7 +19808,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>2.2</v>
+        <v>6.3</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19850,14 +19845,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 15055-2025</t>
+          <t>A 9527-2024</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45743.7028587963</v>
+        <v>45359.66539351852</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19869,8 +19864,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G329" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19907,14 +19907,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 15060-2025</t>
+          <t>A 4979-2022</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45743.71545138889</v>
+        <v>44593.58465277778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19964,14 +19964,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 15062-2025</t>
+          <t>A 5812-2024</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45743.71922453704</v>
+        <v>45335</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -20021,14 +20021,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 15074-2025</t>
+          <t>A 31617-2022</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45743.78336805556</v>
+        <v>44775.64850694445</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20078,14 +20078,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 57709-2023</t>
+          <t>A 57056-2022</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45246.68188657407</v>
+        <v>44895.39894675926</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -20135,14 +20135,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 47321-2024</t>
+          <t>A 11310-2024</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45587.38203703704</v>
+        <v>45371.87774305556</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>9.699999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20192,14 +20192,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 52909-2021</t>
+          <t>A 21721-2023</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>44467</v>
+        <v>45065</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20249,14 +20249,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 7810-2025</t>
+          <t>A 9423-2024</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45706</v>
+        <v>45359.46068287037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20306,14 +20306,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 11306-2024</t>
+          <t>A 9848-2024</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45371.87320601852</v>
+        <v>45363.36511574074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,8 +20325,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G337" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20363,14 +20368,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 12064-2023</t>
+          <t>A 4144-2024</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>44997</v>
+        <v>45323.77944444444</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20383,7 +20388,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>10.5</v>
+        <v>2</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20420,14 +20425,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 63598-2023</t>
+          <t>A 8789-2024</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45275.47011574074</v>
+        <v>45356.60851851852</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20440,7 +20445,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20477,14 +20482,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 32030-2024</t>
+          <t>A 28529-2022</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45510</v>
+        <v>44748</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,13 +20501,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G340" t="n">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20539,14 +20539,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 4145-2024</t>
+          <t>A 51331-2022</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45323.78577546297</v>
+        <v>44869</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20596,14 +20596,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 48406-2023</t>
+          <t>A 6507-2025</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45205</v>
+        <v>45699.64993055556</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20653,14 +20653,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 48754-2023</t>
+          <t>A 33494-2023</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>45208</v>
+        <v>45131</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20710,14 +20710,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 53378-2021</t>
+          <t>A 33496-2023</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>44468.60568287037</v>
+        <v>45131.45756944444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20767,14 +20767,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 59623-2024</t>
+          <t>A 17401-2023</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>45638</v>
+        <v>45035</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>19.2</v>
+        <v>0.5</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20824,14 +20824,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 14846-2024</t>
+          <t>A 51316-2023</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>45398.41739583333</v>
+        <v>45219.57056712963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20881,14 +20881,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 4985-2025</t>
+          <t>A 48406-2023</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45691.30831018519</v>
+        <v>45205</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20938,14 +20938,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 10672-2025</t>
+          <t>A 1765-2023</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45721.78883101852</v>
+        <v>44936</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>2.8</v>
+        <v>7.3</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -20995,14 +20995,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 6513-2025</t>
+          <t>A 9548-2024</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>45699.65769675926</v>
+        <v>45359</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -21052,14 +21052,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 27287-2023</t>
+          <t>A 71891-2021</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45096.64322916666</v>
+        <v>44543</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -21109,14 +21109,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 10815-2025</t>
+          <t>A 11293-2024</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>45722.54424768518</v>
+        <v>45371.83412037037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -21166,14 +21166,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 51332-2022</t>
+          <t>A 11296-2024</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>44869</v>
+        <v>45371.84763888889</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -21223,14 +21223,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 6774-2025</t>
+          <t>A 15074-2025</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45700.64171296296</v>
+        <v>45743.78336805556</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -21280,14 +21280,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 31884-2022</t>
+          <t>A 14843-2024</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>44777.44266203704</v>
+        <v>45398.38857638889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -21337,14 +21337,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 4648-2025</t>
+          <t>A 14846-2024</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>45687.6631712963</v>
+        <v>45398.41739583333</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -21394,14 +21394,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 49505-2024</t>
+          <t>A 28036-2023</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>45596.37319444444</v>
+        <v>45099</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -21451,14 +21451,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 42412-2022</t>
+          <t>A 56293-2023</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>44831</v>
+        <v>45242.61020833333</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21508,14 +21508,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 11488-2025</t>
+          <t>A 56294-2023</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>45726.70486111111</v>
+        <v>45242</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21565,14 +21565,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 16041-2025</t>
+          <t>A 62139-2024</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>45749.63190972222</v>
+        <v>45656.65846064815</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21622,14 +21622,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 61446-2024</t>
+          <t>A 15061-2025</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>45646.48326388889</v>
+        <v>45743.71736111111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21679,14 +21679,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 11068-2023</t>
+          <t>A 49505-2024</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>44992</v>
+        <v>45596.37319444444</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>6.3</v>
+        <v>0.3</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21736,14 +21736,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 19502-2022</t>
+          <t>A 44353-2023</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>44693</v>
+        <v>45188</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21793,14 +21793,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 62742-2022</t>
+          <t>A 48754-2023</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>44925.90333333334</v>
+        <v>45208</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21850,14 +21850,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 14487-2025</t>
+          <t>A 31884-2022</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>45741.60409722223</v>
+        <v>44777.44266203704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -21907,14 +21907,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 6318-2025</t>
+          <t>A 11154-2022</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>45698.80875</v>
+        <v>44629.38306712963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21964,14 +21964,14 @@
     <row r="366" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 12404-2023</t>
+          <t>A 11097-2023</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>44999.50241898148</v>
+        <v>44992</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -22021,14 +22021,14 @@
     <row r="367" ht="15" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
-          <t>A 21009-2025</t>
+          <t>A 16045-2025</t>
         </is>
       </c>
       <c r="B367" s="1" t="n">
-        <v>45777.4967824074</v>
+        <v>45749.63446759259</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -22078,14 +22078,14 @@
     <row r="368" ht="15" customHeight="1">
       <c r="A368" t="inlineStr">
         <is>
-          <t>A 20881-2025</t>
+          <t>A 61975-2024</t>
         </is>
       </c>
       <c r="B368" s="1" t="n">
-        <v>45777.36047453704</v>
+        <v>45653.62395833333</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -22135,14 +22135,14 @@
     <row r="369" ht="15" customHeight="1">
       <c r="A369" t="inlineStr">
         <is>
-          <t>A 20883-2025</t>
+          <t>A 61977-2024</t>
         </is>
       </c>
       <c r="B369" s="1" t="n">
-        <v>45777.36590277778</v>
+        <v>45653.62820601852</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -22192,14 +22192,14 @@
     <row r="370" ht="15" customHeight="1">
       <c r="A370" t="inlineStr">
         <is>
-          <t>A 20781-2025</t>
+          <t>A 11938-2025</t>
         </is>
       </c>
       <c r="B370" s="1" t="n">
-        <v>45776</v>
+        <v>45728.53489583333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -22249,14 +22249,14 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>A 21968-2025</t>
+          <t>A 12831-2025</t>
         </is>
       </c>
       <c r="B371" s="1" t="n">
-        <v>45784.62885416667</v>
+        <v>45733.63225694445</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -575,7 +575,7 @@
         <v>45846.63826388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45761.37239583334</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45359.66121527777</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45659.39741898148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45288</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44645</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45701</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44873</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44645</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45149</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45723</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45719</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44840.59173611111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45197</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45737.67560185185</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44804.90865740741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44308.50634259259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44286.34952546296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44286.37935185185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44537</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>44390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44368.66283564815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44279</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44853.50788194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44613</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44462</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44298.52335648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44298.52487268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44285</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44539</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44740</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44684.3947800926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44455.7780787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44383</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44767.60487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44819</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44250</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44274</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44510</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44538.43275462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44251</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45632.62684027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45632.63079861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>45288</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>44543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45359.66539351852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45596.36532407408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45280</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45359</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45330</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44967.64511574074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>45719</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>45719</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44992</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44600</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45035</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45359.46068287037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45504.8096875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45616.3218287037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45733.63225694445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>44925.90137731482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44925.90475694444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>45653.62631944445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>44981</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>45188</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>45659.38747685185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>45749.63446759259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>45371.87774305556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>44986.80671296296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44418.4324537037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45400.32577546296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>45461</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45736.85748842593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>45532.65364583334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>45721.73804398148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>45817.57148148148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>45242.61020833333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>45242</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>45103</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>45818</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>45818.660625</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>45726.61204861111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>45014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>45819.31177083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>45820.63842592593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>45820.62296296296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>45743.71736111111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>45071.48055555556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>45370</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>45888.61770833333</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>45888.46474537037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>45363.36511574074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>45889.41831018519</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>45889.42100694445</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>45099</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>45890</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>45656.65996527778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>45744.32858796296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45744.3337962963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45744.32612268518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45065</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45897.40917824074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44390</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>45834.66146990741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>45834.65045138889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>45071.49386574074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>45867.654375</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>45838.64533564815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8241,7 +8241,7 @@
         <v>45839.61362268519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8298,7 +8298,7 @@
         <v>45679</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45908.44385416667</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>45835</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>45845.4681712963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>45846.48792824074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>45912.33763888889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>45846.6321875</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>45596.36135416666</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>45729.53674768518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>45848.36886574074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>45848</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>45849.68076388889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45917.56202546296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45917.56850694444</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>45855.33679398148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45722.54821759259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>45921.83819444444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>45922</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>45922.79663194445</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>45922.84188657408</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>45922</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>44895.39894675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45861.38625</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45922.79326388889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45922.79810185185</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>45922.84633101852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>45861.38344907408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45761</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>45922.78539351852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>45922.86137731482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>45862.48679398148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>45735.6999537037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>45581.59541666666</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45134.695</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>45791.38755787037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>45537</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45700.62190972222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45713.45041666667</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45524.70024305556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45524.71290509259</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45576.37672453704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44925.53116898148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45561.44230324074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45639.49413194445</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45672</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45478</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45365.66971064815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45686.39981481482</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45637.66958333334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45091.48431712963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45440</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45337.36503472222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45337</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45635.83408564814</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45706</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45443.57090277778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45062</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45062</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45028.41518518519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45713.4553125</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45153.48170138889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45091.48842592593</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45273</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45118.67444444444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45478</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45686.39684027778</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45631.36516203704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45791.39138888889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>45810.71270833333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>45791.39673611111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>45875.36324074074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>45930</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12630,7 +12630,7 @@
         <v>45873.58733796296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>44789.60099537037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>44851.49621527778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>45359.43568287037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45359.44203703704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>45936.35866898148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45881.75913194445</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45329</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45532</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45532.64996527778</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45883.47233796296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45940.61109953704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>44629.38306712963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>45323.77944444444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44748</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>45253</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>45923</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>45923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>45950</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>45728.53489583333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>45952.80421296296</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>45371.83412037037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>45371.84763888889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45749.68863425926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45726</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>44775.64850694445</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>45701.66392361111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45960.28282407407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45356.60851851852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45965.32422453703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>44257</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45329</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>45968.67791666667</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>45636.46195601852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>45743.64266203704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>44539</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>45656.66166666667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45656.66363425926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45742.61819444445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45742.62212962963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>44869</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45103</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45756.44349537037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45756.32365740741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>45607</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>44897.655625</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44994</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15371,7 +15371,7 @@
         <v>45706</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>45096.64859953704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>45993.58465277778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44994</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>45160</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>45398.38857638889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45617.35008101852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>45699.64993055556</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44777.45361111111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44971.23162037037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44393</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>46000.67261574074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>44726</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>46001</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>45219.57056712963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>45721.74442129629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>46002.39636574074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>45366.64084490741</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44593.58465277778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>45204</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>45755</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44414</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>45706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44936</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>46054.64555555556</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>46054.64793981481</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>46054.65030092592</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>45656.65846064815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>46052</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44873</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>45436</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>45728.71550925926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45719</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>45525</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>45525.55266203704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>45335</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45729.32310185185</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>46063</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>46027.46872685185</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>45504.47707175926</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44601.44640046296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>46066.52289351852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>45560</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45639.41188657407</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>46063</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45131</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45131.45756944444</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>46031.62039351852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>46031.62196759259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45719</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>46031.62402777778</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45726.61469907407</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>45726.31684027778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>44773.47849537037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44467.73666666666</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>45756.58894675926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45461</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45743.78899305555</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>45653.62395833333</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45653.62820601852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>45744.35528935185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45008</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>45743.7028587963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>45743.71545138889</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>45743.71922453704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45743.78336805556</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45246.68188657407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>45587.38203703704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44467</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45706</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>45371.87320601852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44997</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>45275.47011574074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>45510</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>45323.78577546297</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45205</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19976,7 +19976,7 @@
         <v>45208</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20033,7 +20033,7 @@
         <v>44468.60568287037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20090,7 +20090,7 @@
         <v>45638</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>45398.41739583333</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20204,7 +20204,7 @@
         <v>45691.30831018519</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>45721.78883101852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>45699.65769675926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>45096.64322916666</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>45722.54424768518</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44869</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>45700.64171296296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20603,7 +20603,7 @@
         <v>44777.44266203704</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         <v>45687.6631712963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>45596.37319444444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         <v>44831</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>45726.70486111111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         <v>45749.63190972222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>45646.48326388889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44992</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44693</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>44925.90333333334</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>45741.60409722223</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45698.80875</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>44999.50241898148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45777.4967824074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45777.36047453704</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>45777.36590277778</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         <v>45776</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21572,7 +21572,7 @@
         <v>45784.62885416667</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21629,7 +21629,7 @@
         <v>45784.5525</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>45610</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21743,7 +21743,7 @@
         <v>45792.62453703704</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         <v>45793.53262731482</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>45679</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>45800</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>45801</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>45265</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>45338</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>45749</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45776.74407407407</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>45817.56953703704</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -575,7 +575,7 @@
         <v>45846.63826388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45761.37239583334</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45359.66121527777</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45659.39741898148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45288</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44645</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45701</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44873</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44645</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45149</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45723</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45719</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44840.59173611111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45197</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45737.67560185185</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44804.90865740741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44308.50634259259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44286.34952546296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44286.37935185185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44537</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>44390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44368.66283564815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44392</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44279</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44853.50788194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44613</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44462</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44298.52335648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44298.52487268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44285</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44539</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44740</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44684.3947800926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44455.7780787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44383</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44767.60487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44819</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44250</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44274</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44510</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44538.43275462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44251</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45632.62684027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45632.63079861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>45288</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>44543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45359.66539351852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45596.36532407408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45280</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45359</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45330</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44967.64511574074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>45719</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>45719</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44992</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44600</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45035</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45359.46068287037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45504.8096875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45616.3218287037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45733.63225694445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>44925.90137731482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44925.90475694444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>45653.62631944445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>44981</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>45188</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>45659.38747685185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>45749.63446759259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>45371.87774305556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>44986.80671296296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44418.4324537037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45400.32577546296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>45461</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45736.85748842593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>45532.65364583334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>45721.73804398148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>45817.57148148148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>45242.61020833333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>45242</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>45103</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>45818</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>45818.660625</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>45726.61204861111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>45014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>45819.31177083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>45820.63842592593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>45820.62296296296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>45743.71736111111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>45071.48055555556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>45370</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>45888.61770833333</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>45888.46474537037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>45363.36511574074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>45889.41831018519</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>45889.42100694445</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>45099</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>45890</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>45656.65996527778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>45744.32858796296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45744.3337962963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45744.32612268518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45065</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45897.40917824074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44390</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>45834.66146990741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>45834.65045138889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>45071.49386574074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>45867.654375</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>45838.64533564815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8241,7 +8241,7 @@
         <v>45839.61362268519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8298,7 +8298,7 @@
         <v>45679</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45908.44385416667</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>45835</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>45845.4681712963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>45846.48792824074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>45912.33763888889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>45846.6321875</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>45596.36135416666</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>45729.53674768518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>45848.36886574074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>45848</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>45849.68076388889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45917.56202546296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45917.56850694444</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>45855.33679398148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45722.54821759259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>45921.83819444444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>45922</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>45922.79663194445</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>45922.84188657408</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>45922</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>44895.39894675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44767</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45861.38625</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45922.79326388889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45922.79810185185</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>45922.84633101852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>45861.38344907408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45761</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>45922.78539351852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>45922.86137731482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>45862.48679398148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>45735.6999537037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>45581.59541666666</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45134.695</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>45791.38755787037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>45537</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45700.62190972222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45713.45041666667</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45524.70024305556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45524.71290509259</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45576.37672453704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44925.53116898148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45561.44230324074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45639.49413194445</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45672</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45478</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45365.66971064815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45686.39981481482</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45637.66958333334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45091.48431712963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45440</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45337.36503472222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45337</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45635.83408564814</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45706</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45443.57090277778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45062</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45062</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45028.41518518519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45713.4553125</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45153.48170138889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45091.48842592593</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45273</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45118.67444444444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45478</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45686.39684027778</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45631.36516203704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45791.39138888889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>45810.71270833333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>45791.39673611111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>45875.36324074074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>45930</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12630,7 +12630,7 @@
         <v>45873.58733796296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>44789.60099537037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>44851.49621527778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>45359.43568287037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45359.44203703704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>45936.35866898148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45881.75913194445</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45329</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45532</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45532.64996527778</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45883.47233796296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45940.61109953704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>44629.38306712963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>45323.77944444444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44748</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>45253</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>45923</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>45923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>45950</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>45728.53489583333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>45952.80421296296</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>45371.83412037037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>45371.84763888889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45749.68863425926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45726</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>44775.64850694445</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>45701.66392361111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45960.28282407407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45356.60851851852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45965.32422453703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>44257</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45329</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>45968.67791666667</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>45636.46195601852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>45743.64266203704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>44539</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>45656.66166666667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45656.66363425926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45742.61819444445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45742.62212962963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>44869</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>45103</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45756.44349537037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45756.32365740741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>45607</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>44897.655625</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44994</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15371,7 +15371,7 @@
         <v>45706</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>45096.64859953704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>45993.58465277778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44994</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>45160</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>45398.38857638889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45617.35008101852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>45699.64993055556</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44777.45361111111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44971.23162037037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44393</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>46000.67261574074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>44726</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>46001</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>45219.57056712963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>45721.74442129629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>46002.39636574074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>45366.64084490741</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44593.58465277778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>45204</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>45755</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44414</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>45706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44936</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>46054.64555555556</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>46054.64793981481</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>46054.65030092592</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>45656.65846064815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>46052</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44873</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>45436</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>45728.71550925926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45719</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>45525</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>45525.55266203704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>45335</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45729.32310185185</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>46063</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>46027.46872685185</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>45504.47707175926</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44601.44640046296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>46066.52289351852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>45560</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45639.41188657407</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>46063</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45131</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45131.45756944444</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>46031.62039351852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>46031.62196759259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45719</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>46031.62402777778</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45726.61469907407</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>45726.31684027778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>44773.47849537037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44467.73666666666</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>45756.58894675926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45461</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45743.78899305555</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>45653.62395833333</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45653.62820601852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>45744.35528935185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45008</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>45743.7028587963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>45743.71545138889</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>45743.71922453704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45743.78336805556</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45246.68188657407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>45587.38203703704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44467</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45706</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>45371.87320601852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44997</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>45275.47011574074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>45510</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>45323.78577546297</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45205</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19976,7 +19976,7 @@
         <v>45208</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20033,7 +20033,7 @@
         <v>44468.60568287037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20090,7 +20090,7 @@
         <v>45638</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>45398.41739583333</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20204,7 +20204,7 @@
         <v>45691.30831018519</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>45721.78883101852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>45699.65769675926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>45096.64322916666</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>45722.54424768518</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44869</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>45700.64171296296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20603,7 +20603,7 @@
         <v>44777.44266203704</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         <v>45687.6631712963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>45596.37319444444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         <v>44831</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>45726.70486111111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         <v>45749.63190972222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>45646.48326388889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44992</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44693</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>44925.90333333334</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>45741.60409722223</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45698.80875</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>44999.50241898148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45777.4967824074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45777.36047453704</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>45777.36590277778</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         <v>45776</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21572,7 +21572,7 @@
         <v>45784.62885416667</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21629,7 +21629,7 @@
         <v>45784.5525</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>45610</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21743,7 +21743,7 @@
         <v>45792.62453703704</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         <v>45793.53262731482</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>45679</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>45800</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>45801</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>45265</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>45338</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>45749</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45776.74407407407</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>45817.56953703704</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -575,7 +575,7 @@
         <v>45846.63826388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45761.37239583334</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45359.66121527777</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>45659.39741898148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45288</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44645</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45701</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44873</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44645</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45737.67560185185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>45197</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>45723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44840.59173611111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45719</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45149</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44804.90865740741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44308.50634259259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44286.34952546296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44286.37935185185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44537</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>44390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44368.66283564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44392</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44279</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44853.50788194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44613</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44462</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44298.52335648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44298.52487268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44285</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44539</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44740</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44684.3947800926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44455.7780787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44383</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44767.60487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44819</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44274</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44510</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44538.43275462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45719</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45330</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>44869</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45756.44349537037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44414</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>45370</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>44767</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45436</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>44925.90333333334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44467.73666666666</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45504.47707175926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>45504.8096875</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44942</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44971.23162037037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45532.64996527778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45532.65364583334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44393</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44487</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44378</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>45801</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>45280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45883.47233796296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>44994</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45888.61770833333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44897.655625</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45888.46474537037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45726.61204861111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44925.90475694444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45616.3218287037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45265</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45338</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45510</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>45889.41831018519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>45889.42100694445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>45818.660625</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>45890</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>45817.56953703704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>45103</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45776.74407407407</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>45817.57148148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>45560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>45691.30831018519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44600</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>45818</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>45820.62296296296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>45819.31177083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>45741.60409722223</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>44693</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>45246.68188657407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>45820.63842592593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>45897.40917824074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44986.80671296296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>45867.654375</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>45908.44385416667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>45834.65045138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>45834.66146990741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>45113</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44967.64511574074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45838.64533564815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45008</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45839.61362268519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>45835</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>45845.4681712963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>45846.48792824074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>45912.33763888889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45846.6321875</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45848</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45461</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45848.36886574074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>45596.36532407408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>45096.64322916666</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>45849.68076388889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>45359.43568287037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>45359.44203703704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>45855.33679398148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>45861.38344907408</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>45861.38625</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>45862.48679398148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>45917.56202546296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>45917.56850694444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>45761</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>45581.59541666666</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>45607</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>45922</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>45922</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>45921.83819444444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>45922.79663194445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>45922.84188657408</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>45204</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>45922.78539351852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>45922.79326388889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>45922.79810185185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>45922.84633101852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45922.86137731482</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>45722.54821759259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>45698.80875</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45478</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>45706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>45706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         <v>45847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>45873.58733796296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>45478</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>45791.38755787037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>45791.39673611111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>45713.4553125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45337.36503472222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45337</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>45028.41518518519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>45524.70024305556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>45524.71290509259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>45631.36516203704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45686.39684027778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>45686.39981481482</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>45440</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>45930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>45810.71270833333</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>45791.39138888889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>45153.48170138889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>45365.66971064815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>45091.48842592593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>45118.67444444444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>45062</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>45713.45041666667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>45726.61469907407</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>45273</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>45091.48431712963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>45134.695</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>45537</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>45639.49413194445</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>45700.62190972222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>45743.7028587963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>45743.71545138889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>45743.71922453704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>45062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45062</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45635.83408564814</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>45672</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45561.44230324074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45576.37672453704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44925.53116898148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45443.57090277778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45726</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45875.36324074074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45726.70486111111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45729.32310185185</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45742.61819444445</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45637.66958333334</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>45881.75913194445</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>45936.35866898148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45719</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>45719</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44418.4324537037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>45329</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45728.71550925926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>45700.64171296296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45940.61109953704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45071.49386574074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45735.6999537037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>45749.68863425926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44390</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>45461</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>45923</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44468.60568287037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>45950</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>45923</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44851.49621527778</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>45952.80421296296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44994</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44981</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>45721.73804398148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>45721.74442129629</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>45656.66166666667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>45656.66363425926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45329</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>45756.58894675926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>45755</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45653.62631944445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45960.28282407407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45965.32422453703</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44831</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45968.67791666667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44997</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>45288</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>45014</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>45596.36135416666</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>45721.78883101852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>45756.32365740741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>45400.32577546296</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>45275.47011574074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>44999.50241898148</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>45636.46195601852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>45587.38203703704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>44257</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45639.41188657407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>45742.62212962963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>45993.58465277778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>45706</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>45071.48055555556</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>45659.38747685185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>46000.67261574074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45656.65996527778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>45366.64084490741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>45371.87320601852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>46001</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44601.44640046296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>46002.39636574074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44789.60099537037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>45706</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>45687.6631712963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44613</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44773.47849537037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>46054.64793981481</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>46054.65030092592</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>45726.31684027778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>46054.64555555556</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>45096.64859953704</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>45632.62684027778</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>45632.63079861111</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44726</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>45719</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>45749.63190972222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>45743.78899305555</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45744.32858796296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>45744.3337962963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>45744.32612268518</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44777.45361111111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>46063</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44390</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44925.90137731482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>45736.85748842593</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45743.64266203704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>46027.46872685185</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>46063</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>46031.62039351852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>46031.62196759259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45679</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>46052</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45701.66392361111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>46031.62402777778</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45729.53674768518</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>46077.65947916666</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45525</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45525.55266203704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>46078.53839120371</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>46078.54032407407</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>46066.52289351852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44992</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>45359.66539351852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44593.58465277778</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>46078.5959375</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>45335</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45638</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>44775.64850694445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>44895.39894675926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>45371.87774305556</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>45065</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>45359.46068287037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45363.36511574074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>45323.77944444444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>45356.60851851852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44748</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>44869</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45699.64993055556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45131</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>45131.45756944444</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>45035</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>45219.57056712963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45205</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19976,7 +19976,7 @@
         <v>44936</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20033,7 +20033,7 @@
         <v>45359</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20090,7 +20090,7 @@
         <v>44543</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>45371.83412037037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20204,7 +20204,7 @@
         <v>45371.84763888889</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>45743.78336805556</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>45398.38857638889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>45398.41739583333</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>45099</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>45242.61020833333</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>45242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20603,7 +20603,7 @@
         <v>45656.65846064815</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         <v>45743.71736111111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>45596.37319444444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         <v>45188</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>45208</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         <v>44777.44266203704</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44629.38306712963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44992</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>45749.63446759259</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>45653.62395833333</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>45653.62820601852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45728.53489583333</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>45733.63225694445</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45617.35008101852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>45699.65769675926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         <v>45253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21572,7 +21572,7 @@
         <v>45646.48326388889</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21629,7 +21629,7 @@
         <v>45744.35528935185</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>45722.54424768518</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21743,7 +21743,7 @@
         <v>45323.78577546297</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         <v>45776</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>45777.4967824074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>45777.36047453704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>45777.36590277778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>45784.62885416667</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>45784.5525</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>45792.62453703704</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45610</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>45793.53262731482</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>45679</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>45800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -575,7 +575,7 @@
         <v>45846.63826388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45761.37239583334</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45359.66121527777</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>45659.39741898148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45288</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44645</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45701</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44873</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44645</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45737.67560185185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>45197</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>45723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44840.59173611111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>45719</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45149</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44804.90865740741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44308.50634259259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44286.34952546296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44286.37935185185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44537</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>44390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44368.66283564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44392</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44279</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44853.50788194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44613</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44462</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44298.52335648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44298.52487268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44285</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44539</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44740</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44684.3947800926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44455.7780787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44383</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44767.60487268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44819</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44274</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44510</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44538.43275462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45719</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45330</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>44869</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45756.44349537037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44414</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>45370</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>44767</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45436</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>44925.90333333334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44467.73666666666</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45504.47707175926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>45504.8096875</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44942</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44971.23162037037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45532.64996527778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45532.65364583334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44393</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44487</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44378</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>45801</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>45280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45883.47233796296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>44994</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45888.61770833333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44897.655625</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45888.46474537037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45726.61204861111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44925.90475694444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45616.3218287037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45265</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45338</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45510</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>45889.41831018519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>45889.42100694445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>45818.660625</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>45890</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>45817.56953703704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>45103</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45776.74407407407</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>45817.57148148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>45560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>45691.30831018519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44600</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>45818</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>45820.62296296296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>45819.31177083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>45741.60409722223</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>44693</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>45246.68188657407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>45820.63842592593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>45897.40917824074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44986.80671296296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>45867.654375</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>45908.44385416667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>45834.65045138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>45834.66146990741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>45113</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44967.64511574074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45838.64533564815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45008</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45839.61362268519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>45835</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>45845.4681712963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>45846.48792824074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>45912.33763888889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45846.6321875</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45848</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45461</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45848.36886574074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>45596.36532407408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>45096.64322916666</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>45849.68076388889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>45359.43568287037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>45359.44203703704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>45855.33679398148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>45861.38344907408</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>45861.38625</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>45862.48679398148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>45917.56202546296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>45917.56850694444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>45761</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>45581.59541666666</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>45607</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>45922</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>45922</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>45921.83819444444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>45922.79663194445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>45922.84188657408</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>45204</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>45922.78539351852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>45922.79326388889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>45922.79810185185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>45922.84633101852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45922.86137731482</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>45722.54821759259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>45698.80875</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45478</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>45706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>45706</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         <v>45847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>45873.58733796296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>45478</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>45791.38755787037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>45791.39673611111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>45713.4553125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45337.36503472222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45337</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>45028.41518518519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>45524.70024305556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>45524.71290509259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>45631.36516203704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45686.39684027778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>45686.39981481482</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>45440</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>45930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>45810.71270833333</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>45791.39138888889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>45153.48170138889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>45365.66971064815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>45091.48842592593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>45118.67444444444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>45062</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>45713.45041666667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>45726.61469907407</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>45273</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>45091.48431712963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>45134.695</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>45537</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>45639.49413194445</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>45700.62190972222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>45743.7028587963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>45743.71545138889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>45743.71922453704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>45062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45062</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45635.83408564814</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>45672</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45561.44230324074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45576.37672453704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44925.53116898148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45443.57090277778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45726</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45875.36324074074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45726.70486111111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45729.32310185185</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45742.61819444445</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45637.66958333334</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>45881.75913194445</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>45936.35866898148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45719</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>45719</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44418.4324537037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>45329</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45728.71550925926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>45700.64171296296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45940.61109953704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45071.49386574074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45735.6999537037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>45749.68863425926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44390</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>45461</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>45923</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44468.60568287037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>45950</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>45923</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44851.49621527778</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>45952.80421296296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44994</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44981</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>45721.73804398148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>45721.74442129629</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>45656.66166666667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>45656.66363425926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45329</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>45756.58894675926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>45755</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45653.62631944445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45960.28282407407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45965.32422453703</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44831</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45968.67791666667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44997</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>45288</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>45014</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>45596.36135416666</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>45721.78883101852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>45756.32365740741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>45400.32577546296</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>45275.47011574074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>44999.50241898148</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>45636.46195601852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>45587.38203703704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>44257</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45639.41188657407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>45742.62212962963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>45993.58465277778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>45706</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>45071.48055555556</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>45659.38747685185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>46000.67261574074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45656.65996527778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>45366.64084490741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>45371.87320601852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>46001</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44601.44640046296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>46002.39636574074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44789.60099537037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>45706</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>45687.6631712963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44613</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44773.47849537037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>46054.64793981481</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>46054.65030092592</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>45726.31684027778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>46054.64555555556</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>45096.64859953704</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>45632.62684027778</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>45632.63079861111</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44726</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>45719</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>45749.63190972222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>45743.78899305555</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45744.32858796296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>45744.3337962963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>45744.32612268518</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44777.45361111111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>46063</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44390</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44925.90137731482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>45736.85748842593</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45743.64266203704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>46027.46872685185</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>46063</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>46031.62039351852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>46031.62196759259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45679</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>46052</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45701.66392361111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>46031.62402777778</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45729.53674768518</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>46077.65947916666</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45525</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45525.55266203704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>46078.53839120371</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>46078.54032407407</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>46066.52289351852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44992</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>45359.66539351852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44593.58465277778</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>46078.5959375</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>45335</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45638</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>44775.64850694445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>44895.39894675926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>45371.87774305556</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>45065</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>45359.46068287037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45363.36511574074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>45323.77944444444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>45356.60851851852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44748</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>44869</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45699.64993055556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45131</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>45131.45756944444</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>45035</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>45219.57056712963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45205</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19976,7 +19976,7 @@
         <v>44936</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20033,7 +20033,7 @@
         <v>45359</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20090,7 +20090,7 @@
         <v>44543</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>45371.83412037037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20204,7 +20204,7 @@
         <v>45371.84763888889</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>45743.78336805556</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>45398.38857638889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>45398.41739583333</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>45099</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>45242.61020833333</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>45242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20603,7 +20603,7 @@
         <v>45656.65846064815</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         <v>45743.71736111111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>45596.37319444444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         <v>45188</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>45208</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         <v>44777.44266203704</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44629.38306712963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44992</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>45749.63446759259</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>45653.62395833333</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>45653.62820601852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45728.53489583333</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>45733.63225694445</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45617.35008101852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>45699.65769675926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         <v>45253</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21572,7 +21572,7 @@
         <v>45646.48326388889</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21629,7 +21629,7 @@
         <v>45744.35528935185</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>45722.54424768518</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21743,7 +21743,7 @@
         <v>45323.78577546297</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         <v>45776</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>45777.4967824074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>45777.36047453704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>45777.36590277778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>45784.62885416667</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>45784.5525</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>45792.62453703704</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45610</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>45793.53262731482</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>45679</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>45800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
